--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Tutorial\JavaTutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechDocuments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C6F51C-29EA-471B-B479-FF30709F9ECE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094AD88-EF09-4090-9E60-CC330DC6D95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Java" sheetId="6" r:id="rId2"/>
-    <sheet name="DesignPattern" sheetId="10" r:id="rId3"/>
-    <sheet name="Spring" sheetId="9" r:id="rId4"/>
-    <sheet name="OOP" sheetId="17" r:id="rId5"/>
-    <sheet name="AOP" sheetId="15" r:id="rId6"/>
+    <sheet name="OOP" sheetId="17" r:id="rId3"/>
+    <sheet name="AOP" sheetId="15" r:id="rId4"/>
+    <sheet name="Spring" sheetId="9" r:id="rId5"/>
+    <sheet name="Annotations" sheetId="21" r:id="rId6"/>
     <sheet name="Spring Security" sheetId="8" r:id="rId7"/>
     <sheet name="Database" sheetId="5" r:id="rId8"/>
-    <sheet name="Spring Boot" sheetId="16" r:id="rId9"/>
+    <sheet name="DesignPattern" sheetId="10" r:id="rId9"/>
     <sheet name="Reactive Programing" sheetId="14" r:id="rId10"/>
     <sheet name="Microservice" sheetId="3" r:id="rId11"/>
     <sheet name="Container" sheetId="12" r:id="rId12"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="419">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -1369,23 +1369,6 @@
     <t>Hibernate</t>
   </si>
   <si>
-    <t>Spring data JPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - JPA là viết tắt của Java Persistence API, nó là một đặc tả Java cho việc ánh xạ giữa các đối tượng Java với cơ sở dữ liệu quan hệ sử dụng công nghệ phổ biến là ORM (Object Relational Mapping).
- - JPA cung cấp đầy đủ các công cụ cho phép chúng ta có thể thao tác với cơ sở dữ liệu một cách đơn giản và nhanh chóng. JPA có thể dùng để persist một đối tượng Java (POJO – Plain Old Java Object) vào trong cơ sở dữ liệu hoặc lấy dữ liệu từ cơ sở dữ liệu và ánh xạ (mapping) ra các đối tượng Java một cách đơn giản.
- - JPA hoạt động như một cầu nối giữa các table/ các mối quan hệ giữa các table trong database và các class/ mối quan hệ giữa các object. Ví dụ: table USER với các column (Id, username, password) sẽ tương ứng với class User.java với các field Id, username, password. Từ đó mỗi khi truy vấn table hay các column ta sẽ gọi trực tiếp các phương thức trên các class, các field của class mà không cần quan tâm tới việc đang dùng loại database nào, kiểu dữ liệu database ra sao, …
- -  JPA là một tập hơp rất nhiều công cụ và framework mà trong đó Hibernate chỉ là một trong các công cụ của JPA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ORM (Object Relational Mapping) là một kỹ thuật lập trình cho phép ánh xạ cơ sở dữ liệu đến các đối tượng thuộc ngôn ngữ lập trình hướng đối tượng chẳng hạn như C#, Java,… (các table tương ứng các class, mối ràng buộc giữa các table tương ứng quan hệ giữa các class ‘has a’ , ‘is a’).
- - Cụ thể hơn, chúng ta sẽ chuyển dữ liệu trong CSDL quan hệ sang đối tượng. Điều này giúp lập trình viên có thể thao tác với CSDL (database) một cách dễ hiểu, tự nhiên mà không cần phải quan tâm đến database hay kiểu dữ liệu trong database,…
- - </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  Hibernate là một thự viện ORM của Java</t>
-  </si>
-  <si>
     <t>https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence</t>
   </si>
   <si>
@@ -1664,12 +1647,1019 @@
  + kubectl get all (See all objects)
  + kubectl create deployment my-nginx --image nginx (create a deployment of the nginx web server)</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A way to store information in our computer
+ - Can be accessed by a name we give them</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Declaration Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Used to define a variable by indicating the data type, and name, then optionally to set the variable to a specific value</t>
+  </si>
+  <si>
+    <t>Expression (biểu thức)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Is a coding construct, that evaluates to a single value</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Boolean value: boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Single character: char</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Real number (floating point or decimal): float double</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Whole number: byte, short, int, long
+ + Integer: is a while number, meaning it doesn't contain a fractional(phân số) element or a decimal</t>
+  </si>
+  <si>
+    <t>Primitive Type</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - is a building block for OOP and allows us to build costom data types</t>
+  </si>
+  <si>
+    <t>Wrapper Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Provide simple operations, as well as some basic information about the primitive data type</t>
+  </si>
+  <si>
+    <t>Floating Point</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Strings are Immutable (you can't change a String after it's created)
+ -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> String can be used like a 9th primitive type, but it's not a primitive type at all, it’s a class</t>
+    </r>
+  </si>
+  <si>
+    <t>Operators, Operands and Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15 + 12 
+ + is Operators
+ 15, 12 is Operands
+ 15 + 12 is Expression</t>
+  </si>
+  <si>
+    <t>Inversion Of Control (IoC)</t>
+  </si>
+  <si>
+    <t>Spring Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Create and manage objects (Inversion of Control)
+ - Inject object dependencies (Dependency Injection)
+ - Implements: 
+   + XML configuration file (legacy)
+   + Java Annotations (modern)
+   + Java Source Code (modern)</t>
+  </si>
+  <si>
+    <t>Spring Dependency Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Component</t>
+  </si>
+  <si>
+    <t>Spring Bean</t>
+  </si>
+  <si>
+    <t>Spring bean is just a regular Java class that is managed by Spring</t>
+  </si>
+  <si>
+    <t>Annotaions name</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Marks the class as a Spring Bean
+ - A Spring Bean is just a regualr Java class that is managed by Spring
+ - @Component also makes the bean available for dependency injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Autowired </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tells Spring to inject a dependency</t>
+  </si>
+  <si>
+    <t>Component Scanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @SpringBootApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Enable :
+ + Auto configuration (@EnableAutoConfiguration)
+ + Component scanning (@ComponentScan)
+ + Additional configuration (@Configuration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @EnableAutoConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Enables Spring Boot's auto-configuration support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ComponentScan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Enables component scanning of current package, also recursively scans sub-packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Able to register extra beans with @Bean or import other configuration classes</t>
+  </si>
+  <si>
+    <t>SpringApplication.run(SpringCoreApplication, args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Bootstrap your SpringBoot application
+ - Creates application context and register all beans
+ - Start the embedded server: Tomcat, etc, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Spring will scan your Java classes for sprcial annotations: @Component, etc….
+ - Automatically register the beans in the Spring container
+ - Same package as your main Spring Boot application, also sub-packages recursuvely
+ - This defines a base search package :
+  + Allows you to leverage default component scanning 
+ + No need to explicity reference the base package name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The dependency inversion principle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - The client delegates to anpther object the responsibility of providing its dependencies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Injection Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + Constructor Injection :
+      * Use this when you have required dependencies
+      * Generally recommended by the spring.io development team as firs choice
+   + Setter Injection:
+      * Use this then you have optional dependencies
+      * If dependency is not provide, your app can provide reasonable default logic
+   + Field Injection
+      * It makes the code harder to unit test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- AutoWiring:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  + For dependency injection, Spring can use autiwiring
+  + Spring will look for a class that matches, matches by type: class or interface
+  + Spring will inject it automatically ... hence it is autowired</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Qualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Specify the bean id: same name as class, first character lower-case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Primary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Instead of specifying a coach by name using @Qualifier
+ - I simply need a "coach" … I don't care which coach. If there are multiple coaches then you coaches figure it out … and tell me who's the primary coach
+ - If you mix @Primaty and @Qualifier: @Qualifier has higher priority
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not recommend</t>
+    </r>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Lazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lazy initialization beans</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - By default, when your application starts, all beans are initialized: @Component, etc …
+ - Spring will create an instance of each and make them available
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lazy Initialization :
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Instead of creating all beans up front, we can specify lazy initialization
+   + A bean will only be initialized in the following cases: 
+      * It is needed for dependency injection
+      * Or it is explicity requested
+   + Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to a given class
+   + global configuration: spring.main.lazy-initialization = true
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+   + Only create objects as needed
+   + May help with faster startup time if you have lage number of components
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + If you have related components like @RestController, not created until requested
+   + May not discover configuration issues until too late
+   + Need to make sure you have enough memory for all beans once created</t>
+    </r>
+  </si>
+  <si>
+    <t>Bean Scopes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Scope refers to the lifecycle of a bean
+ - How long does the bean live ?
+ - How many instances are created ?
+ - How the beans is share ? 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Singleton :
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Spring container creates only one instance of the bean, by default
+  + It is cached in memory
+  + All dependency injections for the bean: 
+     * will referenced the SAME bean
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prototype
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Creates a new bean instance for each container request</t>
+    </r>
+  </si>
+  <si>
+    <t>Bean Lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (Container Started)  --&gt;  Bean Instantiated  --&gt;  Dependencies Injected  --&gt;  Internal Spring Processing  --&gt;  Your Custom Init Method  --&gt; (Bean is ready for use)  --&gt;  (Container is shutdown)  --&gt; Your custom destroy method STOP
+ - Bean lifecycle methods / Hooks: 
+   + Custom code during bean initialization (@PostConstruct): custom business logic methods, setting up handles to resources (db, sockets, file etc) 
+   + Custom code during bean destruction(@PreDestroy): custom business logic methods, clean up handles to resouces (db, sockets, files etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PostConstruct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PreDestroy</t>
+  </si>
+  <si>
+    <t>Java Config Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - use @Configuration and @Bean to create bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Hibernate là một thự viện ORM của Java
+ - a framework for persisting / saving Java objects in a database
+ - HBN handles all of the low-level SQL
+ - Minimizes the amount of JDBC code you have to develop
+ - HBN provide the Object - to - Relational Mapping (ORM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ORM (Object Relational Mapping) là một kỹ thuật lập trình cho phép ánh xạ cơ sở dữ liệu đến các đối tượng thuộc ngôn ngữ lập trình hướng đối tượng chẳng hạn như C#, Java,… (các table tương ứng các class, mối ràng buộc giữa các table tương ứng quan hệ giữa các class ‘has a’ , ‘is a’).
+ - Cụ thể hơn, chúng ta sẽ chuyển dữ liệu trong CSDL quan hệ sang đối tượng. Điều này giúp lập trình viên có thể thao tác với CSDL (database) một cách dễ hiểu, tự nhiên mà không cần phải quan tâm đến database hay kiểu dữ liệu trong database,…
+ - The developer defines mapping between Java class and database table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - JPA là viết tắt của Java(Jakarta) Persistence API, nó là một đặc tả Java cho việc ánh xạ giữa các đối tượng Java với cơ sở dữ liệu quan hệ sử dụng công nghệ phổ biến là ORM (Object Relational Mapping).
+ - JPA cung cấp đầy đủ các công cụ cho phép chúng ta có thể thao tác với cơ sở dữ liệu một cách đơn giản và nhanh chóng. JPA có thể dùng để persist một đối tượng Java (POJO – Plain Old Java Object) vào trong cơ sở dữ liệu hoặc lấy dữ liệu từ cơ sở dữ liệu và ánh xạ (mapping) ra các đối tượng Java một cách đơn giản.
+ - JPA hoạt động như một cầu nối giữa các table/ các mối quan hệ giữa các table trong database và các class/ mối quan hệ giữa các object. Ví dụ: table USER với các column (Id, username, password) sẽ tương ứng với class User.java với các field Id, username, password. Từ đó mỗi khi truy vấn table hay các column ta sẽ gọi trực tiếp các phương thức trên các class, các field của class mà không cần quan tâm tới việc đang dùng loại database nào, kiểu dữ liệu database ra sao, …
+ -  JPA là một tập hơp rất nhiều công cụ và framework mà trong đó Hibernate chỉ là một trong các công cụ của JPA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hibernate/ JPA uses JDBC for all database communications</t>
+  </si>
+  <si>
+    <t>Automatic Data Souce Configucation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Base on configs, Spring Boot will automatically create the beans: DataSource, EntityManager,…
+ - You can then inject these into your app, for example your DAO</t>
+  </si>
+  <si>
+    <t>Entity Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Marks a class is a entity class
+ - @Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Actually, the use of @Column is optional
+ - If not specifed, the column name is the same name as Java field
+ - In general, I don't recommend this approach
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Java class that is mapped to a database table (@Entity)
+ - Must be annotated with @Entity
+ - Must have a public or protected no-argument constructor 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID Gemeratopm Strtegies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+   + GenerationType.AUTO: pick an appropriate strategy for the particular database
+   + GenerationType.IDENTITY: Assign primary keys using database identity column
+  + GenerationType.SEQUENCE: Assign primary keys using a database sequence
+  + GenerationType.TABLE: Assign primary keys using an underlying database table to ensure uniqueness</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Transactional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RestController</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ControllerAdvice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Similar to an interceptor / filter
+ - Pre-process requests to controllers
+ - Post-process responses to handle exceptions
+ - Perfect for global exception handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RepositoryRestResource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Constraint</t>
+  </si>
+  <si>
+    <t>Custom validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - use @interface, ConstaintValidator class</t>
+  </si>
+  <si>
+    <t>AOP (Aspect - Oriented Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspects </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Aspect can be reused at multiple loications
+ - Same aspect / class … applied based on configuration</t>
+  </si>
+  <si>
+    <t>AOP Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apply the Proxy design pattern</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Programming technoque based on concept of an Aspect
+ - Aspect encapsulates cross-cutting logic
+ - Cross-Cutting Concerns
+ - "Concern" means logic / functionality
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Benefit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+   + Code for Aspect is defined in a single class: better than being scattered everywhere, promotes code reuse and easier to change
+  + Business code in your application is cleaner: Only applies to business functionality, reduces code complexity
+  + Configurable: base on configuration, applu Aspects selectively to different parts of app. No need to make changes to main application code ... very important! </t>
+    </r>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Module of code for a cross-cutting concern (logging, security,…)</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - What action is taken and when it should be applied</t>
+  </si>
+  <si>
+    <t>Join Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - When to apply code during program execution </t>
+  </si>
+  <si>
+    <t>Pointcut</t>
+  </si>
+  <si>
+    <t>Advice Types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before advice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : run before the method</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After finally advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after the method (finally)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After returning advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after the method (success execution)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After throwing advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after method (if exception thrown)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Around advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run before and after method</t>
+    </r>
+  </si>
+  <si>
+    <t>AOP Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring AOP
+ - Spring provides AOP support
+ - Key component of Spring: Security, transactions, caching etc
+ - Uses runtime weaving of aspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AspectJ
+ - Original AOP framework, released in 2001
+ - Provides complete support for AOP
+ - Rich support for
+   + Join points: method-level, constructor, field
+   + code weavingL compile-time, post compile-time and load-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Simpler to use than AspectJ
+ - Uses Proxy pattern
+ - Can migrate to AspectJ when using @Aspect annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Only supports method-level joint point
+ - Can only apply aspects to beans created by Spring app context
+ - Minor performance cost for aspect execution (run-time weaving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Support all joint points 
+ - Works with any POJO, not just beans from app conext
+ - Faster performance compared to Spring AOP
+ - Complete AOP support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Compile-time weaving requires extra compilation step
+ - AspectJ pointcut syntax can become complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AOP run before the method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Uses AOP behind the scenes (beginTransaction / commitTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Specify the aspect class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A predicate expression for where advice should be applied (pointcut expression language)</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Decribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - The data (fields), and the behavior (methods), that are relevant to the real world object we want to describe
+ - A class member can be a field, or a method, or some other type of dependent element
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If a field is static, therer is only one copy in memory, and this value is associated with the class, or template, itself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If a field is not static, it's called an instance field, and each object may have a different value stored for this field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - In orther words, any method that operates on instance fields, needs to be non-static</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - table in database
+ - @Table: specify table mapped in database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - We may want to make a field non-persistent. We can use the @Transient annotation to do so. It specifies that the field won’t be persisted.
+ - For instance, we can calculate the age of a student from the date of birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Enumerated </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Type Enum</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Represent the primary key of an entity. This implies the values are unique so that they can identify a specific entity, that they aren’t null and that they won’t be modified.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Generated Identifiers: 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ AUTO Generation: the persistence provider will determine values based on the type of the primary key attribute. This type can be numerical or UUID. For numeric values, the generation is based on a sequence or table generator, while UUID values will use the UUIDGenerator.
+   + IDENTITY Generation: This type of generation relies on the IdentityGenerator, which expects values generated by an identity column in the database. This means they are auto-incremented
+   + SEQUENCE Generation
+   + TABLE Generation</t>
+    </r>
+  </si>
+  <si>
+    <t>Cascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @OneToMany, @ManyToOne, OneToOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JoinColum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - In the context of persistence in software development, particularly in the context of object-relational mapping (ORM) frameworks like Hibernate in Java, the term "Cascade" refers to the mechanism by which changes to the state of an entity are propagated to its related entities. The term is commonly used with respect to the cascading of operations such as insert, update, and delete.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cascade Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + All :  When a certain operation (insert, update, delete) is performed on an entity, the same operation is cascaded to all related entities. This includes both direct associations (like OneToMany and ManyToOne) and transitive associations (nested associations through other entities).
+   + PERSIST:  This cascade type is used when you want to propagate the persist operation to related entities. The persist operation is responsible for adding a new entity to the database.
+   + MERGE: The merge operation is used to update the state of an entity with the state of another entity. If you use CascadeType.MERGE, changes to the parent entity will cascade to the related entities.
+   + REMOVE: This cascade type is used to propagate the remove operation. When an entity is removed from the database, related entities can be configured to be removed as well.
+   + DETACH: The detach operation is used to detach an entity from the persistence context. If you use CascadeType.DETACH, related entities will also be detached when the parent entity is detached.
+   + REFRESH: The refresh operation is used to reload the state of an entity from the database. If you use CascadeType.REFRESH, related entities will also be refreshed when the parent entity is refreshed.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ForeignKey</t>
+  </si>
+  <si>
+    <t>https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ResponseEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ResponseStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Set status for response endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - represents the whole HTTP response: status code, headers, and body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,8 +2716,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +2760,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1819,13 +2829,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1917,28 +2928,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2104,6 +3133,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20067</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>562112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DEB214-118A-4ACB-BE03-AE7E1EB8D9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7630542" y="4000500"/>
+          <a:ext cx="4609083" cy="371612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>277361</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CDF74E-F881-48D9-86C9-1FC7DAF7BD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230224" y="24631650"/>
+          <a:ext cx="4611237" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -2149,7 +3276,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2725,10 +3852,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,7 +3865,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -2792,7 +3919,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2981,15 +4108,15 @@
         <v>191</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +4161,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +4177,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,142 +4196,142 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" t="s">
         <v>258</v>
       </c>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" t="s">
         <v>269</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" t="s">
+    <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="31" t="s">
-        <v>275</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="31" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="31" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="31" t="s">
-        <v>286</v>
       </c>
       <c r="C27" s="31"/>
     </row>
@@ -3257,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5AD3A3-5024-4CDE-BFAE-6808B9E4E9EF}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83030C63-9E3D-4F4E-A9D7-49D14EAA4149}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,130 +4690,271 @@
       </c>
       <c r="B19" s="20"/>
     </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E4E73-FF69-427F-92C4-A12460A075C7}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651F2D54-F700-4092-A77D-6E54F7D027CC}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>279</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:B7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{BD9B0113-4425-41F9-B5E0-D30F8A9C171D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506DDA08-3003-47A1-A6A4-AC620F083DC8}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2966B1-2E87-4BB4-B91D-4C541B85FB2E}">
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506DDA08-3003-47A1-A6A4-AC620F083DC8}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,7 +4965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -3705,7 +4973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -3714,7 +4982,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -3725,43 +4993,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
@@ -3776,10 +5044,98 @@
         <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3791,33 +5147,209 @@
     <hyperlink ref="E4" r:id="rId2" display="https://www.baeldung.com/learn-spring-course?affcode=22136_bkwjs9xa" xr:uid="{F0BC4E77-1411-44E4-9F7C-19096B8EE527}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651F2D54-F700-4092-A77D-6E54F7D027CC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2966B1-2E87-4BB4-B91D-4C541B85FB2E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A236FD-6001-43E5-B5F9-392862364596}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3826,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F3EE30-B17A-4D1D-B62F-D9DA58532F64}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B43" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,108 +5402,108 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>233</v>
+      <c r="A9" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>229</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4000,16 +5532,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABC047F-39F7-4EA7-A085-2DB49356E1D6}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="83.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4063,43 +5596,43 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="48" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="49" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4129,7 +5662,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4137,10 +5670,10 @@
         <v>212</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="225" x14ac:dyDescent="0.25">
@@ -4148,32 +5681,109 @@
         <v>213</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>216</v>
+        <v>349</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>215</v>
+      <c r="B28" s="40" t="s">
+        <v>350</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4187,21 +5797,117 @@
     <hyperlink ref="C26" r:id="rId3" xr:uid="{D7DDFE89-7280-4BD7-93F3-8D87A7CD8D05}"/>
     <hyperlink ref="C28" r:id="rId4" xr:uid="{322400E4-8065-4322-A406-8D83469B71F4}"/>
     <hyperlink ref="K26" r:id="rId5" location="entities" xr:uid="{5C523603-565B-406B-AD5D-23DF82C4E94E}"/>
+    <hyperlink ref="C34" r:id="rId6" location="pc-cascade" xr:uid="{89541AEC-B2E8-4F94-8E77-B3E985E7DCF3}"/>
+    <hyperlink ref="C40" r:id="rId7" location="associations-many-to-one" xr:uid="{BC01D29F-533F-4531-88D4-4691633F3292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776C7ED9-9B41-4C4A-A167-4EA9202C063F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E4E73-FF69-427F-92C4-A12460A075C7}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{BD9B0113-4425-41F9-B5E0-D30F8A9C171D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -8,37 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechDocuments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094AD88-EF09-4090-9E60-CC330DC6D95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE53348-BDB9-4D41-95FD-E4BB0B44497D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Java" sheetId="6" r:id="rId2"/>
-    <sheet name="OOP" sheetId="17" r:id="rId3"/>
-    <sheet name="AOP" sheetId="15" r:id="rId4"/>
-    <sheet name="Spring" sheetId="9" r:id="rId5"/>
-    <sheet name="Annotations" sheetId="21" r:id="rId6"/>
-    <sheet name="Spring Security" sheetId="8" r:id="rId7"/>
-    <sheet name="Database" sheetId="5" r:id="rId8"/>
-    <sheet name="DesignPattern" sheetId="10" r:id="rId9"/>
-    <sheet name="Reactive Programing" sheetId="14" r:id="rId10"/>
-    <sheet name="Microservice" sheetId="3" r:id="rId11"/>
-    <sheet name="Container" sheetId="12" r:id="rId12"/>
-    <sheet name="Git" sheetId="7" r:id="rId13"/>
-    <sheet name="WEB" sheetId="13" r:id="rId14"/>
-    <sheet name="Linux" sheetId="19" r:id="rId15"/>
-    <sheet name="Network" sheetId="18" r:id="rId16"/>
-    <sheet name="Cache" sheetId="11" r:id="rId17"/>
-    <sheet name="Distributed Event Streaming" sheetId="2" r:id="rId18"/>
-    <sheet name="CI CD" sheetId="4" r:id="rId19"/>
+    <sheet name="AOP" sheetId="15" r:id="rId3"/>
+    <sheet name="Spring" sheetId="9" r:id="rId4"/>
+    <sheet name="Annotations" sheetId="21" r:id="rId5"/>
+    <sheet name="Spring Security" sheetId="8" r:id="rId6"/>
+    <sheet name="Database" sheetId="5" r:id="rId7"/>
+    <sheet name="DesignPattern" sheetId="10" r:id="rId8"/>
+    <sheet name="Reactive Programing" sheetId="14" r:id="rId9"/>
+    <sheet name="Microservice" sheetId="3" r:id="rId10"/>
+    <sheet name="Container" sheetId="12" r:id="rId11"/>
+    <sheet name="Git" sheetId="7" r:id="rId12"/>
+    <sheet name="WEB" sheetId="13" r:id="rId13"/>
+    <sheet name="Linux" sheetId="19" r:id="rId14"/>
+    <sheet name="Network" sheetId="18" r:id="rId15"/>
+    <sheet name="Cache" sheetId="11" r:id="rId16"/>
+    <sheet name="Distributed Event Streaming" sheetId="2" r:id="rId17"/>
+    <sheet name="CI CD" sheetId="4" r:id="rId18"/>
+    <sheet name="Validation" sheetId="22" r:id="rId19"/>
+    <sheet name="Course" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="518">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2481,63 +2482,6 @@
     <t xml:space="preserve"> - A predicate expression for where advice should be applied (pointcut expression language)</t>
   </si>
   <si>
-    <t>Inheritance</t>
-  </si>
-  <si>
-    <t>Decribe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - The data (fields), and the behavior (methods), that are relevant to the real world object we want to describe
- - A class member can be a field, or a method, or some other type of dependent element
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If a field is static, therer is only one copy in memory, and this value is associated with the class, or template, itself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If a field is not static, it's called an instance field, and each object may have a different value stored for this field</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - In orther words, any method that operates on instance fields, needs to be non-static</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Table</t>
   </si>
   <si>
@@ -2653,6 +2597,1859 @@
   </si>
   <si>
     <t xml:space="preserve"> - represents the whole HTTP response: status code, headers, and body</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Validating data is a common task that occurs throughout all application layers, from the presentation to the persistence layer</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - @ExceptionHandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - @ResponseStatus</t>
+  </si>
+  <si>
+    <t>https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - @ControllerAdvice
+ A controller advice allows you to use exactly the same exception handling techniques but apply them across the whole application, not just to an individual controller
+ Any class annotated with @ControllerAdvice becomes a controller-advice and three types of method are supported:
+     - Exception handling methods annotated with @ExceptionHandler.
+     - Model enhancement methods (for adding additional data to the model) annotated with @ModelAttribute. Note that these attributes are not available to the exception handling views.
+      - Binder initialization methods (used for configuring form-handling) annotated with @InitBinder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - is a way to model real word objects, as software objects, which contain both data and code
+ - OOP is a common acronym(từ viết tắt) for Object Oriented Programming
+ - Sometimes called Class-based programming, class-based programming starts with classes
+ - State and Bahavior</t>
+  </si>
+  <si>
+    <t>Access modifiers</t>
+  </si>
+  <si>
+    <t>public: any other class in any package can access this class</t>
+  </si>
+  <si>
+    <t>protected: allows classes in the same package, and any subclasses in other packages, to have access to the member</t>
+  </si>
+  <si>
+    <t>private: No other class can access this member</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - When the modifiers is omitted(bỏ qua), this has special meaning, called package access, meaning the class is accessible only to classes in the same package
+ - An access modifier at the member level, allows granular control (kiểm soát chi tiết) over class members</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Is a special keyword in Java, meaning the variable or attribute has a type, but no reference to an object
+ - No instance, or object, is assigned to the variable or field
+ - Fields with primitive data types are never null</t>
+  </si>
+  <si>
+    <t>Reference vs Object vs Instance vs Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Static
+ - Instance (not static)
+ - Reference</t>
+  </si>
+  <si>
+    <t>POJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Plain old java object
+ - is a class that generally only hass instance fields
+ - It's used to house data, and pass data, between functional classes
+ - Usually has few, if any methods other than getters and setters
+ - Many database frameworks use POJO's to read data from, or to write data to, databases, files or streams</t>
+  </si>
+  <si>
+    <t>Transaction Management</t>
+  </si>
+  <si>
+    <t>Declarative</t>
+  </si>
+  <si>
+    <t>Programmatic</t>
+  </si>
+  <si>
+    <t>How plain JDBC Transaction Management works</t>
+  </si>
+  <si>
+    <t>https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth</t>
+  </si>
+  <si>
+    <t>Transaction (ACID)
+https://www.mongodb.com/basics/acid-transactions
+https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth</t>
+  </si>
+  <si>
+    <t>How Spring’s or Spring Boot’s Transaction Management works</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - You need a connection to the database to start transactions. DriverManager.getConnection(url, user, password) would work as well, though in most enterprise-y applications you will have a data source configured and get connections from that.
+ Connection connection = dataSource.getConnection(); // (1)
+try (connection) {
+    connection.setAutoCommit(false); // (2)
+    // execute some SQL statements...
+    connection.commit(); // (3)
+} catch (SQLException e) {
+    connection.rollback(); // (4)
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The first, but rather sparingly used way to define transactions in Spring is programmatically: Either through a TransactionTemplate or directly through the PlatformTransactionManager. Code-wise, it looks like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>Abstract Factory Design Pattern</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: A transaction is a group of database read and write operations that only succeeds if all the operations within succeed. Transactions can impact a single record or multiple records.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atomicity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(tính nguyên tử): Atomicity guarantees (đảm bảo tính nguyên tử) that all of the commands that make up a transaction are treated as a single unit and either succeed or fail together.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(tính nhất quán): Consistency guarantees that changes made within a transaction are consistent with database constraints. This includes all rules, constraints, and triggers. If the data gets into an illegal state, the whole transaction fails.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isolation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sự cách ly)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Isolation ensures that all transactions run in an isolated(cách biệt, độc lập) environment. That enables running transactions concurrently because transactions don’t interfere(can thiệp, tác động) with each other.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Bền chặt): Durability guarantees that once the transaction completes and changes are written to the database, they are persisted. This ensures that data within the system will persist even in the case of system failures like crashes or power outages
+ - Transaction in the database is required to protect data and keep it consistent(nhất quán) when multiple users access the database at the same time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - is the most widely used method in which the developers tell the framework to handle the transactions
+ - This can be achieved in 2 ways: through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XML configurations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">annotations
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Spring uses AOP (Aspect Orient Programming) over the transactional methods to provide data integrity
+ - It can work with JTA transactions(global) or local transactions by using JDBC, JPA, or Hibernate by adjusting the configuration files
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annotations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ - Which provides broad support for transaction management and allows developers to concentrate(tập trung) on business logic rather than worrying about data integrity(toàn vẹn) in the event of system failures
+ - @EnableTransactionManagement annotation is usually on the main class. Adding @EnableTransactionManagement annotation creates a PlatformTransactionManager for you — with its JDBC auto-configurations
+ - @Transactional annotation on a service class or a method. Using Transactional annotation on the class level marks the class as transactional
+ - What are @Transactional Propagation Levels used for?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Global Transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ -  let you work with multiple transactional resources, typically relational databases and message queues, managed through JTA (Java Transactions API), JTS(Java Transactions Service)
+ - limits any potential reuse of application code, as JTA is normally only available in an application server environment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+ -  are resource-specific, such as a transaction associated with a JDBC connection, JPA, JMS,....
+ - may be easier to use but have a significant disadvantage:  cannot work across multiple transactional resources
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Propagation</t>
+    </r>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cache is a high-speed data storage layer which stores a subset of data, typically transient in nature, 
+so that future requests for that data are served up faster than is possible by accessing the data’s primary storage location. 
+ - Caching allows you to efficiently reuse previously retrieved or computed data
+ - data in a cache is generally stored in fast access hardware such as RAM (Random-access memory) and may also be used in correlation with a software component
+ - Trading off capacity for speed, a cache typically stores a subset of data transiently, in contrast to databases whose data is usually complete and durable.</t>
+  </si>
+  <si>
+    <t>Database Caching</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fundamental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-  Database caching allows you to dramatically increase throughput and lower the data retrieval latency associated with backend databases, 
+which as a result, improves the overall performance of your applications.
+ - A database cache layer can be applied in front of any type of database, including relational and NoSQL databases
+ -  Common techniques used to load data into you’re a cache include lazy loading and write-through methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Database Challenges
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>building distributed applications that require low latency (độ trễ thấp) and scalability(khả năng mở rộng)
+ - Slow processing queries
+ - Cost to scale
+ - The need to simplify data access</t>
+    </r>
+  </si>
+  <si>
+    <t>Relational Database Caching Techniques</t>
+  </si>
+  <si>
+    <t>Caching design patterns</t>
+  </si>
+  <si>
+    <t>Time to live</t>
+  </si>
+  <si>
+    <t>Evictions</t>
+  </si>
+  <si>
+    <t>The thundering herd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lazy caching
+ -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to populate the cache only when an object is actually requested by the application</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should apply a lazy caching strategy anywhere in your app where you have data that is going to be read often, but written infrequently</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write-through
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the cache is updated in real time when the database is updated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It avoids cache misses, which can help the application perform better and feel snappier</t>
+    </r>
+  </si>
+  <si>
+    <t>Content Delivery Network (CDN) Caching</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Static variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - Declare by using keyword static
+ - Static variables are also known as static member variables
+ - Every instance of the class shares the same static variable
+ - If changes are made to that variable, all other instances of that class will see the effect of that change</t>
+    </r>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instance variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Each instance has its own copy of an instance variable
+ - Every instance can have a different value
+ - Instance variables represent the state, of a specific instance of a class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Static method
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Declared using a static modifier
+ - Can't access instance methods and instant variables directly
+ - They're usually used for operations that don't require any data from an instance of the class (from '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instance Method
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Instance methods belong to an instance, of a class
+ - To use an instance method, we have to instantiate the class first, usually by using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can access instance/static method, instance/static variables directly</t>
+    </r>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Are a type of metadata
+ - Metadata is a way of formally describing additional information about our code
+ - Annotations are more structured, and have more meaning, than comments
+ - Because they can be used by the compiler, or other types of pre-processing functions, to get information about the code
+ - Metadata doesn't effect how the code runs, so this code will still run, with or without the annotation</t>
+  </si>
+  <si>
+    <t>Types of Cache</t>
+  </si>
+  <si>
+    <t>Application Server Cache</t>
+  </si>
+  <si>
+    <t>Distributed Cache</t>
+  </si>
+  <si>
+    <t>Global Cache</t>
+  </si>
+  <si>
+    <t>Cache Invalidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LRU (Least Recently Used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LFU (Least Frequently Used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MRU (Most Recently Used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Random Replacement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Local Caches:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A local cache stores your frequently used data within your application
+ - This not only speeds up your data retrieval but also removes network traffic associated with retrieving data, 
+making data retrieval faster than other caching architectures
+ - A major disadvantage is that among your applications, each node has its own resident cache working in a disconnected manner. The information stored within an individual cache node, whether its database cached data, web sessions or user shopping carts cannot be shared with other local caches. This creates challenges in a distributed environment where information sharing is critical to support scalable dynamic environments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remote caches
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Remote caches are stored on dedicated servers(servers chuyên dụng) and typically built upon key/value NoSQL stores such as Redis and Memcached. They provide hundreds of thousands to up-to a million requests per second per cache node</t>
+    </r>
+  </si>
+  <si>
+    <t>Database Integrated Caches</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - Improved performance: Caching can significantly reduce the time it takes to access frequently accessed data, which can improve system performance and responsiveness
+ - Reduced load on the original source: By reducing the amount of data that needs to be accessed from the original source, caching can reduce the load on the source and improve its scalability and reliability
+ - Cost savings: Caching can reduce the need for expensive hardware or infrastructure upgrades by improving the efficiency of existing resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - Data inconsistency: If cache consistency is not maintained properly, caching can introduce issues with data consistency.
+ - Cache eviction issues: If cache eviction policies are not designed properly, caching can result in performance issues or data loss.
+ - Additional complexity: Caching can add additional complexity to a system, which can make it more difficult to design, implement, and maintain.
+ - Overall, caching is a powerful system design concept that can significantly improve the performance and efficiency of a system. By understanding the key principles of caching and the potential advantages and disadvantages, developers can make informed decisions about when and how to use caching in their systems.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Write Through Cache
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the data is first written in the cache and then it is written to the database
+ - This way can keep the consistency of your data between your database and your cache</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantage: minimize the risk of data loss because it’s written in both the cache and the database</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher latency for the write operation because you need to write the data at two places for a single update request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Write Around Cache
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write to the database but in this case you don’t update the cache. So data is written directly to the storage, bypassing the cache</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Write Back Cache
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Firstly flush(xóa) the data from the cache, and then write the data to the cache alone. Once the data is updated in the cache, mark the data as modified, which means the data needs to be updated in DB later. Later an async(bất đồng bộ) job will be performed and at regular intervals, the modified data from the cache will be read to update the database with the corresponding values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The cache in your system can be full at any point in time. So, we need to use some algorithm or strategy to remove the data from the cache, and we need to load other data that has more probability to be accessed in the future. To make this decision we can use some cache eviction policy. Let’s discuss some cache eviction policies one by one…</t>
+    </r>
+  </si>
+  <si>
+    <t>Eviction Policy
+(Chính sách xóa bỏ)</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/system-design-tutorial/?ref=lbp</t>
+  </si>
+  <si>
+    <t>Anotations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@EnableCaching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   apply this annotation at the main class (starter class) of our application in order to tell Spring Container 
+that we need a caching feature in our application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@CachePut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> update data in the Redis Cache while there is any update of data in DB. 
+We apply it on the methods that make modifications in DB.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@CacheEvict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remove the data in the Redis Cache while there is any removal of data in DB. 
+We apply it on the methods that delete data from DB. It can be used with void methods.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Cacheable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - fetch (retrieve) data from the DB to the application and store in Redis Cache. 
+We apply it on the methods that get (retrieve) data from DB. 
+@Cacheable requires a return value of the method that adds or updates data in the cache.
+ - enable caching behavior for a method is to demarcate it with @Cacheable, and parameterize it with the name of the cache where the results would be stored</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@Caching </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple annotations of the same type for caching a method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@CacheConfig </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>we can streamline some of the cache configuration into a single place at the class level, so that we don’t have to declare things multiple times</t>
+    </r>
+  </si>
+  <si>
+    <t>Distributed Caching</t>
+  </si>
+  <si>
+    <t>https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9
+https://www.bezkoder.com/spring-boot-redis-cache-example/</t>
+  </si>
+  <si>
+    <t>Record type
+(Plain data carriers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - introduced in JDK14, officially part of Java in JDK 16
+ - purpose is to replace the bolierplate(dư thừa) code of the POJO, but to be more restrictive (hạn chế) 
+ - Is a special class that contains data, that's not meant to be altered (bị thay đổi)
+ - In other words, it seeks to achieve immutability(bất biến), for the data in its members
+ - It contains only the most fundamental methods, such as constructor and accessors
+ - Best for all, don't have to write or generate any of this code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public record Student(String id, String name, int age) {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - First, it's important to understand that the part that's in parenthese, is called the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">record header
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The record header consists of record components, a comma delimited list of components
+ - For each component in the header, Java generates:
+   + A field with the same name and declared type as record component
+   + The field is declared </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private and final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + The field is sometimes referred to as a component field 
+ - Java generates a toString method that prints out each attribute in a formatted String
+ - In addition to creating a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private final field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each component, Java generates a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public accessor method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each component</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Why have immutable record
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are more use cases for immutable data transfer objects, and keeping them well encapsulated
+ - Protect the data from unintended mutations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POJO vs Record
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modify data on your class, you won't be using the record
+ - Reading a whole lot of records, from a database or file source, and simply passing this data around, then the record is a big improvement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Bundling (đóng gói) of behavior and attributes on a single object
+ - The practice of hiding fields, and some methods, from public access
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+   + is a lot like this(), a way to call a constructor on ther super class, directly from the sub class's constructor
+   + Like this(), it has to be the first statement of the constructor, because of that rule, this() and super() can never be called from the same constructor
+   + If you don't make a call to super(), then Java makes it for you, using super's default constructor.
+   + If your super class doesn't have a default constructor, than you must explicitly call super() in all of your constructor, passing the right arguments to that constructor </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inheritance
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We can look at Inheritance as a form of code re-use
+ - It's a way to organize classes into a parent-child hierarchy, which lets the child inherit (re-use), fields and method from its parent
+ - All subclass can execute methods, even though the code is declared on the parent class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Overriding: 
+    + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when you create a method on a subclass, which has the same signature as a method on a super class
+    + Override a parent method, when you want the child class to show different behavior for that method
+    + It can implement cpmpletely different behavior, overriding the behavior of the parent
+    + It can simply call the parent class's method, which is somewhat redundant(dư thừa) to do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ The method can call the parent class's method, and include other code to run, so it can extend the functionality for the subclass, for that behavior</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Polymorphism
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polymophism simply means 'many forms'</t>
+    </r>
+  </si>
+  <si>
+    <t>this() vs super()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Super: 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Super is used to access or call the parent class members (variables and methods) 
+ - commonly used with method overriding, when we call a method with the same name, from the parent class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ This:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - The key word this is used to call the current class members (variables and methods)</t>
+    </r>
+  </si>
+  <si>
+    <t>Overriding vs Overloading</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Method Overloading
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Means providing 2 or more separate methods, in a class, with the same name, but different parameters
+ - Return type may or may not be different, and that allows us to reuse the same method name
+ - It reduces duplicated code, and we don't have to remember multiple method names
+ - It looks like a single method can be called, with different sets of arguments, actuality each call that's made with a different set of arguments, is calling a separate method(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile-time polymorphism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), compiler is determining the right method to call, based on the method name and arguments list
+ - Method overloading rules:
+   + must have same method name, different parameters
+   + May or may not different return types, access modifiers, throw different checked or unchecked exceptions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Method Overriding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Method overriding rules:
+   + must have the same name and same arguments
+   + return type can be a subclass of the return type in the parent calss
+   + It can't have a lower access modifier
+  + Only inherited methods can be overridden, in other words methods can be overridden only in child classes
+  + Constructors and private methods, final method cannot be overridden</t>
+    </r>
+  </si>
+  <si>
+    <t>String Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Have 4 ways to create new String Builder object, using new keyword:
+   + Pass a String
+   + Pass no arguments at all
+   + Pass an integer value
+   + Pass some other type of character sequence (like String Builder)
+ - StringBuilder is mutable, whichj means it can shrink, or growth, in size
+ - By default, an empty StringBuilder starts out with a capacity of 16 (meaning it can contain up to 16 characters before it needs to request more memory), we can pass capacity to StringBuilder constructor
+ - If StringBuilder over characters,it request a larger memory area to store the extra data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOP </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - The data (fields), and the behavior (methods), that are relevant to the real world object we want to describe
+ - A class member can be a field, or a method, or some other type of dependent element
+ - If a field is static, therer is only one copy in memory, and this value is associated with the class, or template, itself
+ - A static method can't be dependent on any one objects's state, so it reference any instance members
+ - If a field is not static, it's called an instance field, and each object may have a different value stored for this field
+ - In orther words, any method that operates on instance fields, needs to be non-static
+ - Getter, setter: control, protect, access to private fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Composition
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is another component of object-oriented programming
+ - Composition is actually modeling parts, and those parts make up a greater whole</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inheritance defines an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IS A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">relationship, Composition defines a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HAS A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relationship</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Composition is a way to make the combination of classes, act like a single coherent(kết hợp) object</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All of our parts were able to inherit a set of attibutes. Calling code didn't have to know anything about these parts
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Composition is preferred over inheritance:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Composition is more flexible. You can add parts in, or remove them, and these changes are less likely to have a downstream effect
+   + Composition provides functional reuse outside of the clas hierarchy, meaning classes can share attributes &amp; behavior, by having similar components, instead of inheriting functionality from a parent or base class
+   + Java's inheritance breaks encapsulation, because subclasses may need direct access to a parent's state or behavior
+   + Adding a class to, or removing a class from, a class hierarchy, may impact all subclasses from that point
+   + In addtion, a new subclass may not need all the functionality or attributes of its parent class</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2732,7 +4529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2765,6 +4562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2836,7 +4639,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2897,9 +4700,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2939,23 +4739,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3190,8 +5044,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>277361</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1685925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3280,16 +5134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>572601</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>67376</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>638876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,7 +5166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1143000"/>
+          <a:off x="18878550" y="0"/>
           <a:ext cx="7887801" cy="5020376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3836,101 +5690,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B13BF-06DC-4E08-B1DB-C1225A58C014}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{23A7D921-1755-4D5D-A429-E38A144542A6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A0561-6895-4280-B11B-340306579725}">
   <dimension ref="A1:C52"/>
   <sheetViews>
@@ -3951,7 +5710,7 @@
       <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4083,7 +5842,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -4172,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30CC5A-6C2A-481F-886D-F2DF7E198044}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -4188,15 +5947,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="70" t="s">
         <v>254</v>
       </c>
       <c r="B3" t="s">
@@ -4204,61 +5963,61 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="70"/>
       <c r="B4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="70"/>
       <c r="B5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="70"/>
       <c r="B6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="70"/>
       <c r="B7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="70"/>
       <c r="B8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="70"/>
       <c r="B9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="70"/>
       <c r="B10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="70"/>
       <c r="B11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="70"/>
       <c r="B12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="70" t="s">
         <v>265</v>
       </c>
       <c r="B15" t="s">
@@ -4266,74 +6025,74 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="70"/>
       <c r="B16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="70"/>
       <c r="B17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="70"/>
       <c r="B18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4345,7 +6104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D49DECA-13F0-4A9D-BB6D-78123988DA1F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4380,7 +6139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5AD3A3-5024-4CDE-BFAE-6808B9E4E9EF}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -4410,7 +6169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AA3BC-9FAF-4C55-A2CE-52C73F20EC79}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4424,7 +6183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4501BC3F-8B51-4DD2-9924-DD84D6878F13}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4438,22 +6197,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708CA869-331B-4896-98A8-3F5675CD113D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="30" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9" xr:uid="{78F4745B-B3BA-40BA-972A-A42AA9527014}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FCC361-9E77-4EE7-B8AA-71AF5127D954}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4515,7 +6515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63673833-7DB0-4EE5-A771-045DDA300F8B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4559,22 +6559,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83030C63-9E3D-4F4E-A9D7-49D14EAA4149}">
-  <dimension ref="A1:B38"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463E97A-8C9F-49B7-995F-08947BD1A7D1}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83030C63-9E3D-4F4E-A9D7-49D14EAA4149}">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4582,15 +6618,15 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="44" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4598,7 +6634,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="44" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4606,15 +6642,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4622,30 +6658,39 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+    </row>
     <row r="12" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="44" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="49" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -4653,7 +6698,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="48" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -4661,15 +6706,15 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="48" t="s">
         <v>138</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -4677,7 +6722,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="49" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -4685,13 +6730,22 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="20"/>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+    </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="45" t="s">
         <v>283</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4699,12 +6753,12 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="45" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="45" t="s">
         <v>286</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4712,7 +6766,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="45" t="s">
         <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4720,12 +6774,15 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="45" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4733,22 +6790,28 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
       <c r="B30" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
       <c r="B31" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
       <c r="B32" s="1" t="s">
         <v>291</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+    </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="45" t="s">
         <v>296</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4756,7 +6819,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="45" t="s">
         <v>298</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4764,12 +6827,12 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="45" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="45" t="s">
         <v>301</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4777,63 +6840,230 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="45" t="s">
         <v>303</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A62" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A54:A59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651F2D54-F700-4092-A77D-6E54F7D027CC}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9A904D-C2F8-4F50-BF1B-0442474505CB}">
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>397</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E5B56F24-42FF-49A5-A7C5-18CC9F61360C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2966B1-2E87-4BB4-B91D-4C541B85FB2E}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,7 +7078,7 @@
       <c r="A2" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>374</v>
       </c>
     </row>
@@ -4856,7 +7086,7 @@
       <c r="A3" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4904,33 +7134,33 @@
       <c r="A10" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4943,22 +7173,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506DDA08-3003-47A1-A6A4-AC620F083DC8}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="139.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="303" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="44" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -4966,7 +7197,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4974,7 +7205,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="44" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4982,176 +7213,222 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="61" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="44" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="45" t="s">
         <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>368</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="60"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="https://github.com/JavaaTechSolutions/springboot3-security-jwt/blob/main/src/main/java/com/sc/repository/UserInfoRepository.java" xr:uid="{9D0B76C3-7B47-401F-9ADE-2DFD4CEA0EEC}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://www.baeldung.com/learn-spring-course?affcode=22136_bkwjs9xa" xr:uid="{F0BC4E77-1411-44E4-9F7C-19096B8EE527}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{62A38103-FDDB-4DA8-AF27-AFB914A990A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A236FD-6001-43E5-B5F9-392862364596}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -5166,10 +7443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5177,7 +7454,7 @@
       <c r="A2" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5193,7 +7470,7 @@
       <c r="A4" t="s">
         <v>318</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5233,7 +7510,7 @@
       <c r="A9" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5264,7 +7541,7 @@
       <c r="A14" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5272,12 +7549,12 @@
       <c r="A15" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>359</v>
       </c>
       <c r="B16" t="s">
@@ -5298,7 +7575,7 @@
       <c r="A19" t="s">
         <v>362</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5335,18 +7612,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B26" t="s">
         <v>415</v>
-      </c>
-      <c r="B26" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5354,7 +7631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F3EE30-B17A-4D1D-B62F-D9DA58532F64}">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -5393,44 +7670,44 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="29" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5438,7 +7715,7 @@
       <c r="A14" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5446,7 +7723,7 @@
       <c r="A16" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5454,7 +7731,7 @@
       <c r="A18" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5462,7 +7739,7 @@
       <c r="A21" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5470,7 +7747,7 @@
       <c r="A24" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5478,7 +7755,7 @@
       <c r="A27" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5486,7 +7763,7 @@
       <c r="A31" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5494,7 +7771,7 @@
       <c r="A34" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5502,7 +7779,7 @@
       <c r="A37" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5530,19 +7807,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABC047F-39F7-4EA7-A085-2DB49356E1D6}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -5596,43 +7873,43 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="65" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="68" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="66"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="66"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="67"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5672,7 +7949,7 @@
       <c r="B22" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5683,7 +7960,7 @@
       <c r="B24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5694,18 +7971,18 @@
       <c r="B26" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="29" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5727,69 +8004,127 @@
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>412</v>
+      <c r="C34" s="41" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{768191C0-530F-42CC-8E43-4BDAF02276E2}"/>
@@ -5799,18 +8134,20 @@
     <hyperlink ref="K26" r:id="rId5" location="entities" xr:uid="{5C523603-565B-406B-AD5D-23DF82C4E94E}"/>
     <hyperlink ref="C34" r:id="rId6" location="pc-cascade" xr:uid="{89541AEC-B2E8-4F94-8E77-B3E985E7DCF3}"/>
     <hyperlink ref="C40" r:id="rId7" location="associations-many-to-one" xr:uid="{BC01D29F-533F-4531-88D4-4691633F3292}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{A6EECA84-846B-41CD-8886-08BA9F5F3F04}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{502D0838-84D6-48A8-B26F-182DE5A1A55F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E4E73-FF69-427F-92C4-A12460A075C7}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,10 +8161,10 @@
       <c r="A1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5835,42 +8172,42 @@
       <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,6 +8236,11 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5910,4 +8252,99 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B13BF-06DC-4E08-B1DB-C1225A58C014}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{23A7D921-1755-4D5D-A429-E38A144542A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechDocuments\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE53348-BDB9-4D41-95FD-E4BB0B44497D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA823D9-1A94-4024-8482-BD20A93D04A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,17 +21,17 @@
     <sheet name="Spring Security" sheetId="8" r:id="rId6"/>
     <sheet name="Database" sheetId="5" r:id="rId7"/>
     <sheet name="DesignPattern" sheetId="10" r:id="rId8"/>
-    <sheet name="Reactive Programing" sheetId="14" r:id="rId9"/>
-    <sheet name="Microservice" sheetId="3" r:id="rId10"/>
-    <sheet name="Container" sheetId="12" r:id="rId11"/>
-    <sheet name="Git" sheetId="7" r:id="rId12"/>
+    <sheet name="Git" sheetId="7" r:id="rId9"/>
+    <sheet name="Container" sheetId="12" r:id="rId10"/>
+    <sheet name="Reactive Programing" sheetId="14" r:id="rId11"/>
+    <sheet name="Microservice" sheetId="3" r:id="rId12"/>
     <sheet name="WEB" sheetId="13" r:id="rId13"/>
     <sheet name="Linux" sheetId="19" r:id="rId14"/>
     <sheet name="Network" sheetId="18" r:id="rId15"/>
     <sheet name="Cache" sheetId="11" r:id="rId16"/>
     <sheet name="Distributed Event Streaming" sheetId="2" r:id="rId17"/>
     <sheet name="CI CD" sheetId="4" r:id="rId18"/>
-    <sheet name="Validation" sheetId="22" r:id="rId19"/>
+    <sheet name="System Design" sheetId="22" r:id="rId19"/>
     <sheet name="Course" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="559">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2605,12 +2605,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Validating data is a common task that occurs throughout all application layers, from the presentation to the persistence layer</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
     <t>Exception Handling</t>
   </si>
   <si>
@@ -3954,57 +3948,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Encapsulation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - Bundling (đóng gói) of behavior and attributes on a single object
- - The practice of hiding fields, and some methods, from public access
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>super():</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-   + is a lot like this(), a way to call a constructor on ther super class, directly from the sub class's constructor
-   + Like this(), it has to be the first statement of the constructor, because of that rule, this() and super() can never be called from the same constructor
-   + If you don't make a call to super(), then Java makes it for you, using super's default constructor.
-   + If your super class doesn't have a default constructor, than you must explicitly call super() in all of your constructor, passing the right arguments to that constructor </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Inheritance
  - </t>
     </r>
@@ -4067,30 +4010,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>+ The method can call the parent class's method, and include other code to run, so it can extend the functionality for the subclass, for that behavior</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Polymorphism
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Polymophism simply means 'many forms'</t>
     </r>
   </si>
   <si>
@@ -4450,6 +4369,692 @@
    + Adding a class to, or removing a class from, a class hierarchy, may impact all subclasses from that point
    + In addtion, a new subclass may not need all the functionality or attributes of its parent class</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Bundling (đóng gói) of behavior and attributes on a single object
+ - The practice of hiding fields, and some methods, from public access
+ - In Java, encapsulation means hiding things, by making them private, or inaccessible
+ - WHY: 
+   + To make the interface simpler, we may want to hide unnecessary details
+   + To protect the integrity(toàn vẹn) of data on an object, we may hide or restric access to some of the data and operations
+   + To decouple the published interface from the internal details of the class, we may hide actual names and types of class members 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+   + is a lot like this(), a way to call a constructor on ther super class, directly from the sub class's constructor
+   + Like this(), it has to be the first statement of the constructor, because of that rule, this() and super() can never be called from the same constructor
+   + If you don't make a call to super(), then Java makes it for you, using super's default constructor.
+   + If your super class doesn't have a default constructor, than you must explicitly call super() in all of your constructor, passing the right arguments to that constructor </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Polymorphism
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polymophism simply means 'many forms'
+ - Polymorphism lets us write code to call a method, bt at runtime, this method's behavior can be different, for different objects
+ - This means the behavior that occurs, while the program is executing, depends on the runtime type of the object
+ - And the runtime type, might be different from the declared type in the code
+ - The declared type has some kind of relationship to the runtime type, and inheritance is one way to establish this relationship</t>
+    </r>
+  </si>
+  <si>
+    <t>Local Variable Type Inference (LVTI)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Was introduced in Java 10
+ - One of the benefits is to help with the readability of the code, and to reduce boilerplate code
+ - It can't be used in field declarations on a class
+ - It can't be used in method signatures, either as a parameter type or a return type
+ - It can't be used without an assignment, because the type can't be inferred in that case
+ - It can't be assigned a null literal, again because a type can't be inferred in that case
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Var </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">keyword:
+   + Is a special contextual keyword in Java, that lets our code take advantage of Local Variable Type Inference
+   + By using var as the type, we're telling Java to figure out the compile-time type for us </t>
+    </r>
+  </si>
+  <si>
+    <t>Run Time vs Compile Time Typing</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compile time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - You can think of the compile time as the declared type
+ - This type is declared either as a variable reference, or a method return type, or a method parameter, for example
+ - In the case of LVTI, we don't declare a type for the compiled reference type, it gets inferred, but the byte code is the same, as if we had declared it
+ - In the many cases, the compile time type, is the declared type to the left of the assignment operator
+ - What is returned on the right side of the assignment operator, from whatever expression or method is executed, sometimes can only be determined at runtime, when the code is executing conditionlly, through the statements in the code 
+ - You can assign a runtime instance, to a different compile time type, only if certain rules are followed
+ - We can assign an instance to a variable of the same type, or a parent type , or a parent's parent type, including java.lang.Object, the ultimate base class </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Is a data structure , that allows you to store a sequence of values, all of the same type
+ - You can have arrays for any primitive type, like ints, doubles, boeleans, or any of the 8 primitives, any class
+ - Not resizable</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">List and ArrayList
+ - </t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Boxing and Unboxing</t>
+  </si>
+  <si>
+    <t>Unboxing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boxing
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primitive is boxed, or wrapped, in a containing class, whose main data is the primitive value
+ - Each primitive data type has a wrapper class(Integer, Double,….)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each wrapper type boxes a specific primitive value(int, double,…)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Auto boxing
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Integer boxedInteger = 15;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Auto unboxing
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int unboxedInt = boxedInteger;</t>
+    </r>
+  </si>
+  <si>
+    <t>Colections</t>
+  </si>
+  <si>
+    <t>Enumeartion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - The enum type is Java's type to support something called an enumeration
+ - "A complete ordered listing of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all the items </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in a collection"
+ - Java describes the enum type as: A special data type that contains predefined constants
+ - A constant is a variable whose value can't be changed, once it's value has been assigned
+ - So an enum is a little like an array, except it's elements are known, not changeable, and each element can be referred to by a constant name, instead of an index position</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abstraction
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generalization: 
+   + When you start modeling objects for your application, you start by identitfying what features and behavior your objects have in common
+   + We generalize when we create a class hierachy (cấp bậc)
+   + A base class is the most general class, the most basic building block, which everything can be said to have in common</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abstraction:
+  + A part of generalizing is using abstraction
+  + You can generalize a set of characteristrics and behavior into an abstract type
+  + Abstraction simplifies the view of a set of item's traits and behavior, so we can talk about them as a group, as well as generalize their functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Abstract Class:.....
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Abstract class are very similar to interfaces. You can't instantiate either of them. Both types may contain a mix of methods declared with, or without a method block
+   + With abstract classes, you can decalre fields that aren't static final , intance fields in other words
+   + Also with abstract classes, you can use any if the four access modifers for its concrete methods
+   + You can also use all but the private access modifier, for its abstract methods
+   + An abstract class can extend only one parent clas, but it can implement multiple interfaces
+   + When an abstract class is subclassed, the subclass usually provides implementations for all of the abstract methods in its parent class 
+   + You want to share code, among several closely related classes (Animal for example, with fields, name, age,...)
+   + You expect classes that extend your abstract class, to have common methods or fields, or require access modifires other than public 
+   + Summary: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An abstract class provides a common definition, as a base class, that multiple, derived claases can share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Interface:.....
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Before JDK 8, the interface type could only have public abstract methods
+   + JDK 8 instrduced the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method and public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">static </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method, and JDK 9 introduced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">private </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method, both static and non-static
+   + Summary: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The interface decouples the "what", from the "how", and is used to make different types, behave in similar ways
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Nested Classes, Inner Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A class contain other type within the class body, such as other classes, interfaces, enums and records
+ - These are called nested types, or nested classes
+ - You might want to use nested classes when your classed are tightly coupled (liên kết chặt chẽ), meaning their functionality is interwoven(đan xen)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nested Classes
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Static nested class: Declared in class body. Much like a static field, access to this class is through the Class name identifier
+ - Instance or inner class: Decalred in class body. This type of class can only be accessed through an instance of the outer class
+ - Local class: Declared within a method body
+ - Anonymous class: Unnamed class, declared and instantiated in same statement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Static Nested Class
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is a class enclosed in the structure of another class, decalred as static
+ - This means the calss, if accessed externally, requires the outer class name as part of ther qualifying name
+ - This class has the advantage of being able to access private attributes on the outer class
+ - The enclosing class can access any attributes on the static nested class, also including private attributes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inner Class
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inner class are non-static classes, decalred on an enclosing class, at the member level
+ - Inner classes can have any of the four valid access modifiers
+ - An inner class has access to instance members, including private members, of the enclosing class
+ - Instantiating an inner class from external code, is a bit tricky
+ - As of JDK16, static members of all types are supported on inner classes</t>
+    </r>
+  </si>
+  <si>
+    <t>Anonymous Classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Local Classes
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local classes are inner classes, but declared directly in a code block, usually a method body
+ - Because of that, they don't have access modifiers, and are only accessible to that method body while it's executing
+ - Like an inner class, they have access to all fields and methods on the enclosing class
+ - They can also access local variables and method arguments, that are final or effectively final</t>
+    </r>
+  </si>
+  <si>
+    <t>Lambda Expressions</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Microservices vs Moniliths</t>
+  </si>
+  <si>
+    <t>API Design</t>
+  </si>
+  <si>
+    <t>Data Partitioning</t>
+  </si>
+  <si>
+    <t>Rate Limiting</t>
+  </si>
+  <si>
+    <t>Message Queues</t>
+  </si>
+  <si>
+    <t>Monitoring and Logging</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Connecting Protocols</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency </t>
+  </si>
+  <si>
+    <t>Availabiblity</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Cost Optimizations</t>
+  </si>
+  <si>
+    <t>CAP (theorem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partition tolerance</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +5176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4631,6 +5236,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4639,7 +5268,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4781,13 +5410,31 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4818,6 +5465,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5690,248 +6340,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A0561-6895-4280-B11B-340306579725}">
-  <dimension ref="A1:C52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32" style="5" customWidth="1"/>
-    <col min="2" max="2" width="109" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://co-well.vn/nhat-ky-cong-nghe/huong-dan-cac-buoc-phat-trien-he-thong-microservice-voi-docker/" xr:uid="{F2066BBF-2117-4E80-8AA3-E9510A28E0DB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30CC5A-6C2A-481F-886D-F2DF7E198044}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5955,7 +6363,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="76" t="s">
         <v>254</v>
       </c>
       <c r="B3" t="s">
@@ -5963,61 +6371,61 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="76" t="s">
         <v>265</v>
       </c>
       <c r="B15" t="s">
@@ -6025,37 +6433,37 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="76"/>
       <c r="B16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+      <c r="A17" s="76"/>
       <c r="B17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
+      <c r="A18" s="76"/>
       <c r="B18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="76" t="s">
         <v>276</v>
       </c>
       <c r="B22" s="30" t="s">
@@ -6064,31 +6472,31 @@
       <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="30" t="s">
         <v>282</v>
       </c>
@@ -6104,37 +6512,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D49DECA-13F0-4A9D-BB6D-78123988DA1F}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B13BF-06DC-4E08-B1DB-C1225A58C014}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>126</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{23A7D921-1755-4D5D-A429-E38A144542A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A0561-6895-4280-B11B-340306579725}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="5" customWidth="1"/>
+    <col min="2" max="2" width="109" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="77"/>
+      <c r="B55" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="77"/>
+      <c r="B56" s="5" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A54:A56"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="https://co-well.vn/nhat-ky-cong-nghe/huong-dan-cac-buoc-phat-trien-he-thong-microservice-voi-docker/" xr:uid="{F2066BBF-2117-4E80-8AA3-E9510A28E0DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6188,7 +6921,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,214 +6945,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="30" t="s">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="30" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="38" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="38" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>456</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="38" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="38" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="38" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="38" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="38" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="38" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="38" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="38" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="52" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>489</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="38" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="38" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="38" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="38" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="38" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="38" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="61" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="B30" s="30" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="30" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="30" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="30" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="30" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="30" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="30" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="30" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,10 +7161,10 @@
     </row>
     <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6561,15 +7294,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463E97A-8C9F-49B7-995F-08947BD1A7D1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6583,10 +7316,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" t="s">
-        <v>418</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6596,10 +7401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83030C63-9E3D-4F4E-A9D7-49D14EAA4149}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6849,179 +7654,308 @@
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B51" s="5" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="5" t="s">
+    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="64"/>
+      <c r="B56" s="39" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="64"/>
+      <c r="B57" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="5" t="s">
-        <v>508</v>
+    </row>
+    <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="64"/>
+      <c r="B60" s="39" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="61"/>
+      <c r="B70" s="57" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="61" t="s">
+        <v>524</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="B72" s="57" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="61"/>
+      <c r="B78" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="61"/>
+      <c r="B80" s="57" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A65:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7044,10 +7978,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7139,7 +8073,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="66" t="s">
         <v>384</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -7153,7 +8087,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="30" t="s">
         <v>386</v>
       </c>
@@ -7213,7 +8147,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="67" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -7224,43 +8158,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
@@ -7388,29 +8322,29 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="C31" s="70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="66"/>
+    </row>
+    <row r="33" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C31" s="64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="33" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7694,10 +8628,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="66" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -7705,8 +8639,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="29" t="s">
         <v>230</v>
       </c>
@@ -7873,43 +8807,43 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="71" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="74" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="66"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="72"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="73"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8065,59 +8999,59 @@
     </row>
     <row r="41" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A45" s="64"/>
+      <c r="B45" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>443</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8161,7 +9095,7 @@
       <c r="A1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>144</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -8172,42 +9106,42 @@
       <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8240,7 +9174,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -8255,96 +9189,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B13BF-06DC-4E08-B1DB-C1225A58C014}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D49DECA-13F0-4A9D-BB6D-78123988DA1F}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{23A7D921-1755-4D5D-A429-E38A144542A6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechDocuments\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\JavaTutorial\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA823D9-1A94-4024-8482-BD20A93D04A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9322605-1AC7-4D5E-AADD-BBEB7E028C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="580">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -5055,6 +5055,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Partition tolerance</t>
+  </si>
+  <si>
+    <t>Time Base</t>
+  </si>
+  <si>
+    <t>Command Base</t>
+  </si>
+  <si>
+    <t>Event Base</t>
+  </si>
+  <si>
+    <t>Collections Interface</t>
+  </si>
+  <si>
+    <t>List Interface</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>Set Interface</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>SortedSet Interface</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>Dequeue Interface</t>
+  </si>
+  <si>
+    <t>Queue Interface</t>
+  </si>
+  <si>
+    <t>ArrayQueue</t>
+  </si>
+  <si>
+    <t>Map Interface</t>
+  </si>
+  <si>
+    <t>SortedMap Interface</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>Functional Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final modifier </t>
   </si>
 </sst>
 </file>
@@ -5268,7 +5331,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5425,6 +5488,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5435,6 +5507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6363,7 +6438,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>254</v>
       </c>
       <c r="B3" t="s">
@@ -6371,61 +6446,61 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="80"/>
       <c r="B4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="80"/>
       <c r="B5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="80"/>
       <c r="B6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="80"/>
       <c r="B8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="80"/>
       <c r="B9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="80"/>
       <c r="B10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="80"/>
       <c r="B11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="80"/>
       <c r="B12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="80" t="s">
         <v>265</v>
       </c>
       <c r="B15" t="s">
@@ -6433,37 +6508,37 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="80"/>
       <c r="B16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="80"/>
       <c r="B17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="80"/>
       <c r="B18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="80" t="s">
         <v>276</v>
       </c>
       <c r="B22" s="30" t="s">
@@ -6472,31 +6547,31 @@
       <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="30" t="s">
         <v>282</v>
       </c>
@@ -6611,7 +6686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A0561-6895-4280-B11B-340306579725}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -6842,7 +6917,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="81" t="s">
         <v>555</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -6850,13 +6925,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="5" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="81"/>
       <c r="B56" s="5" t="s">
         <v>558</v>
       </c>
@@ -6932,10 +7007,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708CA869-331B-4896-98A8-3F5675CD113D}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6945,7 +7020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>448</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -6953,19 +7028,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="30" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="30" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>450</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -6973,19 +7048,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="38" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="38" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -6993,31 +7068,31 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="38" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="38" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="38" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="38" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="64" t="s">
         <v>469</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -7025,43 +7100,43 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="38" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="38" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="38" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="38" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="38" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="52" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="64" t="s">
         <v>473</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -7069,116 +7144,134 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="38" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="38" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="52" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="38" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="52" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B25" s="38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="38" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="38" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="38" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="38" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="38" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="38" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="38" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B33" s="30" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="30" t="s">
+    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="30" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="30" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="30" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="30" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="30" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="30" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="64"/>
+      <c r="B37" s="30" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="30" t="s">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="64"/>
+      <c r="B38" s="30" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="30"/>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B40" s="53" t="s">
         <v>499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A38"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9" xr:uid="{78F4745B-B3BA-40BA-972A-A42AA9527014}"/>
+    <hyperlink ref="B40" r:id="rId1" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9" xr:uid="{78F4745B-B3BA-40BA-972A-A42AA9527014}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7401,10 +7494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83030C63-9E3D-4F4E-A9D7-49D14EAA4149}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,7 +7754,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="64" t="s">
         <v>424</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -7669,25 +7762,25 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="64" t="s">
         <v>463</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -7695,13 +7788,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="39" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="64" t="s">
         <v>461</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -7709,7 +7802,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="5" t="s">
         <v>465</v>
       </c>
@@ -7739,7 +7832,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="65" t="s">
         <v>500</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -7747,19 +7840,19 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="67" t="s">
         <v>511</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -7767,37 +7860,37 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="39" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="39" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="5" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="39" t="s">
         <v>531</v>
       </c>
@@ -7835,7 +7928,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="68" t="s">
         <v>518</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -7843,13 +7936,13 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="57" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="66" t="s">
         <v>528</v>
       </c>
       <c r="B67" s="57" t="s">
@@ -7857,25 +7950,25 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="64"/>
       <c r="B68" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="39" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="57" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="64" t="s">
         <v>524</v>
       </c>
       <c r="B71" s="39" t="s">
@@ -7883,13 +7976,13 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="57" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="5" t="s">
         <v>527</v>
       </c>
@@ -7903,7 +7996,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="64" t="s">
         <v>532</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -7911,42 +8004,148 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="5" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="5" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="39" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="57" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
         <v>539</v>
       </c>
     </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="61" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="64"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="52" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="64"/>
+      <c r="B85" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="64"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="52" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="64"/>
+      <c r="B87" s="62" t="s">
+        <v>568</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="64"/>
+      <c r="B88" s="69" t="s">
+        <v>570</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="64"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="64"/>
+      <c r="B90" s="62" t="s">
+        <v>571</v>
+      </c>
+      <c r="C90" s="52"/>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="64"/>
+      <c r="B91" s="69" t="s">
+        <v>573</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="64"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="52" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="64"/>
+      <c r="B93" s="62" t="s">
+        <v>574</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="63" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A83:A93"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A51:A53"/>
@@ -8073,7 +8272,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="70" t="s">
         <v>384</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -8087,7 +8286,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="30" t="s">
         <v>386</v>
       </c>
@@ -8147,7 +8346,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="71" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -8158,43 +8357,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
@@ -8322,29 +8521,29 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="64" t="s">
         <v>418</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="74" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="70"/>
     </row>
     <row r="33" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8628,10 +8827,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="70" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -8639,8 +8838,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="29" t="s">
         <v>230</v>
       </c>
@@ -8807,43 +9006,43 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="78" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="76"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="76"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -9017,7 +9216,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="67" t="s">
         <v>435</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -9028,7 +9227,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="44" t="s">
         <v>435</v>
       </c>
@@ -9037,7 +9236,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="44" t="s">
         <v>436</v>
       </c>
@@ -9046,7 +9245,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="44" t="s">
         <v>437</v>
       </c>
@@ -9095,7 +9294,7 @@
       <c r="A1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>144</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -9106,42 +9305,42 @@
       <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="20"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="CI CD" sheetId="4" r:id="rId18"/>
     <sheet name="System Design" sheetId="22" r:id="rId19"/>
     <sheet name="Course" sheetId="23" r:id="rId20"/>
+    <sheet name="Concurrency" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="603">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -666,14 +667,14 @@
 Hash map và linked list cái nào truy suất nhanh hơn ?</t>
   </si>
   <si>
-    <t>- Hashmap nhanh hơn với độ phức tạp là O(1) còn linked list quản lí dữ liệu qua các node, nếu muốn truy xuất thì duyệt từ đầu đến cuối danh sách để tìm phần tử =&gt; với độ phức tạp là O(n)</t>
+    <t xml:space="preserve"> - Hashmap nhanh hơn với độ phức tạp là O(1) còn linked list quản lí dữ liệu qua các node, nếu muốn truy xuất thì duyệt từ đầu đến cuối danh sách để tìm phần tử =&gt; với độ phức tạp là O(n)</t>
   </si>
   <si>
     <t>Chia sẻ thêm về Hash set ? Key của Hash set?</t>
   </si>
   <si>
-    <t>- là 1 class trong java để lưu trữ tập hợp các phần tử duy nhất không có thứ tự xây dựng trên cơ chế băm (hasing), phần tử đó sẽ được hashing để tìm vị trí lưu trữ trong bảng băm
-- Không có cặp key-value, mà value chính là giá trị sẽ được băm để lưu vào bảng băm</t>
+    <t xml:space="preserve"> - là 1 class trong java để lưu trữ tập hợp các phần tử duy nhất không có thứ tự xây dựng trên cơ chế băm (hasing), phần tử đó sẽ được hashing để tìm vị trí lưu trữ trong bảng băm
+ - Không có cặp key-value, mà value chính là giá trị sẽ được băm để lưu vào bảng băm</t>
   </si>
   <si>
     <t>Sự khác nhau của key Hash set và hash map?</t>
@@ -4303,6 +4304,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Why: 
    + all files created inside a container are stored on a writable container layer
    + data doesn't persist when that container no longer exists, and it can be difficult to get the data out of the container if another process needs it.
@@ -4504,6 +4512,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Volumes</t>
     </r>
     <r>
@@ -4590,6 +4606,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bind mounts</t>
     </r>
     <r>
@@ -4631,6 +4655,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tmpfs mounts</t>
     </r>
     <r>
@@ -4689,6 +4721,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
  - </t>
     </r>
@@ -5583,7 +5622,8 @@
     <t>Event Base</t>
   </si>
   <si>
-    <t>Eviction Policy
+    <t>Cache Replacement
+Eviction Policy
 (Chính sách xóa bỏ)</t>
   </si>
   <si>
@@ -5610,7 +5650,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> LRU (Least Recently Used)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LRU (Least Recently Used)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> LFU (Least Frequently Used)</t>
@@ -5974,18 +6037,183 @@
   <si>
     <t>https://www.geeksforgeeks.org/system-design-tutorial/?ref=lbp</t>
   </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Is a unit of execution, that has its own memory space
+ - The terms process and application are often used interchangeably
+ - Each application has its own memory space, alse known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the heap
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The heap isn't shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between two applications or two processes, they each have their own</t>
+    </r>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Is a single unit of execution, within a process
+ - Each process can have multiple threads
+ - Every application has at least one thread, that's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the main thread
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Our code will run on the main thread, we can alse have our code run in other threads, which we can explicitly create and start
+ - Every thread created by a process, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shares that process's memory space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the heap
+ - Each thread's got what's called a thread stack
+ - This is memory, that only a single thread, will access to
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Every Java application runs as single process, and each process can then have multiple threads within it, every process has a heap, and every thread has a thread stack</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Why: 
+   + Is to offload long running tasks
+   + Instead of typing up the main thread, we can create additional threads, to execute tasks that might take a long time
+   + This frees up the main thread so that it can continue working, and executing, and being responsive to the user
+   + To process large amounts of data, which can improve performance, of data intensive operations
+   + A web server, is another use case for many threads, allowing multiple connections and requests to be handled, simultaneously </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Refers to an application doing more than one thing at a time
+ - Allows different parts of a program to make progress independently, often leading to better resource utilization, and improved performance
+ - One task doesn't have to complete, before another one can start, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple threads can make incremental progress</t>
+    </r>
+  </si>
+  <si>
+    <t>Java's Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Threads are the fundamental building blocks, to support concurrency, in a Java application.
+ - They're essential, because they allow us to perform multiple tasks simultaneously, within a single process</t>
+  </si>
+  <si>
+    <t>Thread Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Thread priority is a value from 1 to 10
+ - The Thread class has three pre-defined priorities, included as constants
+ - However, priority behavior can vary across different operating systems and JVM implementations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6064,17 +6292,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6086,23 +6308,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6117,17 +6362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6136,22 +6372,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6171,10 +6391,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6247,13 +6485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6265,7 +6515,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6277,25 +6617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6307,49 +6629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6362,54 +6648,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6509,6 +6747,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -6534,6 +6796,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6548,150 +6819,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6700,20 +6938,20 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6721,8 +6959,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -6781,28 +7025,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7193,15 +7419,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>515447</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152924</xdr:rowOff>
+      <xdr:colOff>505460</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7218,8 +7444,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12011025" y="12020550"/>
-          <a:ext cx="11078210" cy="3209925"/>
+          <a:off x="12001500" y="10725150"/>
+          <a:ext cx="11078210" cy="5895975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7540,199 +7766,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="4"/>
-    <col min="2" max="2" width="39.5733333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="50" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="4"/>
+    <col min="1" max="1" width="9.14" style="6"/>
+    <col min="2" max="2" width="39.5733333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="50" style="6" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="4">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="69" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="56" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="56" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7751,8 +7977,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -7763,158 +7989,158 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="13" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="13" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="14" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="26" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="15" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -7922,77 +8148,77 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="29" ht="114.75" spans="1:2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" ht="127.5" spans="1:2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="13" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="32"/>
-    </row>
-    <row r="31" ht="89.25" spans="1:6">
-      <c r="A31" s="22" t="s">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" ht="102" spans="1:6">
+      <c r="A31" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32" ht="38.25" spans="1:2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="11" t="s">
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" ht="51" spans="1:2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="13" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="13" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="36" ht="102" spans="1:3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="11" t="s">
+    <row r="36" ht="114.75" spans="1:3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8027,7 +8253,7 @@
       <c r="A1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8045,7 +8271,7 @@
       <c r="A4" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8053,7 +8279,7 @@
       <c r="A6" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8066,7 +8292,7 @@
       <c r="A10" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8115,247 +8341,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="5" customWidth="1"/>
-    <col min="2" max="2" width="109" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32" style="7" customWidth="1"/>
+    <col min="2" max="2" width="109" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="7" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8440,8 +8666,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -8451,243 +8677,243 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="21" ht="51" spans="1:2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="34" ht="76.5" spans="1:2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="18" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8722,47 +8948,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.8533333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="114.573333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.2866666666667" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.14" style="6"/>
+    <col min="1" max="1" width="38.8533333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="114.573333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.2866666666667" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.14" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="73" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8786,32 +9012,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="4"/>
+    <col min="1" max="1" width="23.2866666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>572</v>
       </c>
     </row>
@@ -8837,10 +9063,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>574</v>
       </c>
     </row>
@@ -8935,646 +9161,646 @@
   <sheetPr/>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="117" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="117" style="6" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="42" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="49"/>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" s="42" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="49"/>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="49"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="49"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="49"/>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="42" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="66" t="s">
+      <c r="A64" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67" t="s">
+      <c r="A66" s="62"/>
+      <c r="B66" s="63" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B67" s="63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="10"/>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="67" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="63" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="67" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="63" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="12"/>
+      <c r="B77" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="46" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="42" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="67" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="63" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="13" t="s">
+      <c r="A84" s="12"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="69" t="s">
+      <c r="A85" s="12"/>
+      <c r="B85" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="10"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="13" t="s">
+      <c r="A86" s="12"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="10"/>
-      <c r="B87" s="69" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="12"/>
+      <c r="B88" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="13" t="s">
+      <c r="A89" s="12"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="69" t="s">
+      <c r="A90" s="12"/>
+      <c r="B90" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="12"/>
+      <c r="B91" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="13" t="s">
+      <c r="A92" s="12"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="69" t="s">
+      <c r="A93" s="12"/>
+      <c r="B93" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9620,7 +9846,7 @@
       <c r="A2" t="s">
         <v>590</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9633,13 +9859,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.8" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" ht="127.5" spans="1:2">
+      <c r="A3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" ht="114.75" spans="1:2">
+      <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" ht="63.75" spans="1:2">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:2">
+      <c r="A6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -9654,7 +9949,7 @@
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9662,7 +9957,7 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9710,33 +10005,33 @@
       <c r="A10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="51"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9755,8 +10050,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -9767,228 +10062,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="33" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="33" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="33" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="54" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="47"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10012,7 +10307,7 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A14" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -10023,10 +10318,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10034,7 +10329,7 @@
       <c r="A2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>241</v>
       </c>
     </row>
@@ -10050,7 +10345,7 @@
       <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -10090,7 +10385,7 @@
       <c r="A9" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -10121,7 +10416,7 @@
       <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10129,12 +10424,12 @@
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B16" t="s">
@@ -10155,7 +10450,7 @@
       <c r="A19" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -10217,8 +10512,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B43" sqref="B42:B43"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -10228,68 +10523,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="46" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10297,7 +10592,7 @@
       <c r="A14" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10305,7 +10600,7 @@
       <c r="A16" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>301</v>
       </c>
     </row>
@@ -10313,7 +10608,7 @@
       <c r="A18" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10321,7 +10616,7 @@
       <c r="A21" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -10329,7 +10624,7 @@
       <c r="A24" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>306</v>
       </c>
     </row>
@@ -10337,7 +10632,7 @@
       <c r="A27" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -10345,7 +10640,7 @@
       <c r="A31" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="48" t="s">
         <v>310</v>
       </c>
     </row>
@@ -10353,7 +10648,7 @@
       <c r="A34" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>312</v>
       </c>
     </row>
@@ -10361,7 +10656,7 @@
       <c r="A37" t="s">
         <v>313</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>314</v>
       </c>
     </row>
@@ -10395,312 +10690,312 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="7" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="41" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="44" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="13" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="13" t="s">
         <v>380</v>
       </c>
     </row>
@@ -10744,57 +11039,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="32" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -10852,23 +11147,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="69" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>399</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="612">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -6042,6 +6042,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Is a unit of execution, that has its own memory space
  - The terms process and application are often used interchangeably
  - Each application has its own memory space, alse known as </t>
@@ -6095,6 +6102,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Is a single unit of execution, within a process
  - Each process can have multiple threads
  - Every application has at least one thread, that's </t>
@@ -6171,6 +6185,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Refers to an application doing more than one thing at a time
  - Allows different parts of a program to make progress independently, often leading to better resource utilization, and improved performance
  - One task doesn't have to complete, before another one can start, and </t>
@@ -6201,6 +6222,80 @@
     <t xml:space="preserve"> - Thread priority is a value from 1 to 10
  - The Thread class has three pre-defined priorities, included as constants
  - However, priority behavior can vary across different operating systems and JVM implementations</t>
+  </si>
+  <si>
+    <t>Run and Start</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - There's a big difference between calling run() and start()
+ - If you execute the run() method, it's executed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, by the running thread it's invoked from
+ - If you want your code to be run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asynchronously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you must call the start method
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Thread States</t>
+  </si>
+  <si>
+    <t>NEW: A thread that has not yet started in this state</t>
+  </si>
+  <si>
+    <t>RUNNABLE: A thread executing in the JVM is in this state</t>
+  </si>
+  <si>
+    <t>BLOCKED: A thread that is blocked waiting for a monitor lock is in this state</t>
+  </si>
+  <si>
+    <t>WAITING: A thread that is waiting indefinitely for another thread to perform a particular action is in this state</t>
+  </si>
+  <si>
+    <t>TIMED_WAITING: A thread that is waiting for another thread to perform an action for up to a specified waiting time is in this state</t>
+  </si>
+  <si>
+    <t>TERMINATED: A thread that has exited is in this state</t>
   </si>
 </sst>
 </file>
@@ -6208,9 +6303,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -6292,45 +6387,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -6347,7 +6403,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -6362,18 +6456,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6392,15 +6487,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6485,13 +6580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6503,7 +6592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6515,7 +6616,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6527,85 +6724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6618,36 +6743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6737,15 +6832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6757,6 +6843,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6787,6 +6897,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -6795,163 +6914,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6966,6 +7061,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6990,9 +7091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7027,9 +7125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7766,21 +7861,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="6"/>
-    <col min="2" max="2" width="39.5733333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="50" style="6" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="6"/>
+    <col min="1" max="1" width="9.14" style="8"/>
+    <col min="2" max="2" width="39.5733333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="50" style="8" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="6">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="68" t="s">
@@ -7788,10 +7883,10 @@
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="68" t="s">
@@ -7799,7 +7894,7 @@
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -7810,10 +7905,10 @@
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="69" t="s">
@@ -7821,21 +7916,21 @@
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="69" t="s">
@@ -7843,10 +7938,10 @@
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="56" t="s">
@@ -7854,10 +7949,10 @@
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -7865,10 +7960,10 @@
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -7876,13 +7971,13 @@
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="67" t="s">
@@ -7890,64 +7985,64 @@
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="56" t="s">
@@ -7955,7 +8050,7 @@
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="56" t="s">
@@ -7989,158 +8084,158 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -8148,32 +8243,32 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="B26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="2" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8181,44 +8276,44 @@
       <c r="A30" s="28"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="2" t="s">
         <v>433</v>
       </c>
       <c r="F31" s="29"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8253,7 +8348,7 @@
       <c r="A1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8271,7 +8366,7 @@
       <c r="A4" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8279,7 +8374,7 @@
       <c r="A6" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8292,7 +8387,7 @@
       <c r="A10" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8341,39 +8436,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="7" customWidth="1"/>
-    <col min="2" max="2" width="109" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32" style="9" customWidth="1"/>
+    <col min="2" max="2" width="109" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>455</v>
       </c>
       <c r="B1" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>462</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -8381,207 +8476,207 @@
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="20"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="9" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="9" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8677,243 +8772,243 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="1:2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="21" ht="51" spans="1:2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="34" ht="76.5" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="2" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="2" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="1:2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="2" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="2" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8948,25 +9043,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.8533333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="114.573333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.2866666666667" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.14" style="8"/>
+    <col min="1" max="1" width="38.8533333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="114.573333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.2866666666667" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.14" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>558</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>560</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -8974,21 +9069,21 @@
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9012,32 +9107,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="6"/>
+    <col min="1" max="1" width="23.2866666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9063,10 +9158,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>574</v>
       </c>
     </row>
@@ -9167,29 +9262,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="117" style="6" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="117" style="8" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="69" t="s">
@@ -9197,7 +9292,7 @@
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="68" t="s">
@@ -9205,7 +9300,7 @@
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="69" t="s">
@@ -9213,7 +9308,7 @@
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="69" t="s">
@@ -9221,12 +9316,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
       <c r="A9" s="70" t="s">
@@ -9237,13 +9332,13 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9299,220 +9394,220 @@
       <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="42" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9520,13 +9615,13 @@
       <c r="A54" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
       <c r="A55" s="45"/>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9544,13 +9639,13 @@
     </row>
     <row r="58" ht="178.5" spans="1:2">
       <c r="A58" s="45"/>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="45"/>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9561,26 +9656,26 @@
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9588,7 +9683,7 @@
       <c r="A64" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9596,7 +9691,7 @@
       <c r="A65" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9615,25 +9710,25 @@
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="63" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B71" s="42" t="s">
@@ -9641,166 +9736,166 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="63" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="42" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="63" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="12"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="65"/>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="12"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="65"/>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="12"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="65"/>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="12"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="65"/>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="12"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9846,7 +9941,7 @@
       <c r="A2" t="s">
         <v>590</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9862,19 +9957,19 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="63.75" spans="1:2">
+    <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
         <v>592</v>
       </c>
@@ -9922,7 +10017,56 @@
         <v>602</v>
       </c>
     </row>
+    <row r="8" ht="63.75" spans="1:2">
+      <c r="A8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9949,7 +10093,7 @@
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9957,7 +10101,7 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10005,7 +10149,7 @@
       <c r="A10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10013,25 +10157,25 @@
       <c r="A11" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="47"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10062,26 +10206,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10092,7 +10236,7 @@
       <c r="B4" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10139,132 +10283,132 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="54" t="s">
@@ -10272,14 +10416,14 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C32" s="47"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="55" t="s">
         <v>237</v>
       </c>
@@ -10329,7 +10473,7 @@
       <c r="A2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -10345,7 +10489,7 @@
       <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -10385,7 +10529,7 @@
       <c r="A9" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -10416,7 +10560,7 @@
       <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10424,7 +10568,7 @@
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -10450,7 +10594,7 @@
       <c r="A19" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -10523,15 +10667,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -10539,15 +10683,15 @@
       </c>
     </row>
     <row r="3" ht="51" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>288</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -10561,7 +10705,7 @@
       <c r="B7" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10577,14 +10721,14 @@
       <c r="B9" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10592,7 +10736,7 @@
       <c r="A14" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10600,7 +10744,7 @@
       <c r="A16" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -10608,7 +10752,7 @@
       <c r="A18" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10616,7 +10760,7 @@
       <c r="A21" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -10624,7 +10768,7 @@
       <c r="A24" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="2" t="s">
         <v>306</v>
       </c>
     </row>
@@ -10632,7 +10776,7 @@
       <c r="A27" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -10648,7 +10792,7 @@
       <c r="A34" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -10656,7 +10800,7 @@
       <c r="A37" t="s">
         <v>313</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="2" t="s">
         <v>314</v>
       </c>
     </row>
@@ -10696,24 +10840,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10737,17 +10881,17 @@
       <c r="A5" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>326</v>
       </c>
     </row>
@@ -10791,69 +10935,69 @@
       <c r="C12" s="37"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -10861,39 +11005,39 @@
       <c r="B28" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>357</v>
       </c>
     </row>
@@ -10901,7 +11045,7 @@
       <c r="A34" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>359</v>
       </c>
       <c r="C34" s="44" t="s">
@@ -10909,55 +11053,55 @@
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>371</v>
       </c>
     </row>
@@ -10965,37 +11109,37 @@
       <c r="A43" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="45"/>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="45"/>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="45"/>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="2" t="s">
         <v>380</v>
       </c>
     </row>
@@ -11147,12 +11291,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>396</v>
       </c>
       <c r="B1" s="69" t="s">
@@ -11160,10 +11304,10 @@
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>399</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="12" activeTab="20"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="618">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -5187,14 +5187,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Advantages</t>
     </r>
     <r>
@@ -5406,10 +5398,59 @@
     <t>Types of Cache</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Inmemory Cache
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- In-memory caching is a type of caching that involves storing data in the computer’s RAM (Random Access Memory) instead of in a database or on disk
+ - in-memory caching is volatile and the data stored in the RAM may be lost if the system is shut down or restarted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client-side Cache
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Client-side caching is a type of caching that involves storing data on the client’s device, such as a web browser. This type of caching is useful for web applications that require frequent access to static resources, such as images and JavaScript files
+ -  client-side caching can lead to issues with stale data, as the cached data may not always be up-to-date. Therefore, careful consideration should be given to the caching policies and expiration times used in client-side caching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distributed Cache
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- that involves storing data across multiple servers or nodes in a network
+ - Distributed caching allows multiple servers to share the workload of storing and retrieving data, which can improve the performance of the application and reduce the risk of data loss
+ - However, managing a distributed caching system can be complex, and ensuring consistency across multiple nodes can be challenging.</t>
+    </r>
+  </si>
+  <si>
     <t>Application Server Cache</t>
-  </si>
-  <si>
-    <t>Distributed Cache</t>
   </si>
   <si>
     <t>Global Cache</t>
@@ -5472,31 +5513,368 @@
     <t>Content Delivery Network (CDN) Caching</t>
   </si>
   <si>
-    <t>Cache Invalidation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Write Through Cache
+    <t>Cache Strategies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cache-Aside (Cache Service  implements in Spring)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- In this strategy, the application is responsible for managing the cache. When data is requested, the application checks the cache first. If the data is not in the cache, it is retrieved from the database and stored in the cache for future use. 
  - </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the data is first written in the cache and then it is written to the database
- - This way can keep the consistency of your data between your database and your cache</t>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+   + This strategy is simple and flexible
+   + Avoids filling up the cache with unnecessary data, as only the requested data is loaded
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+   + it requires careful management of the cache to ensure that it remains up-to-date
+   + It results in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher latency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(độ trễ cao) whenever there's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cache miss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as the data has to be retrieved from the database and then loaded into the cache.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When to use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+   The Cache-Aside strategy is best used when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cache misses are rare(hiếm khi xảy ra)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the cost of a cache miss is not overly detrimental to performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read-Through (CacheAble annotation in Spring)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- The cache is used as the primary data source. When data is requested, the cache is checked first. If the data is not in the cache, it is retrieved from the database and stored in the cache for future use. 
+ - This strategy can be useful when the database is slow or when data is frequently read but rarely updated.
+ - In the Read-Through strategy, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if there is a cache hit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> application retrieves the data directly from the cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, just like in the cache-aside strategy. 
+ - However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in case of a cache miss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cache server fetches data from the database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not the application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The Read-Through strategy places the responsibility of loading the data into the cache on the cache itself.
+ - Pros: 
+   + It provides a consistent approach to loading data, as the cache, not the client, handles the data loading process
+   + It's beneficial when you have a high rate of cache misses, as the cache handles the data loading, reducing the load on the client
+ - Cons: 
+   +  Can lead to higher latency for cache misses, as the data must be fetched from the database and loaded into the cache
+   + It requires a more sophisticated cache that can handle direct interaction with the database
+ - When to use:
+   + The Read-Through strategy is ideal when you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have complex data loading requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and you want to maintain a clean separation between the cache and the client
+   + Khi data được retrieves một cách phức tạp (nhiều bảng, nhiều service,...) thì nên sử dụng Read-Through
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write-Through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(The Write-Through cache strategy stands out for its emphasis on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data consistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -5518,50 +5896,159 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Advantage: minimize the risk of data loss because it’s written in both the cache and the database</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disadvantage</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>higher latency for the write operation because you need to write the data at two places for a single update request</t>
+      <t xml:space="preserve">In this strategy, data is written to both the cache and the database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the same time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+ - When data is updated, it is written to the cache and the database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simultaneously(đồng thời)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This ensures that the cache always contains up-to-date data, but it can slow down write operations
+ - Pros: 
+   + ensures data consistency between the cache and the database.
+   + the database is always up-to-date, there's no need for complex procedures to reconcile the cache and the database
+ - Cons:
+   +  Latency in write operations, as every write needs to update the database before completing
+   + Overall performance of a Write-Through caching setup is partly dependent on the performance of the database.
+ - When to use: 
+   + best when data consistency is vital(thiết yếu, cần thiết), and the impact on write latency(độ trễ) is tolerable(chấp nhận được)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write-Behind
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- In this strategy, data is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>written to the cache first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>database at a later time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+ - This allows write </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operations to be faster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but it can lead to data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inconsistencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if the cache is not properly managed.</t>
     </r>
   </si>
   <si>
@@ -5613,18 +6100,21 @@
     </r>
   </si>
   <si>
-    <t>Time Base</t>
-  </si>
-  <si>
-    <t>Command Base</t>
-  </si>
-  <si>
-    <t>Event Base</t>
-  </si>
-  <si>
-    <t>Cache Replacement
-Eviction Policy
+    <r>
+      <t>Cache Replacement
+Eviction Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (Chính sách xóa bỏ)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5685,7 +6175,122 @@
     <t xml:space="preserve"> Random Replacement</t>
   </si>
   <si>
-    <t>Distributed Caching</t>
+    <t>Measuring Cache Effectiveness</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculate the cache hit rate:
+ - The cache hit rate is the percentage of requests that are served from the cache instead of the backend data store. 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A high hit rate indicates that your caching strategy is effective in reducing the load on the backend data store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+ - You can measure the hit rate by dividing the number of requests served from the cache by the total number of requests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze cache eviction rate:
+ - The cache eviction rate is the percentage of cached items that are removed from the cache due to expiration or replacement. 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A high eviction rate can indicate that the cache expiration time is too short or the cache size is too small</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monitor data consistency:
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data consistency is critical in caching.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ - If the cached data becomes stale or outdated, it can lead to incorrect results and compromise the integrity of your application. 
+ - You can monitor data consistency by comparing the cached data with the data in the backend data store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Determine the right cache expiration time:
+ - The cache expiration time determines how long the cached data remains (giữ, duy trì) valid before it is evicted from the cache. 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A longer cache expiration time can improve the cache hit rate but increase the risk of stale data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+ - You can choose the right cache expiration time based on the data volatility and the acceptable level of data staleness.</t>
+    </r>
   </si>
   <si>
     <t>Anotations</t>
@@ -6228,6 +6833,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - There's a big difference between calling run() and start()
  - If you execute the run() method, it's executed </t>
     </r>
@@ -6303,12 +6915,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6340,14 +6952,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6388,23 +7000,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6426,7 +7022,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6448,17 +7044,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6472,8 +7059,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6488,16 +7099,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6556,13 +7176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6580,13 +7200,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6598,13 +7296,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6622,7 +7338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6634,115 +7356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6833,21 +7453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -6881,25 +7486,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6914,139 +7510,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7054,15 +7674,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7089,18 +7706,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7108,10 +7731,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7120,7 +7743,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7162,8 +7785,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7172,8 +7798,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7186,7 +7812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7207,7 +7833,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7216,7 +7842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7861,199 +8487,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="8"/>
-    <col min="2" max="2" width="39.5733333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="8" customWidth="1"/>
-    <col min="6" max="6" width="50" style="8" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="8"/>
+    <col min="1" max="1" width="9.14" style="7"/>
+    <col min="2" max="2" width="39.5733333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50" style="7" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="8">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="58" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8084,21 +8710,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>403</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8106,8 +8732,8 @@
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="9" t="s">
         <v>405</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8115,26 +8741,26 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>410</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -8142,42 +8768,42 @@
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -8185,57 +8811,57 @@
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="15" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -8243,73 +8869,73 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="26"/>
       <c r="B26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>432</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2" t="s">
         <v>438</v>
       </c>
@@ -8348,7 +8974,7 @@
       <c r="A1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8436,247 +9062,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="9" customWidth="1"/>
-    <col min="2" max="2" width="109" style="9" customWidth="1"/>
+    <col min="1" max="1" width="32" style="8" customWidth="1"/>
+    <col min="2" max="2" width="109" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="71" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="8" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="8" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8759,10 +9385,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -8772,7 +9398,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>513</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -8780,19 +9406,19 @@
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8800,230 +9426,264 @@
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="13" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="13" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="13" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="13" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" ht="63.75" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="14" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" ht="63.75" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="13" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="13" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" ht="102" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="13" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" ht="38.25" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="19" ht="63.75" spans="1:2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="15" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="20" ht="25.5" spans="1:2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+    <row r="21" ht="165.75" spans="1:2">
+      <c r="A21" s="16" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="21" ht="51" spans="1:2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16" t="s">
+    <row r="22" ht="242.25" spans="1:2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+    <row r="23" ht="153" spans="1:2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16" t="s">
+    <row r="24" ht="38.25" spans="1:2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="17" t="s">
+    <row r="25" ht="25.5" spans="1:2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B25" s="15" t="s">
+    </row>
+    <row r="26" ht="51" spans="1:2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+    <row r="27" ht="38.25" spans="1:2">
+      <c r="A27" s="18" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="13" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="13" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="32" ht="51" spans="1:2">
+      <c r="A32" s="16" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="34" ht="76.5" spans="1:2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="2" t="s">
+      <c r="B32" s="19" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="35" ht="25.5" spans="1:2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="2" t="s">
+    <row r="33" ht="38.25" spans="1:2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19" t="s">
         <v>552</v>
       </c>
     </row>
+    <row r="34" ht="51" spans="1:2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" ht="51" spans="1:2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19" t="s">
+        <v>554</v>
+      </c>
+    </row>
     <row r="36" ht="25.5" spans="1:2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="14"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="37" ht="76.5" spans="1:2">
+      <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" spans="1:2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" ht="25.5" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
+    <hyperlink ref="B43" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -9043,48 +9703,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.8533333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="114.573333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="49.2866666666667" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.14" style="10"/>
+    <col min="1" max="1" width="38.8533333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="114.573333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="49.2866666666667" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.14" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>561</v>
+      <c r="A2" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>564</v>
+      <c r="A3" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>566</v>
+      <c r="A4" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -9107,33 +9767,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="8"/>
+    <col min="1" max="1" width="23.2866666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>568</v>
+      <c r="A1" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>570</v>
+      <c r="A2" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>572</v>
+      <c r="A3" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -9158,31 +9818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>574</v>
+      <c r="A1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9192,57 +9852,57 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -9262,251 +9922,251 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="117" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="117" style="7" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -9514,388 +10174,388 @@
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="43" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="43" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="42" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="62"/>
-      <c r="B66" s="63" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="65" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="42" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="63" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="65" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="63" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="65" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="3"/>
+      <c r="B76" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="3"/>
+      <c r="B77" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="42" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="63" t="s">
+      <c r="A80" s="3"/>
+      <c r="B80" s="65" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="16" t="s">
+      <c r="A84" s="3"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="65" t="s">
+      <c r="A85" s="3"/>
+      <c r="B85" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="16" t="s">
+      <c r="A86" s="3"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="65" t="s">
+      <c r="A87" s="3"/>
+      <c r="B87" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="65" t="s">
+      <c r="A88" s="3"/>
+      <c r="B88" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="14"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="16" t="s">
+      <c r="A89" s="3"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="16"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="65" t="s">
+      <c r="A91" s="3"/>
+      <c r="B91" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="16" t="s">
+      <c r="A92" s="3"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="65" t="s">
+      <c r="A93" s="3"/>
+      <c r="B93" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9939,10 +10599,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>591</v>
+        <v>596</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -9959,8 +10619,8 @@
   <sheetPr/>
   <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -9971,96 +10631,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>604</v>
+        <v>609</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>605</v>
+      <c r="A9" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -10154,7 +10814,7 @@
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="49" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10168,7 +10828,7 @@
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
@@ -10206,118 +10866,118 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="34" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="31" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="34" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="47" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -10325,7 +10985,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -10333,7 +10993,7 @@
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -10341,7 +11001,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="47" t="s">
         <v>217</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -10349,7 +11009,7 @@
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -10357,7 +11017,7 @@
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -10365,7 +11025,7 @@
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -10373,7 +11033,7 @@
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -10381,15 +11041,15 @@
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -10397,7 +11057,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -10405,29 +11065,29 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="56" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="49"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10462,10 +11122,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10573,7 +11233,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>265</v>
       </c>
       <c r="B16" t="s">
@@ -10667,68 +11327,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="4" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10736,7 +11396,7 @@
       <c r="A14" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10744,7 +11404,7 @@
       <c r="A16" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>301</v>
       </c>
     </row>
@@ -10752,7 +11412,7 @@
       <c r="A18" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10784,7 +11444,7 @@
       <c r="A31" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="50" t="s">
         <v>310</v>
       </c>
     </row>
@@ -10840,285 +11500,285 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="45" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47" t="s">
         <v>373</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -11126,8 +11786,8 @@
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47" t="s">
         <v>377</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -11135,8 +11795,8 @@
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47" t="s">
         <v>379</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -11183,57 +11843,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -11291,23 +11951,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>399</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="12" activeTab="15"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="620">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -5187,6 +5187,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Advantages</t>
     </r>
     <r>
@@ -5399,6 +5407,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Inmemory Cache
  </t>
     </r>
@@ -5416,6 +5432,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Client-side Cache
  </t>
     </r>
@@ -5433,6 +5457,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Distributed Cache
  </t>
     </r>
@@ -5517,6 +5549,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Cache-Aside (Cache Service  implements in Spring)
  </t>
     </r>
@@ -5688,6 +5728,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Read-Through (CacheAble annotation in Spring)
  </t>
     </r>
@@ -5843,6 +5891,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Write-Through </t>
     </r>
     <r>
@@ -5952,6 +6008,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Write-Behind
  </t>
     </r>
@@ -6100,7 +6164,21 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>Time Based Expiry</t>
+  </si>
+  <si>
+    <t>Active Expiry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Cache Replacement
 Eviction Policy</t>
     </r>
@@ -6179,6 +6257,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Calculate the cache hit rate:
  - The cache hit rate is the percentage of requests that are served from the cache instead of the backend data store. 
  - </t>
@@ -6208,6 +6293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Analyze cache eviction rate:
  - The cache eviction rate is the percentage of cached items that are removed from the cache due to expiration or replacement. 
  - </t>
@@ -6236,6 +6328,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Monitor data consistency:
  - </t>
     </r>
@@ -6265,6 +6364,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Determine the right cache expiration time:
  - The cache expiration time determines how long the cached data remains (giữ, duy trì) valid before it is evicted from the cache. 
  - </t>
@@ -7000,6 +7106,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -7021,18 +7142,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7044,24 +7166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7082,14 +7196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -7099,7 +7205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7200,31 +7306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7242,7 +7336,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7254,7 +7396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7266,25 +7408,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7296,73 +7468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7452,21 +7558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -7521,6 +7612,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -7537,136 +7643,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7674,7 +7780,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7709,21 +7815,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7750,9 +7847,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8504,7 +8598,7 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8515,7 +8609,7 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8523,10 +8617,10 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="66" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8537,7 +8631,7 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8559,7 +8653,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="67" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8570,7 +8664,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8581,7 +8675,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="54" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8592,7 +8686,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="66" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8606,7 +8700,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8641,7 +8735,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="54" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -8671,7 +8765,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8679,7 +8773,7 @@
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="54" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8710,10 +8804,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8721,7 +8815,7 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>402</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -8732,7 +8826,7 @@
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="9" t="s">
         <v>405</v>
       </c>
@@ -8741,26 +8835,26 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="23"/>
       <c r="B5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>410</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -8768,41 +8862,41 @@
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>417</v>
       </c>
@@ -8811,45 +8905,45 @@
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="14" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="23"/>
       <c r="B21" t="s">
         <v>424</v>
       </c>
@@ -8861,7 +8955,7 @@
       <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -8869,73 +8963,73 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="23"/>
       <c r="B25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
       <c r="B26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="23"/>
       <c r="B27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>432</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="26"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="26"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="26"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>438</v>
       </c>
@@ -9067,10 +9161,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="67" t="s">
         <v>456</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -9097,7 +9191,7 @@
       <c r="A4" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="67" t="s">
         <v>463</v>
       </c>
     </row>
@@ -9205,7 +9299,7 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="22"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
@@ -9287,7 +9381,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="20" t="s">
         <v>506</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -9295,13 +9389,13 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="23"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="8" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="8" t="s">
         <v>509</v>
       </c>
@@ -9385,10 +9479,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -9479,7 +9573,7 @@
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="3"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9521,64 +9615,64 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="13" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="27" ht="38.25" spans="1:2">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="13" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="13" t="s">
+    <row r="29" ht="38.25" spans="1:2">
+      <c r="A29" s="16" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
       <c r="B29" s="13" t="s">
         <v>547</v>
       </c>
@@ -9595,59 +9689,59 @@
         <v>549</v>
       </c>
     </row>
-    <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="B32" s="19" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="13" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19" t="s">
+    <row r="34" ht="51" spans="1:2">
+      <c r="A34" s="15" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19" t="s">
+    <row r="35" ht="38.25" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="36" ht="25.5" spans="1:2">
-      <c r="A36" s="3" t="s">
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="37" ht="51" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="37" ht="76.5" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
+    <row r="38" ht="25.5" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="39" ht="25.5" spans="1:2">
+    <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
         <v>560</v>
@@ -9661,14 +9755,26 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
         <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" ht="25.5" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -9677,13 +9783,13 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
+    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -9711,10 +9817,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>567</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>133</v>
@@ -9722,29 +9828,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -9774,26 +9880,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -9819,30 +9925,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9852,57 +9958,57 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -9928,7 +10034,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -9936,7 +10042,7 @@
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -9944,26 +10050,26 @@
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="67" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9971,7 +10077,7 @@
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="67" t="s">
         <v>51</v>
       </c>
     </row>
@@ -9984,10 +10090,10 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="67" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9998,60 +10104,60 @@
       <c r="A11" s="3"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="59" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3"/>
@@ -10209,7 +10315,7 @@
     </row>
     <row r="45" ht="51" spans="1:2">
       <c r="A45" s="3"/>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="39" t="s">
         <v>99</v>
       </c>
     </row>
@@ -10252,7 +10358,7 @@
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -10260,19 +10366,19 @@
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="42" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -10280,38 +10386,38 @@
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="46"/>
-      <c r="B56" s="43" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="46"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="39" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10340,7 +10446,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="60" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -10348,7 +10454,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="60" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -10356,16 +10462,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10377,13 +10483,13 @@
     </row>
     <row r="69" ht="25.5" spans="1:2">
       <c r="A69" s="3"/>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="39" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="61" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10391,13 +10497,13 @@
       <c r="A71" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3"/>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="61" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10443,13 +10549,13 @@
     </row>
     <row r="79" ht="63.75" spans="1:2">
       <c r="A79" s="3"/>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3"/>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="61" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10467,90 +10573,90 @@
       <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="3"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="15" t="s">
+      <c r="B84" s="63"/>
+      <c r="C84" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="3"/>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="3"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="63"/>
+      <c r="C86" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="3"/>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="3"/>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="3"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="63"/>
+      <c r="C89" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="3"/>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="3"/>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="3"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="3"/>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10599,10 +10705,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -10631,96 +10737,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -10814,7 +10920,7 @@
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10828,7 +10934,7 @@
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="49"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="2" t="s">
         <v>189</v>
       </c>
@@ -10866,7 +10972,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -10874,7 +10980,7 @@
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -10882,7 +10988,7 @@
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -10890,10 +10996,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -10901,44 +11007,44 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="27" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="27" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="30" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10946,7 +11052,7 @@
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="43" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11001,7 +11107,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="43" t="s">
         <v>217</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -11071,7 +11177,7 @@
       <c r="B31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="52" t="s">
         <v>235</v>
       </c>
     </row>
@@ -11080,14 +11186,14 @@
       <c r="B32" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="3"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11122,10 +11228,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -11233,7 +11339,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="48" t="s">
         <v>265</v>
       </c>
       <c r="B16" t="s">
@@ -11316,8 +11422,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -11338,7 +11444,7 @@
       <c r="A2" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>285</v>
       </c>
     </row>
@@ -11351,18 +11457,18 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>291</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -11370,15 +11476,15 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="45" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11386,8 +11492,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4" t="s">
         <v>297</v>
       </c>
@@ -11444,7 +11550,7 @@
       <c r="A31" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="46" t="s">
         <v>310</v>
       </c>
     </row>
@@ -11522,23 +11628,23 @@
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="36" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>323</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -11556,43 +11662,43 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
@@ -11662,7 +11768,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="39" t="s">
         <v>348</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -11702,13 +11808,13 @@
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="40" t="s">
         <v>358</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>360</v>
       </c>
     </row>
@@ -11766,10 +11872,10 @@
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="43" t="s">
         <v>374</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -11777,8 +11883,8 @@
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43" t="s">
         <v>373</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -11786,8 +11892,8 @@
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43" t="s">
         <v>377</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -11795,8 +11901,8 @@
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43" t="s">
         <v>379</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -11843,57 +11949,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="29" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -11959,7 +12065,7 @@
       <c r="A1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="67" t="s">
         <v>397</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,24 +17,25 @@
     <sheet name="DesignPattern" sheetId="10" r:id="rId8"/>
     <sheet name="Git" sheetId="7" r:id="rId9"/>
     <sheet name="Container" sheetId="12" r:id="rId10"/>
-    <sheet name="Reactive Programing" sheetId="14" r:id="rId11"/>
-    <sheet name="Microservice" sheetId="3" r:id="rId12"/>
+    <sheet name="Linux" sheetId="19" r:id="rId11"/>
+    <sheet name="Network" sheetId="18" r:id="rId12"/>
     <sheet name="WEB" sheetId="13" r:id="rId13"/>
-    <sheet name="Linux" sheetId="19" r:id="rId14"/>
-    <sheet name="Network" sheetId="18" r:id="rId15"/>
-    <sheet name="Cache" sheetId="11" r:id="rId16"/>
-    <sheet name="Distributed Event Streaming" sheetId="2" r:id="rId17"/>
-    <sheet name="CI CD" sheetId="4" r:id="rId18"/>
-    <sheet name="System Design" sheetId="22" r:id="rId19"/>
-    <sheet name="Course" sheetId="23" r:id="rId20"/>
-    <sheet name="Concurrency" sheetId="24" r:id="rId21"/>
+    <sheet name="Concurrency" sheetId="24" r:id="rId14"/>
+    <sheet name="Reactive Programing" sheetId="14" r:id="rId15"/>
+    <sheet name="System Design" sheetId="22" r:id="rId16"/>
+    <sheet name="Microservice" sheetId="3" r:id="rId17"/>
+    <sheet name="Cache" sheetId="11" r:id="rId18"/>
+    <sheet name="Distributed Event Streaming" sheetId="2" r:id="rId19"/>
+    <sheet name="CI CD" sheetId="4" r:id="rId20"/>
+    <sheet name="Course" sheetId="23" r:id="rId21"/>
+    <sheet name="Domain Driven Design" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="639">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -4871,6 +4872,285 @@
  + kubectl create deployment my-nginx --image nginx (create a deployment of the nginx web server)</t>
   </si>
   <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>HTTP/HTTPS</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Is a unit of execution, that has its own memory space
+ - The terms process and application are often used interchangeably
+ - Each application has its own memory space, alse known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the heap
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The heap isn't shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between two applications or two processes, they each have their own</t>
+    </r>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Is a single unit of execution, within a process
+ - Each process can have multiple threads
+ - Every application has at least one thread, that's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the main thread
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Our code will run on the main thread, we can alse have our code run in other threads, which we can explicitly create and start
+ - Every thread created by a process, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shares that process's memory space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the heap
+ - Each thread's got what's called a thread stack
+ - This is memory, that only a single thread, will access to
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Every Java application runs as single process, and each process can then have multiple threads within it, every process has a heap, and every thread has a thread stack</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Why: 
+   + Is to offload long running tasks
+   + Instead of typing up the main thread, we can create additional threads, to execute tasks that might take a long time
+   + This frees up the main thread so that it can continue working, and executing, and being responsive to the user
+   + To process large amounts of data, which can improve performance, of data intensive operations
+   + A web server, is another use case for many threads, allowing multiple connections and requests to be handled, simultaneously </t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Refers to an application doing more than one thing at a time
+ - Allows different parts of a program to make progress independently, often leading to better resource utilization, and improved performance
+ - One task doesn't have to complete, before another one can start, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple threads can make incremental progress</t>
+    </r>
+  </si>
+  <si>
+    <t>Java's Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Threads are the fundamental building blocks, to support concurrency, in a Java application.
+ - They're essential, because they allow us to perform multiple tasks simultaneously, within a single process</t>
+  </si>
+  <si>
+    <t>Thread Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Thread priority is a value from 1 to 10
+ - The Thread class has three pre-defined priorities, included as constants
+ - However, priority behavior can vary across different operating systems and JVM implementations</t>
+  </si>
+  <si>
+    <t>Run and Start</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - There's a big difference between calling run() and start()
+ - If you execute the run() method, it's executed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, by the running thread it's invoked from
+ - If you want your code to be run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asynchronously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you must call the start method
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Thread States</t>
+  </si>
+  <si>
+    <t>NEW: A thread that has not yet started in this state</t>
+  </si>
+  <si>
+    <t>RUNNABLE: A thread executing in the JVM is in this state</t>
+  </si>
+  <si>
+    <t>BLOCKED: A thread that is blocked waiting for a monitor lock is in this state</t>
+  </si>
+  <si>
+    <t>WAITING: A thread that is waiting indefinitely for another thread to perform a particular action is in this state</t>
+  </si>
+  <si>
+    <t>TIMED_WAITING: A thread that is waiting for another thread to perform an action for up to a specified waiting time is in this state</t>
+  </si>
+  <si>
+    <t>TERMINATED: A thread that has exited is in this state</t>
+  </si>
+  <si>
     <t>Project Reactor</t>
   </si>
   <si>
@@ -4924,6 +5204,57 @@
   </si>
   <si>
     <t>Router Function</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Microservices vs Moniliths</t>
+  </si>
+  <si>
+    <t>API Design</t>
+  </si>
+  <si>
+    <t>Data Partitioning</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Rate Limiting</t>
+  </si>
+  <si>
+    <t>Message Queues</t>
+  </si>
+  <si>
+    <t>Monitoring and Logging</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Connecting Protocols</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency </t>
+  </si>
+  <si>
+    <t>Availabiblity</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Cost Optimizations</t>
   </si>
   <si>
     <t>Mô Tả về Kiến Trúc Microservice</t>
@@ -5167,18 +5498,6 @@
     <t xml:space="preserve"> Partition tolerance</t>
   </si>
   <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>HTTP/HTTPS</t>
-  </si>
-  <si>
-    <t>Caching</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - cache is a high-speed data storage layer which stores a subset of data, typically transient in nature, 
 so that future requests for that data are served up faster than is possible by accessing the data’s primary storage location. 
  - Caching allows you to efficiently reuse previously retrieved or computed data
@@ -6692,328 +7011,85 @@
    - _job: định nghĩa các giai đoạn (job) thực thi trong pipeline. bao gồm : stage, script</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Microservices vs Moniliths</t>
-  </si>
-  <si>
-    <t>API Design</t>
-  </si>
-  <si>
-    <t>Data Partitioning</t>
-  </si>
-  <si>
-    <t>Rate Limiting</t>
-  </si>
-  <si>
-    <t>Message Queues</t>
-  </si>
-  <si>
-    <t>Monitoring and Logging</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Connecting Protocols</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency </t>
-  </si>
-  <si>
-    <t>Availabiblity</t>
-  </si>
-  <si>
-    <t>Concurrency</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Cost Optimizations</t>
-  </si>
-  <si>
     <t>System Design</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/system-design-tutorial/?ref=lbp</t>
   </si>
   <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Is a unit of execution, that has its own memory space
- - The terms process and application are often used interchangeably
- - Each application has its own memory space, alse known as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the heap
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The heap isn't shared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between two applications or two processes, they each have their own</t>
-    </r>
-  </si>
-  <si>
-    <t>Thread</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Is a single unit of execution, within a process
- - Each process can have multiple threads
- - Every application has at least one thread, that's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the main thread
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Our code will run on the main thread, we can alse have our code run in other threads, which we can explicitly create and start
- - Every thread created by a process, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shares that process's memory space</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, the heap
- - Each thread's got what's called a thread stack
- - This is memory, that only a single thread, will access to
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Every Java application runs as single process, and each process can then have multiple threads within it, every process has a heap, and every thread has a thread stack</t>
-    </r>
-  </si>
-  <si>
-    <t>Multiple threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Why: 
-   + Is to offload long running tasks
-   + Instead of typing up the main thread, we can create additional threads, to execute tasks that might take a long time
-   + This frees up the main thread so that it can continue working, and executing, and being responsive to the user
-   + To process large amounts of data, which can improve performance, of data intensive operations
-   + A web server, is another use case for many threads, allowing multiple connections and requests to be handled, simultaneously </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Refers to an application doing more than one thing at a time
- - Allows different parts of a program to make progress independently, often leading to better resource utilization, and improved performance
- - One task doesn't have to complete, before another one can start, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>multiple threads can make incremental progress</t>
-    </r>
-  </si>
-  <si>
-    <t>Java's Threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Threads are the fundamental building blocks, to support concurrency, in a Java application.
- - They're essential, because they allow us to perform multiple tasks simultaneously, within a single process</t>
-  </si>
-  <si>
-    <t>Thread Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Thread priority is a value from 1 to 10
- - The Thread class has three pre-defined priorities, included as constants
- - However, priority behavior can vary across different operating systems and JVM implementations</t>
-  </si>
-  <si>
-    <t>Run and Start</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - There's a big difference between calling run() and start()
- - If you execute the run() method, it's executed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>synchronously</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, by the running thread it's invoked from
- - If you want your code to be run </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asynchronously</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, you must call the start method
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Thread States</t>
-  </si>
-  <si>
-    <t>NEW: A thread that has not yet started in this state</t>
-  </si>
-  <si>
-    <t>RUNNABLE: A thread executing in the JVM is in this state</t>
-  </si>
-  <si>
-    <t>BLOCKED: A thread that is blocked waiting for a monitor lock is in this state</t>
-  </si>
-  <si>
-    <t>WAITING: A thread that is waiting indefinitely for another thread to perform a particular action is in this state</t>
-  </si>
-  <si>
-    <t>TIMED_WAITING: A thread that is waiting for another thread to perform an action for up to a specified waiting time is in this state</t>
-  </si>
-  <si>
-    <t>TERMINATED: A thread that has exited is in this state</t>
+    <t xml:space="preserve"> - Donain Driven Design bases on the business domain
+ - Eric Evans: Domain-Driven Design:
+   + The primary focus of the project is the core domain and domain logic
+   + Complex designs are based on models of the domain
+   + Collaboration between technical and domain experts is crucial to creating an application model that will solve particular domain problems</t>
+  </si>
+  <si>
+    <t>Domain Logic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Domain logic is the purpose of your modeling
+ - Most commonly, it's referred to as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>business logic</t>
+    </r>
+  </si>
+  <si>
+    <t>Domain Model</t>
+  </si>
+  <si>
+    <t>Subdomain</t>
+  </si>
+  <si>
+    <t>Design patterns</t>
+  </si>
+  <si>
+    <t>Bounded Context</t>
+  </si>
+  <si>
+    <t>The Ubiquitous Language</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Value Objects and Aggregates</t>
+  </si>
+  <si>
+    <t>Domain Service</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer </t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Application layer</t>
+  </si>
+  <si>
+    <t>Domain layer</t>
+  </si>
+  <si>
+    <t>Infrastructure layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advantages </t>
+  </si>
+  <si>
+    <t>Downsides</t>
   </si>
 </sst>
 </file>
@@ -7021,12 +7097,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7052,6 +7128,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF954F72"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7121,24 +7205,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7159,6 +7228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -7175,7 +7252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7183,7 +7260,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7203,9 +7288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7213,7 +7297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7270,6 +7354,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7277,18 +7373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7306,7 +7390,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7318,49 +7504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7372,7 +7522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7384,13 +7534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7402,73 +7546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7591,26 +7675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7640,120 +7704,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7762,17 +7846,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7780,20 +7864,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -7812,6 +7894,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7822,52 +7910,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7879,55 +7973,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7936,7 +8030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8581,199 +8675,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="7"/>
-    <col min="2" max="2" width="39.5733333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="7" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50" style="7" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="7"/>
+    <col min="1" max="1" width="9.14" style="5"/>
+    <col min="2" max="2" width="39.5733333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="7">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="58" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8804,158 +8898,158 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="17" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="17" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="12" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="13" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="17" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="14" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -8963,32 +9057,32 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="27"/>
       <c r="B25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="23"/>
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8996,44 +9090,44 @@
       <c r="A30" s="15"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="12" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="12" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="12" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="12" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9049,6 +9143,188 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.8" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="51" spans="1:2">
+      <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" ht="127.5" spans="1:2">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" ht="114.75" spans="1:2">
+      <c r="A4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" ht="63.75" spans="1:2">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:2">
+      <c r="A6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" ht="63.75" spans="1:2">
+      <c r="A8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11"/>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:A14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C20"/>
@@ -9066,74 +9342,74 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>444</v>
+        <v>467</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>446</v>
+        <v>469</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>449</v>
+        <v>472</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -9145,259 +9421,368 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="24.7133333333333" customWidth="1"/>
+    <col min="2" max="2" width="114.14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="8" customWidth="1"/>
-    <col min="2" max="2" width="109" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="109" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>457</v>
+      <c r="A1" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>459</v>
+      <c r="A2" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>461</v>
+      <c r="A3" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>463</v>
+      <c r="A4" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>465</v>
+      <c r="A5" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="8" t="s">
-        <v>466</v>
+      <c r="A6" s="6" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>468</v>
+      <c r="A7" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>470</v>
+      <c r="A8" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>472</v>
+      <c r="A12" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>474</v>
+      <c r="A13" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>476</v>
+      <c r="A14" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>478</v>
+      <c r="A15" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>480</v>
+      <c r="A16" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>482</v>
+      <c r="A17" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>484</v>
+      <c r="A18" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>486</v>
+      <c r="A19" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
-        <v>487</v>
+      <c r="A20" s="6" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
-        <v>488</v>
+      <c r="A22" s="6" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="19"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
-        <v>489</v>
+      <c r="A25" s="6" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>490</v>
+      <c r="A28" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>492</v>
+      <c r="A31" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>494</v>
+      <c r="A33" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>496</v>
+      <c r="A34" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>497</v>
+      <c r="A36" s="6" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
-        <v>498</v>
+      <c r="A38" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
-        <v>499</v>
+      <c r="A40" s="6" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
-        <v>500</v>
+      <c r="A42" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
-        <v>501</v>
+      <c r="A44" s="6" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
-        <v>502</v>
+      <c r="A46" s="6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
-        <v>503</v>
+      <c r="A48" s="6" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
-        <v>504</v>
+      <c r="A50" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
-        <v>505</v>
+      <c r="A52" s="6" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>507</v>
+      <c r="A54" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="8" t="s">
-        <v>508</v>
+      <c r="A55" s="22"/>
+      <c r="B55" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="8" t="s">
-        <v>509</v>
+      <c r="A56" s="22"/>
+      <c r="B56" s="6" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -9412,71 +9797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B45"/>
@@ -9492,289 +9813,289 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>514</v>
+      <c r="A1" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="13" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>516</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>518</v>
+      <c r="A4" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="13" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="13" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>521</v>
+      <c r="A7" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="13" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="13" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>527</v>
+      <c r="A12" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="13" t="s">
-        <v>529</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="1:2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="13" t="s">
-        <v>530</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="13" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="13" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="13" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="13" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="14" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="15" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="15"/>
       <c r="B22" s="13" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="15"/>
       <c r="B23" s="13" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="15"/>
       <c r="B24" s="13" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="15"/>
       <c r="B25" s="13" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="15"/>
       <c r="B26" s="13" t="s">
-        <v>543</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15"/>
       <c r="B27" s="13" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15"/>
       <c r="B28" s="14" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="16" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="13" t="s">
-        <v>548</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="13" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="13" t="s">
-        <v>551</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>553</v>
+        <v>589</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>554</v>
+      <c r="A35" s="11"/>
+      <c r="B35" s="17" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1" t="s">
-        <v>555</v>
+      <c r="A36" s="11"/>
+      <c r="B36" s="17" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1" t="s">
-        <v>556</v>
+      <c r="A37" s="11"/>
+      <c r="B37" s="17" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>558</v>
+      <c r="A38" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2" t="s">
-        <v>559</v>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
-        <v>560</v>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2" t="s">
-        <v>561</v>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>562</v>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
-        <v>563</v>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>565</v>
+      <c r="A45" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -9798,220 +10119,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.8533333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="114.573333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="49.2866666666667" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.14" style="9"/>
+    <col min="1" max="1" width="38.8533333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="114.573333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.2866666666667" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.14" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>567</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>569</v>
+      <c r="A2" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>572</v>
+      <c r="A3" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>574</v>
+      <c r="A4" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://www.youtube.com/watch?v=7gMm0iQNZGA"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="23.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="24.7133333333333" customWidth="1"/>
-    <col min="2" max="2" width="114.14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>597</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -10028,552 +10194,552 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="117" style="7" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117" style="5" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="70" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="59" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="39" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="43" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="42"/>
-      <c r="B56" s="39" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="43" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="42"/>
-      <c r="B57" s="39" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="42"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="42"/>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="61" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="65" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="8" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="43" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="61" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="65" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="61" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="65" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="39" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="61" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="65" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="67" t="s">
         <v>153</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -10581,15 +10747,15 @@
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="63"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="63" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="67" t="s">
         <v>156</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -10597,15 +10763,15 @@
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="63" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="67" t="s">
         <v>158</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -10613,8 +10779,8 @@
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="63" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -10622,22 +10788,22 @@
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="63"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="63" t="s">
+      <c r="A90" s="11"/>
+      <c r="B90" s="67" t="s">
         <v>162</v>
       </c>
       <c r="C90" s="14"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="63" t="s">
+      <c r="A91" s="11"/>
+      <c r="B91" s="67" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -10645,15 +10811,15 @@
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="63"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="63" t="s">
+      <c r="A93" s="11"/>
+      <c r="B93" s="67" t="s">
         <v>166</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -10661,7 +10827,7 @@
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -10691,6 +10857,52 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.2866666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="153" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" ht="153" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10705,10 +10917,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -10720,118 +10932,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.8" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="1" max="1" width="23.1" customWidth="1"/>
+    <col min="2" max="2" width="63.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="51" spans="1:2">
+    <row r="1" ht="76.5" spans="1:2">
+      <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="1:2">
       <c r="A2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" ht="127.5" spans="1:2">
+        <v>621</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" ht="114.75" spans="1:2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" ht="63.75" spans="1:2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" ht="38.25" spans="1:2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="8" ht="63.75" spans="1:2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="B9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>616</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10859,7 +11074,7 @@
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10867,7 +11082,7 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10915,33 +11130,33 @@
       <c r="A10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="45"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10972,34 +11187,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -11007,60 +11222,60 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="34" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="31" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="34" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="31" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="11"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="47" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>209</v>
       </c>
       <c r="B15" t="s">
@@ -11071,83 +11286,83 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -11155,45 +11370,45 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="56" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="49"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="45"/>
+      <c r="C33" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11228,10 +11443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>239</v>
       </c>
     </row>
@@ -11239,7 +11454,7 @@
       <c r="A2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>241</v>
       </c>
     </row>
@@ -11255,7 +11470,7 @@
       <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11295,7 +11510,7 @@
       <c r="A9" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>255</v>
       </c>
     </row>
@@ -11326,7 +11541,7 @@
       <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -11334,12 +11549,12 @@
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="52" t="s">
         <v>265</v>
       </c>
       <c r="B16" t="s">
@@ -11360,7 +11575,7 @@
       <c r="A19" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="12" t="s">
         <v>270</v>
       </c>
     </row>
@@ -11422,8 +11637,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -11433,42 +11648,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="71" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>291</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -11476,15 +11691,15 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11492,8 +11707,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>297</v>
       </c>
@@ -11526,7 +11741,7 @@
       <c r="A21" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>304</v>
       </c>
     </row>
@@ -11534,7 +11749,7 @@
       <c r="A24" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="12" t="s">
         <v>306</v>
       </c>
     </row>
@@ -11542,7 +11757,7 @@
       <c r="A27" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11550,7 +11765,7 @@
       <c r="A31" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="50" t="s">
         <v>310</v>
       </c>
     </row>
@@ -11558,7 +11773,7 @@
       <c r="A34" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>312</v>
       </c>
     </row>
@@ -11566,7 +11781,7 @@
       <c r="A37" t="s">
         <v>313</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>314</v>
       </c>
     </row>
@@ -11606,136 +11821,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="6" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="40" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="40" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="42" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -11743,10 +11958,10 @@
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -11754,10 +11969,10 @@
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -11768,7 +11983,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="43" t="s">
         <v>348</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -11776,76 +11991,76 @@
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="45" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>367</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -11853,10 +12068,10 @@
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -11864,7 +12079,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>372</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -11872,10 +12087,10 @@
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="47" t="s">
         <v>374</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -11883,29 +12098,29 @@
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="12" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="12" t="s">
         <v>380</v>
       </c>
     </row>
@@ -11949,57 +12164,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -12057,23 +12272,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="71" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>399</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="14" activeTab="21"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="647">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -3342,6 +3342,33 @@
     <t xml:space="preserve"> - represents the whole HTTP response: status code, headers, and body</t>
   </si>
   <si>
+    <t>Creating a Custom Auto-Configuration</t>
+  </si>
+  <si>
+    <t>@Configuration: 
+ - Is a class-level annotation indicating that an object is a source of bean definitions
+ - Create custom auto-configuration
+ - this annotation declare beans through @Bean -annotated methods, call to @Bean methods on @Configuration classes can alse be used to define inter-bean dependencies.</t>
+  </si>
+  <si>
+    <t>@ConditionalOnClass</t>
+  </si>
+  <si>
+    <t>@ConditionalOnMissingClass</t>
+  </si>
+  <si>
+    <t>@ConditionalOnBean</t>
+  </si>
+  <si>
+    <t>@ConditionalOnMissingBean</t>
+  </si>
+  <si>
+    <t>@ConditionalOnProperty</t>
+  </si>
+  <si>
+    <t>@ConditionalOnResource</t>
+  </si>
+  <si>
     <t xml:space="preserve">Em biết gì về chữ ký số?
 </t>
   </si>
@@ -7028,6 +7055,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Domain logic is the purpose of your modeling
  - Most commonly, it's referred to as the </t>
     </r>
@@ -7099,8 +7133,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -7196,16 +7230,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7228,7 +7278,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7243,24 +7293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7282,14 +7316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7298,6 +7325,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7396,13 +7430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7414,7 +7454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7432,7 +7472,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7444,31 +7544,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7480,79 +7586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7642,24 +7676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7671,6 +7687,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7707,6 +7732,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -7716,11 +7752,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7730,130 +7764,130 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7864,7 +7898,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7894,12 +7928,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7909,9 +7937,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7988,6 +8013,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8692,7 +8723,7 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8703,7 +8734,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8711,10 +8742,10 @@
       <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8725,7 +8756,7 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8747,7 +8778,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8758,7 +8789,7 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8769,7 +8800,7 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8780,7 +8811,7 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8794,7 +8825,7 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8829,7 +8860,7 @@
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -8859,7 +8890,7 @@
       <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="57" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8867,7 +8898,7 @@
       <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="57" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8898,236 +8929,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>401</v>
+      <c r="A1" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="27" t="s">
-        <v>402</v>
+      <c r="A3" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>404</v>
+        <v>411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>406</v>
+        <v>413</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>411</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="17" t="s">
-        <v>412</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="17" t="s">
-        <v>413</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="12" t="s">
-        <v>415</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>418</v>
+        <v>425</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="13" t="s">
-        <v>419</v>
+      <c r="C15" s="11" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="13" t="s">
-        <v>420</v>
+      <c r="C16" s="11" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
-        <v>421</v>
+      <c r="C17" s="11" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="17" t="s">
-        <v>422</v>
+      <c r="C18" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="14" t="s">
-        <v>423</v>
+      <c r="A20" s="24"/>
+      <c r="B20" s="12" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
-        <v>425</v>
+      <c r="A24" s="24" t="s">
+        <v>433</v>
       </c>
       <c r="B24" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="24"/>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="12" t="s">
-        <v>430</v>
+      <c r="A28" s="24"/>
+      <c r="B28" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="12" t="s">
-        <v>431</v>
+      <c r="A29" s="24"/>
+      <c r="B29" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="F31" s="30"/>
+      <c r="A31" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="12" t="s">
-        <v>434</v>
+      <c r="A32" s="24"/>
+      <c r="B32" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="12" t="s">
-        <v>435</v>
+      <c r="A33" s="24"/>
+      <c r="B33" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="27"/>
-      <c r="B34" s="12" t="s">
-        <v>436</v>
+      <c r="A34" s="24"/>
+      <c r="B34" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="12" t="s">
-        <v>437</v>
+      <c r="A35" s="24"/>
+      <c r="B35" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9187,17 +9218,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -9223,96 +9254,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>443</v>
+        <v>450</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>445</v>
+        <v>452</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>449</v>
+        <v>456</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>451</v>
+        <v>458</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>453</v>
+        <v>460</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>455</v>
+        <v>462</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>456</v>
+      <c r="A9" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -9342,74 +9373,74 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>468</v>
+        <v>475</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>470</v>
+        <v>477</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>473</v>
+        <v>480</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -9437,91 +9468,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>480</v>
+      <c r="A1" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -9546,243 +9577,243 @@
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>497</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>498</v>
+      <c r="A1" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>504</v>
+        <v>511</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="21"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="6" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="6" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="6" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="22" t="s">
-        <v>547</v>
+      <c r="A54" s="19" t="s">
+        <v>555</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="6" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="22"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="6" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -9813,289 +9844,289 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>551</v>
+      <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
-        <v>552</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="11" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
-        <v>553</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>555</v>
+      <c r="A4" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
-        <v>556</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="11" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
-        <v>557</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>559</v>
+      <c r="A7" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>560</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>561</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>562</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
-        <v>563</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>565</v>
+      <c r="A12" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
-        <v>566</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="1:2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
-        <v>567</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
-        <v>568</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
-        <v>569</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13" t="s">
-        <v>570</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
-        <v>571</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
-        <v>572</v>
+      <c r="A19" s="3"/>
+      <c r="B19" s="11" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
-        <v>573</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="12" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>575</v>
+      <c r="A21" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13" t="s">
-        <v>576</v>
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13" t="s">
-        <v>577</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
-        <v>578</v>
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
-        <v>579</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13" t="s">
-        <v>580</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13" t="s">
-        <v>581</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14" t="s">
-        <v>582</v>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>584</v>
+      <c r="A29" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13" t="s">
-        <v>585</v>
+      <c r="A30" s="3"/>
+      <c r="B30" s="11" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13" t="s">
-        <v>586</v>
+      <c r="A31" s="3"/>
+      <c r="B31" s="11" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
-        <v>587</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="11" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13" t="s">
-        <v>588</v>
+      <c r="A33" s="3"/>
+      <c r="B33" s="11" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>590</v>
+      <c r="A34" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17" t="s">
-        <v>591</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="17" t="s">
-        <v>592</v>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="17" t="s">
-        <v>593</v>
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>595</v>
+      <c r="A38" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
-        <v>596</v>
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
-        <v>597</v>
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
-        <v>598</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
-        <v>599</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
-        <v>600</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>602</v>
+      <c r="A45" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -10138,10 +10169,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>604</v>
+        <v>611</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>612</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>133</v>
@@ -10149,29 +10180,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>606</v>
+        <v>613</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -10200,7 +10231,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -10208,7 +10239,7 @@
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -10216,126 +10247,126 @@
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -10343,12 +10374,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -10356,7 +10387,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -10364,15 +10395,15 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -10380,28 +10411,28 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -10409,7 +10440,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -10417,12 +10448,12 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -10430,7 +10461,7 @@
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -10438,15 +10469,15 @@
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -10454,25 +10485,25 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -10480,13 +10511,13 @@
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -10494,7 +10525,7 @@
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="6" t="s">
         <v>102</v>
       </c>
@@ -10508,7 +10539,7 @@
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -10516,7 +10547,7 @@
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -10524,7 +10555,7 @@
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -10532,19 +10563,19 @@
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="47"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="47"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -10552,43 +10583,43 @@
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="46"/>
-      <c r="B56" s="43" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="46"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -10596,7 +10627,7 @@
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -10604,7 +10635,7 @@
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -10612,7 +10643,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="63" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -10620,7 +10651,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="63" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -10628,59 +10659,59 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="63"/>
+      <c r="B66" s="64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="66" t="s">
+      <c r="A67" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="11"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="43" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="40" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="65" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="40" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="65" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="64" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="11"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -10688,7 +10719,7 @@
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10696,138 +10727,138 @@
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="11"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="11"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="11"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="43" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="40" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="65" t="s">
+      <c r="A80" s="3"/>
+      <c r="B80" s="64" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="14" t="s">
+      <c r="A84" s="3"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="67" t="s">
+      <c r="A85" s="3"/>
+      <c r="B85" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="14" t="s">
+      <c r="A86" s="3"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="67" t="s">
+      <c r="A87" s="3"/>
+      <c r="B87" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="67" t="s">
+      <c r="A88" s="3"/>
+      <c r="B88" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="14" t="s">
+      <c r="A89" s="3"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="67" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="12"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="67" t="s">
+      <c r="A91" s="3"/>
+      <c r="B91" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="14" t="s">
+      <c r="A92" s="3"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="67" t="s">
+      <c r="A93" s="3"/>
+      <c r="B93" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -10872,26 +10903,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -10917,10 +10948,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -10937,8 +10968,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -10949,99 +10980,99 @@
   <sheetData>
     <row r="1" ht="76.5" spans="1:2">
       <c r="A1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:2">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -11074,7 +11105,7 @@
       <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11082,7 +11113,7 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -11130,33 +11161,33 @@
       <c r="A10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -11175,8 +11206,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -11187,7 +11218,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -11195,7 +11226,7 @@
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -11203,7 +11234,7 @@
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -11211,10 +11242,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -11222,60 +11253,60 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="44" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B15" t="s">
@@ -11286,129 +11317,129 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11430,23 +11461,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.7133333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.3" customWidth="1"/>
     <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>239</v>
       </c>
     </row>
@@ -11454,7 +11485,7 @@
       <c r="A2" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -11470,7 +11501,7 @@
       <c r="A4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11510,7 +11541,7 @@
       <c r="A9" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -11541,7 +11572,7 @@
       <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -11549,12 +11580,12 @@
       <c r="A15" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>265</v>
       </c>
       <c r="B16" t="s">
@@ -11575,7 +11606,7 @@
       <c r="A19" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -11626,7 +11657,54 @@
         <v>281</v>
       </c>
     </row>
+    <row r="28" ht="63.75" spans="1:2">
+      <c r="A28" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="50"/>
+      <c r="B29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="50"/>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="50"/>
+      <c r="B31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="50"/>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="50"/>
+      <c r="B33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="50"/>
+      <c r="B34" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -11649,140 +11727,140 @@
   <sheetData>
     <row r="1" ht="192.75" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" ht="127.5" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>289</v>
+      <c r="A4" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>291</v>
+      <c r="A7" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="49" t="s">
-        <v>293</v>
+      <c r="A8" s="46" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>295</v>
+      <c r="A9" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" ht="102" spans="1:2">
       <c r="A21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
       <c r="A24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="27" ht="114.75" spans="1:2">
       <c r="A27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="31" ht="76.5" spans="1:2">
       <c r="A31" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="34" ht="102" spans="1:2">
       <c r="A34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="37" ht="38.25" spans="1:2">
       <c r="A37" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>314</v>
+        <v>321</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="5:5">
@@ -11828,114 +11906,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>320</v>
+      <c r="A3" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>322</v>
+      <c r="A4" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="73" t="s">
-        <v>323</v>
+      <c r="A5" s="72" t="s">
+        <v>331</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>329</v>
+      <c r="A8" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="38"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="35"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="6" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="6" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -11943,185 +12021,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="43" t="s">
-        <v>348</v>
+      <c r="B28" s="40" t="s">
+        <v>356</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="44" t="s">
-        <v>358</v>
+      <c r="A34" s="41" t="s">
+        <v>366</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>375</v>
+      <c r="A43" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>376</v>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>378</v>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>380</v>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -12164,89 +12242,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>383</v>
+      <c r="A1" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -12278,18 +12356,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>397</v>
+        <v>404</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5803,14 +5803,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Distributed Cache
  </t>
     </r>
@@ -5822,9 +5814,56 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- that involves storing data across multiple servers or nodes in a network
+      <t xml:space="preserve">- that involves storing data across multiple servers or nodes in a network
  - Distributed caching allows multiple servers to share the workload of storing and retrieving data, which can improve the performance of the application and reduce the risk of data loss
- - However, managing a distributed caching system can be complex, and ensuring consistency across multiple nodes can be challenging.</t>
+ - However, managing a distributed caching system can be complex, and ensuring consistency across multiple nodes can be challenging.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :
+   + Database caching:
+   + Storing User sessions:
+   + Cross-Module Comunication And </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shared Storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + In memory Data Stream Processing and Analytics</t>
     </r>
   </si>
   <si>
@@ -7132,9 +7171,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -7231,22 +7270,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7262,31 +7308,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7301,22 +7323,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7330,8 +7353,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7424,7 +7463,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7436,25 +7547,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7466,25 +7613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7496,97 +7625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7676,17 +7715,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7700,17 +7733,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7741,20 +7783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7764,133 +7803,133 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7898,7 +7937,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8013,12 +8052,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="33"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8723,7 +8756,7 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8734,7 +8767,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8742,10 +8775,10 @@
       <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8756,7 +8789,7 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8778,7 +8811,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8789,7 +8822,7 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8800,7 +8833,7 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8811,7 +8844,7 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8825,7 +8858,7 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8860,7 +8893,7 @@
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -8890,7 +8923,7 @@
       <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8898,7 +8931,7 @@
       <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9580,7 +9613,7 @@
       <c r="A1" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>505</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -9607,7 +9640,7 @@
       <c r="A4" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>512</v>
       </c>
     </row>
@@ -9833,8 +9866,8 @@
   <sheetPr/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -9929,7 +9962,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="14" ht="63.75" spans="1:2">
+    <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
         <v>575</v>
@@ -10171,7 +10204,7 @@
       <c r="A1" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>612</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -10182,7 +10215,7 @@
       <c r="A2" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10250,7 +10283,7 @@
       <c r="A3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10258,7 +10291,7 @@
       <c r="A4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="67" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10266,7 +10299,7 @@
       <c r="A5" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10274,7 +10307,7 @@
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10287,10 +10320,10 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="68" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10306,36 +10339,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -10343,7 +10376,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -10351,7 +10384,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="34"/>
@@ -10643,7 +10676,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="61" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -10651,7 +10684,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="61" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -10659,16 +10692,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="63"/>
-      <c r="B66" s="64" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10686,7 +10719,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3"/>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10700,7 +10733,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3"/>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="62" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10752,7 +10785,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3"/>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="62" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10770,7 +10803,7 @@
       <c r="A83" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="64" t="s">
         <v>153</v>
       </c>
       <c r="C83" s="12" t="s">
@@ -10779,14 +10812,14 @@
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="3"/>
-      <c r="B84" s="66"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="3"/>
-      <c r="B85" s="66" t="s">
+      <c r="B85" s="64" t="s">
         <v>156</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -10795,14 +10828,14 @@
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="3"/>
-      <c r="B86" s="66"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="3"/>
-      <c r="B87" s="66" t="s">
+      <c r="B87" s="64" t="s">
         <v>158</v>
       </c>
       <c r="C87" s="12" t="s">
@@ -10811,7 +10844,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="3"/>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="64" t="s">
         <v>160</v>
       </c>
       <c r="C88" s="12" t="s">
@@ -10820,21 +10853,21 @@
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="3"/>
-      <c r="B89" s="66"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="3"/>
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="64" t="s">
         <v>162</v>
       </c>
       <c r="C90" s="12"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="3"/>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="64" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="12" t="s">
@@ -10843,14 +10876,14 @@
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="3"/>
-      <c r="B92" s="66"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="3"/>
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="64" t="s">
         <v>166</v>
       </c>
       <c r="C93" s="12" t="s">
@@ -11242,7 +11275,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -11253,43 +11286,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="28" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="31" t="s">
         <v>207</v>
       </c>
@@ -11423,7 +11456,7 @@
       <c r="B31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="53" t="s">
         <v>235</v>
       </c>
     </row>
@@ -11436,7 +11469,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="3"/>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="54" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="46"/>
@@ -11463,7 +11496,7 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -11658,45 +11691,45 @@
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="50"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>289</v>
       </c>
@@ -11737,7 +11770,7 @@
       <c r="A2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="68" t="s">
         <v>293</v>
       </c>
     </row>
@@ -11937,7 +11970,7 @@
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -12358,7 +12391,7 @@
       <c r="A1" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>405</v>
       </c>
     </row>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -31,13 +31,14 @@
     <sheet name="20.Cloud" sheetId="28" r:id="rId22"/>
     <sheet name="21.Concurrency" sheetId="24" r:id="rId23"/>
     <sheet name="22.Reactive Programing" sheetId="14" r:id="rId24"/>
+    <sheet name="23.System Design" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="731">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -3844,6 +3845,634 @@
     <t>Method Security</t>
   </si>
   <si>
+    <t>OAuth2 framework</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - OAuth 2 is referred to as an authorization framework (or a specification framework) whose primary purpose is to allow a third-party website or app access to a resource
+ - Sometimes people refer to OAuth 2 as a delegation protocol(giao thức ủy quyền)
+ - OAuth 2 is not a specific implementation or a library. You could, as well, apply the OAuth 2 flow definitions with other platforms, tools, or languages
+ - Mainly, OAuth 2 refers to using tokens for authorization
+ - Once you obtain a token, you can access specific resources. But OAuth 2 offers multiple possibilities for obtaining a token, called GRANTS:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization code, Password, Refresh Token, Client Credentials</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Components:
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The resource server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: application hosting resources owned by users (user's data, their authorized actions)
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The individual who owns resources exposed by the resource server. A user generally has a username and a password that they use to identify themselves
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: The application that accesses the resources owned by the use. The client uses a client ID and a client secret to identify itself. Becareful, these credentials are not the same as the user credentials. The client needs its own credentials to identify itself when making a request
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The authorization server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The application that authorizes the client to access the user’s resources exposed by the resource server. When the authorization server decides that a client is authorized to access a resource on behalf of the user, it issues a token. The client uses this token to prove to the resource server that it was authorized by the authorization server. The resource server allows the client to access the resource it requested if it has a valid token</t>
+    </r>
+  </si>
+  <si>
+    <t>Authorization Code grant type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Client redirects the user to an endpoint of the authorization server where they need to authenticate. 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: What’s really important to observe here is that the user interacts directly with the authorization server. The user doesn’t send the credentials to the client app.
+   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: MAKING THE AUTHENTICATION REQUEST WITH THE AUTHORIZATION CODE GRANT TYPE (the interaction was between the user and the authorization server)
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client calls the authorization endpoint with the following details in
+the request query
+   + Response_type(=code): Tell the authorization server that the client expects a code, The client needs the code to obtain an access token
+   + Client_id: value of the client ID, identifies the application itself
+   + Redirect_uri: Tells authorization server where to redirect the user after successful authentication. Sometimes the authorization server already knows a default redirect URI for each client. For this reason, the client doesn’t need to send the redirect URI.
+   + scope: similar granted authorities
+   + state: defines a CSRF token used
+After successful authentication,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the authorization server calls back the client on the redirect URI and provides a code and the state value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The client </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checks that the state value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the same as the one it sent in the request to confirm that it was not someone else attempting to call the redirect URI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 2: OBTAINING AN ACCESS TOKEN WITH THE AUTHORIZATION CODE GRANT TYPE (the interaction is between the client and the authorization server)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- The client calls the authorization server with the code(step1) to get the token.
+ - Why the flow needs two calls to the authorization server and two different token the authorization code and an access token:
+  + The authorization server generates the first code as proof(chứng minh) that the user directly interacted with it. The client receives this code and has to authenticate again using it and its credentials to obtain an access token.
+  + The client uses the second token(access token) to access resources on the resource server.
+ - So why didn’t the authorization server directly return the second token (access token)? (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implicit grant type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">):
+  + The implicit grant type is not recommended, and most authorization servers today don’t allow it
+  + The simple fact that the authorization server would call the redirect URI directly with an access token without making sure that it was indeed the right client receiving that token </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>makes the flow less secure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+  + By sending an authorization code first, the client has to prove again who they are by using their credentials to obtain an access token
+ - The client makes a final call to get an access token and sends:
+  + The authorization code, which proves(chứng minh) the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user authorized them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Their credentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which proves they really are the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not someone else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who intercepted the authorization codes
+ - The client now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>makes a request to the authorization server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This request contains the following details:
+  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which is the authorization code received in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This proves that the user authenticated.
+  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>client_secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the client’s credentials.
+  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Redirect_uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which is the same one used in step 1 for validation.
+  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grant_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the value authorization_code, which identifies the kind of flow used. A server might support multiple flows, so it’s essential always to specify which is the current executed authentication flow.
+ - As a response, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the server sends back an access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This token is a value that the client can use to call resources exposed by the resource server.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 3: CALLING THE PROTECTED RESOURCE WITH THE AUTHORIZATION CODE GRANT TYPE
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- The authorization code grant type has the great advantage of enabling the user to allow a client to execute specific actions without needing to share their credentials with the client
+ - But this grant type has a weakness: 
+   + What happens if someone intercepts the authorization code? Of course, the client needs to authenticate with its credentials
+   + What if the client credentials are also stolen somehow?
+   + To mitigate this vulnerability, you need to rely on a more complex scenario as presented by the Proof Key for Code Exchange (PKCE) authorization code grant type</t>
+    </r>
+  </si>
+  <si>
+    <t>Password grant type
+(resource owner credentials grant type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Applications using this flow assume that the client collects the user credentials and uses these to authenticate and obtain an access token from the authorization server.
+ - You use this authentication flow only if the client and authorization server are built and maintained by the same organization. Why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Let’s see what happens when using the password grant type. The two tasks are as follows: 
+  + Request an access token
+  + Use the access token to call resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The password grant type is less secure than the authorization code grant type, mainly because it assumes sharing the user credentials with the client app.
+</t>
+  </si>
+  <si>
+    <t>Refresh Token grant type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - If the token doesn’t expire, someone who gets their hands on the token can use it to access resources. What if the token is stolen? If the token doesn’t expire, someone who gets their hands on the token can use it to access resources. A token that doesn’t expire is too powerful. It becomes almost as powerful as user credentials. We prefer to avoid this and make the token short lived
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At some point, an expired token can’t be used anymore. The client has to obtain another access token, client has to obtain another access token, the client can rerun the flow, depending on the grant type used
+ - For example, if the grant type is authentication code, the client would redirect the user to the authorization server login endpoint, and the user must again fill in their username and password. Not really user friendly, is it?
+ - To avoid the need to reauthenticate, the authorization server can issue a refresh token, which has a different value and purpose than an access token. The app uses the refresh token to obtain a new access token instead of having to reauthenticate.
+ - Storing the refresh token is safer because you can revoke(thu hồi) it if you find that it was exposed(bị lộ). Moreover, don’t forget that people tend to have the same credentials for multiple apps. So losing credentials is worse than losing a token that one could use with a specific application.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - The authorization server returns a refresh token together with an access token when using a flow like the authorization code or password grant types.
+ - Once the client has a refresh token, the client should issue a request with the following details when the access token expires:
+  + grant_type with value refresh_token.
+  + refresh_token with the value of the refresh token.
+  + client_id and client_secret with the client credentials.
+  + scope, which defines the same granted authorities or less. If more granted authorities need to be authorized, a reauthentication is needed.
+ - In response to this request, the authorization server issues a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>access token and a new refresh token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Client Credentials grant type</t>
+  </si>
+  <si>
     <t>JDBC là gì?</t>
   </si>
   <si>
@@ -8086,9 +8715,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -8185,6 +8814,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -8192,16 +8827,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8216,39 +8890,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8262,14 +8912,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8284,23 +8935,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8346,12 +8981,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -8405,7 +9034,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8417,7 +9112,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8429,19 +9148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8453,25 +9160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8483,37 +9172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8525,49 +9190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8657,6 +9286,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8674,18 +9336,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8713,165 +9368,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8879,7 +9508,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9009,6 +9638,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9045,7 +9689,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9344,7 +9988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20582255" y="9991725"/>
+          <a:off x="21877655" y="9991725"/>
           <a:ext cx="11078210" cy="5572125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9726,7 +10370,7 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9737,7 +10381,7 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="82" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9745,10 +10389,10 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9759,7 +10403,7 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="83" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9781,7 +10425,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="83" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9792,7 +10436,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9803,7 +10447,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="66" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9814,7 +10458,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="82" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9828,7 +10472,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="81" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9863,7 +10507,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -9893,7 +10537,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9901,7 +10545,7 @@
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9932,195 +10576,195 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" ht="63.75" spans="1:2">
       <c r="A24" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B35" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -10152,140 +10796,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>497</v>
+        <v>513</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>514</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>504</v>
+        <v>520</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -10293,145 +10937,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="27"/>
       <c r="B55" s="8" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="27"/>
       <c r="B56" s="8" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="28" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="28"/>
       <c r="B59" s="29" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="28"/>
       <c r="B60" s="29" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="28"/>
       <c r="B62" s="29" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="28"/>
       <c r="B63" s="29" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="28"/>
       <c r="B64" s="29" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -10464,276 +11108,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" s="15" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
       <c r="B15" s="15" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6"/>
       <c r="B16" s="15" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="6"/>
       <c r="B17" s="15" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="17" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18"/>
       <c r="B28" s="17" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="18" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="5" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" s="5" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10742,10 +11386,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -10788,10 +11432,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>611</v>
+        <v>627</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>628</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>133</v>
@@ -10799,29 +11443,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>613</v>
+        <v>629</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10850,18 +11494,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>620</v>
+        <v>636</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -10919,22 +11563,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -10961,10 +11605,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10972,120 +11616,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11095,13 +11739,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -11112,40 +11756,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="B24" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11153,41 +11797,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -11225,8 +11869,8 @@
   <sheetPr/>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -11256,7 +11900,7 @@
       <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="83" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11264,7 +11908,7 @@
       <c r="A4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11272,7 +11916,7 @@
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11280,7 +11924,7 @@
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="83" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11293,10 +11937,10 @@
       <c r="A8" s="6"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="83" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11312,36 +11956,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="67" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="67" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -11349,7 +11993,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="68" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -11357,7 +12001,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="67" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="41"/>
@@ -11614,13 +12258,13 @@
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="49"/>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="72" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
       <c r="A60" s="49"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="73" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11649,7 +12293,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="74" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -11657,7 +12301,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="69" t="s">
+      <c r="A65" s="74" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -11665,16 +12309,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="69"/>
-      <c r="B66" s="70" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="75" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="77" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11686,13 +12330,13 @@
     </row>
     <row r="69" ht="25.5" spans="1:2">
       <c r="A69" s="51"/>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="51"/>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="77" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11706,7 +12350,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6"/>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="75" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11758,7 +12402,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6"/>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="75" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11776,90 +12420,90 @@
       <c r="A83" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="79" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="51"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="74" t="s">
+      <c r="B84" s="78"/>
+      <c r="C84" s="79" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="51"/>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="51"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="74" t="s">
+      <c r="B86" s="78"/>
+      <c r="C86" s="79" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="51"/>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="79" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="51"/>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="79" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="51"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="74" t="s">
+      <c r="B89" s="78"/>
+      <c r="C89" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="51"/>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="74"/>
+      <c r="C90" s="79"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="51"/>
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="79" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="51"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="74" t="s">
+      <c r="B92" s="78"/>
+      <c r="C92" s="79" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="51"/>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -11925,26 +12569,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -11986,96 +12630,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="B9" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -12105,110 +12749,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -12223,12 +12867,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12264,7 +12924,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="60" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -12275,43 +12935,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="56"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="38" t="s">
         <v>184</v>
       </c>
@@ -12375,7 +13035,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -12445,7 +13105,7 @@
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="64" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12458,7 +13118,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="65" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="34"/>
@@ -12483,16 +13143,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="35.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="90.3" customWidth="1"/>
+    <col min="2" max="2" width="103.9" customWidth="1"/>
     <col min="3" max="3" width="84.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12513,7 +13173,7 @@
       <c r="A3" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="83" t="s">
         <v>219</v>
       </c>
     </row>
@@ -12981,61 +13641,121 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="6"/>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" ht="24" spans="1:1">
+      <c r="A90" s="50" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6"/>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="93" ht="24" spans="1:1">
-      <c r="A93" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="6"/>
-    </row>
-    <row r="95" spans="1:1">
+    <row r="92" ht="114.75" spans="1:2">
+      <c r="A92" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" ht="140.25" spans="1:2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" ht="51" spans="1:2">
+      <c r="A94" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" ht="191.25" spans="1:2">
       <c r="A95" s="6"/>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" ht="331.5" spans="1:2">
       <c r="A96" s="6"/>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="B96" s="56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" ht="114.75" spans="1:2">
       <c r="A97" s="6"/>
-      <c r="B97" s="25"/>
+      <c r="B97" s="56" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6"/>
-      <c r="B98" s="25"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="25"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="25"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="25"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="25"/>
+      <c r="B98" s="55"/>
+    </row>
+    <row r="99" ht="51" spans="1:2">
+      <c r="A99" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" ht="38.25" spans="1:2">
+      <c r="A100" s="28"/>
+      <c r="B100" s="57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" ht="38.25" spans="1:2">
+      <c r="A101" s="28"/>
+      <c r="B101" s="57" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" ht="51" spans="1:2">
+      <c r="A102" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" ht="114.75" spans="1:2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" ht="114.75" spans="1:2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="34" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A105"/>
     <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
@@ -13070,114 +13790,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" s="43" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="43" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="80" t="s">
-        <v>308</v>
+      <c r="A5" s="85" t="s">
+        <v>325</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="45" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39"/>
       <c r="B9" s="35" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39"/>
       <c r="B10" s="38" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" s="35" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="38" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -13185,185 +13905,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
       <c r="A34" s="47" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
       <c r="A43" s="49" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="49"/>
       <c r="B44" s="28" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="49"/>
       <c r="B45" s="28" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="49"/>
       <c r="B46" s="28" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -13423,88 +14143,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -13538,92 +14258,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -13653,230 +14373,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="742">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -4012,6 +4012,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Step 1: MAKING THE AUTHENTICATION REQUEST WITH THE AUTHORIZATION CODE GRANT TYPE (the interaction was between the user and the authorization server)
  - </t>
     </r>
@@ -4072,6 +4079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Step 2: OBTAINING AN ACCESS TOKEN WITH THE AUTHORIZATION CODE GRANT TYPE (the interaction is between the client and the authorization server)
  </t>
     </r>
@@ -4369,6 +4383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Step 3: CALLING THE PROTECTED RESOURCE WITH THE AUTHORIZATION CODE GRANT TYPE
  </t>
     </r>
@@ -4418,6 +4439,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - The authorization server returns a refresh token together with an access token when using a flow like the authorization code or password grant types.
  - Once the client has a refresh token, the client should issue a request with the following details when the access token expires:
   + grant_type with value refresh_token.
@@ -4471,6 +4499,221 @@
   </si>
   <si>
     <t>Client Credentials grant type</t>
+  </si>
+  <si>
+    <t>Vulnerabilities of OAuth 2 authentication and
+authorization</t>
+  </si>
+  <si>
+    <r>
+      <t>Using cross-site request forgery (CSRF) on the client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: With a user logged in, CSRF is possible if the application doesn’t apply any CSRF protection mechanism. We had a great discussion on CSRF protection implemented by Spring Security in chapter 10.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stealing client credentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Storing or transferring unprotected credentials can create breaches that allow attackers to steal and use them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Replaying tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">—As you’ll learn in chapters 13 and 14, tokens are the keys we use within an OAuth 2 authentication and authorization architecture to access resources. You send these over the network, but sometimes, they might be intercepted. If intercepted, they are stolen and can be reused. Imagine you lose the key from your home’s front door. What could happen? Somebody else could use it to open the door as many times as they like (replay)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Token hijacking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—Implies someone interferes with the authentication process and steals tokens that they can use to access resources. This is also a potential vulnerability of using refresh tokens, as these as well can be intercepted and used to obtain new access tokens</t>
+    </r>
+  </si>
+  <si>
+    <t>SSO (Single Sign On)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - One in which you authenticate through an authorization server, and then the app keeps you logged in, using a refresh token.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The role of the authorization server is to authenticate the user and provide a token to the client.
+ - The behavior of the authorization server is different depending on the chosen grant
+ - The authorization server is one of the OAuth 2 actors. It identifies the resource owner and provides an access token to the client. The client needs the access token to access resources on behalf of the user.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> User Management:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- The user management implementation hasn’t changed from what you learned. We continue to use the UserDetails, UserDetailsService, and UserDetailsManager contracts to manage credentials. And to manage passwords, we continue to use the PasswordEncoder contract.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We don’t have a SecurityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This change happened because the result of authentication is not stored in the SecurityContext. The authentication is instead managed with a token from a TokenStore. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Registering clients with the authorization server:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Make your clients known to the authorization server
+ - To call the authorization server, an app acting as a client in the OAuth 2 architecture needs its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>own credentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The authorization server also manages these credentials and only allows requests from known clients</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (client ID and a client secret: the client credentials)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Our authorization server needs to know its clients because it accepts requests from them. Here the process should become familiar. The contract that defines the client for the authorization server is ClientDetails. The contract defining the object to retrieve ClientDetails by their IDs is ClientDetailsService.
+ - These interfaces work like the UserDetails and the UserDetailsService interfaces, but these </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>represent the clients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Our InMemoryClientDetailsService is an implementation of the ClientDetailsService interface, which manages ClientDetails in memory, JdbcClientDetailsService.
+ - We can sum up these similarities in a few points that you can easily remember:
+   + ClientDetails is for the client what UserDetails is for the user.
++ ClientDetailsService is for the client what UserDetailsService is for the user.
++ InMemoryClientDetailsService is for the client what InMemoryUserDetailsManager is for the user.
++ JdbcClientDetailsService is for the client what JdbcUserDetailsManager is for the user.</t>
+    </r>
   </si>
   <si>
     <t>JDBC là gì?</t>
@@ -8715,9 +8958,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -8828,10 +9071,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8840,6 +9098,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8852,38 +9148,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8898,44 +9178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9034,7 +9277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9046,13 +9289,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9064,37 +9391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9106,67 +9421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9178,25 +9433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9295,6 +9538,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -9310,15 +9562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9330,17 +9573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9368,139 +9600,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9508,7 +9751,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9644,13 +9887,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9988,8 +10237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21877655" y="9991725"/>
-          <a:ext cx="11078210" cy="5572125"/>
+          <a:off x="22258655" y="9991725"/>
+          <a:ext cx="11078210" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10370,7 +10619,7 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10381,7 +10630,7 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="84" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10389,10 +10638,10 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10403,7 +10652,7 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="85" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10425,7 +10674,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="85" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10436,7 +10685,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10447,7 +10696,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10458,7 +10707,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="84" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10472,7 +10721,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10507,7 +10756,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="68" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -10537,7 +10786,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10545,7 +10794,7 @@
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10576,195 +10825,195 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" ht="63.75" spans="1:2">
       <c r="A24" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B35" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -10796,140 +11045,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>514</v>
+        <v>524</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>525</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>521</v>
+        <v>531</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -10937,145 +11186,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="27"/>
       <c r="B55" s="8" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="27"/>
       <c r="B56" s="8" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="28" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="28"/>
       <c r="B59" s="29" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="28"/>
       <c r="B60" s="29" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="28"/>
       <c r="B62" s="29" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="28"/>
       <c r="B63" s="29" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="28"/>
       <c r="B64" s="29" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -11108,276 +11357,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" s="15" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
       <c r="B15" s="15" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6"/>
       <c r="B16" s="15" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="6"/>
       <c r="B17" s="15" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="17" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18"/>
       <c r="B28" s="17" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="18" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="5" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" s="5" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -11386,10 +11635,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -11432,10 +11681,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>628</v>
+        <v>638</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>639</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>133</v>
@@ -11443,29 +11692,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>630</v>
+        <v>640</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -11494,18 +11743,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>637</v>
+        <v>647</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -11563,22 +11812,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -11605,10 +11854,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -11616,120 +11865,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11739,13 +11988,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -11756,40 +12005,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="B24" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11797,41 +12046,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -11900,7 +12149,7 @@
       <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11908,7 +12157,7 @@
       <c r="A4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="84" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11916,7 +12165,7 @@
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11924,7 +12173,7 @@
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="85" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11937,10 +12186,10 @@
       <c r="A8" s="6"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="85" t="s">
         <v>54</v>
       </c>
     </row>
@@ -11956,36 +12205,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="69" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="72" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="73" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="69" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -11993,7 +12242,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="70" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -12001,7 +12250,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="41"/>
@@ -12258,13 +12507,13 @@
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="49"/>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="74" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
       <c r="A60" s="49"/>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="75" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12293,7 +12542,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="76" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -12301,7 +12550,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="76" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -12309,16 +12558,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="75" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="77" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="79" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12330,13 +12579,13 @@
     </row>
     <row r="69" ht="25.5" spans="1:2">
       <c r="A69" s="51"/>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="75" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="51"/>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="79" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12350,7 +12599,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6"/>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12402,7 +12651,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6"/>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="77" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12420,90 +12669,90 @@
       <c r="A83" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="81" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="51"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79" t="s">
+      <c r="B84" s="80"/>
+      <c r="C84" s="81" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="51"/>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="81" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="51"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="79" t="s">
+      <c r="B86" s="80"/>
+      <c r="C86" s="81" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="51"/>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="81" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="51"/>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="79" t="s">
+      <c r="C88" s="81" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="51"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="79" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="81" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="51"/>
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="79"/>
+      <c r="C90" s="81"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="51"/>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="81" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="51"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="79" t="s">
+      <c r="B92" s="80"/>
+      <c r="C92" s="81" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="51"/>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="81" t="s">
         <v>167</v>
       </c>
     </row>
@@ -12569,26 +12818,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -12630,96 +12879,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B9" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -12749,110 +12998,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -12924,7 +13173,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -12935,43 +13184,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="38" t="s">
         <v>184</v>
       </c>
@@ -13035,7 +13284,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="65" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -13105,7 +13354,7 @@
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="66" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13118,7 +13367,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="67" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="34"/>
@@ -13143,16 +13392,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="35.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="103.9" customWidth="1"/>
+    <col min="2" max="2" width="107.9" customWidth="1"/>
     <col min="3" max="3" width="84.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13173,7 +13422,7 @@
       <c r="A3" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>219</v>
       </c>
     </row>
@@ -13299,7 +13548,7 @@
     <row r="26" spans="1:1">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" ht="102" spans="1:2">
+    <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>240</v>
       </c>
@@ -13360,7 +13609,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="63.75" spans="1:2">
+    <row r="38" ht="51" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>250</v>
       </c>
@@ -13368,7 +13617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" ht="76.5" spans="1:2">
+    <row r="39" ht="51" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
         <v>252</v>
@@ -13380,7 +13629,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" ht="114.75" spans="1:2">
+    <row r="41" ht="102" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="5" t="s">
         <v>254</v>
@@ -13392,7 +13641,7 @@
     <row r="43" spans="1:1">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" ht="51" spans="1:2">
+    <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>224</v>
       </c>
@@ -13491,7 +13740,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="60" ht="51" spans="1:2">
+    <row r="60" ht="38.25" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>272</v>
       </c>
@@ -13511,7 +13760,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" ht="127.5" spans="1:2">
+    <row r="63" ht="114.75" spans="1:2">
       <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
         <v>276</v>
@@ -13523,7 +13772,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" ht="76.5" spans="1:2">
+    <row r="65" ht="63.75" spans="1:2">
       <c r="A65" s="6"/>
       <c r="B65" s="2" t="s">
         <v>278</v>
@@ -13599,13 +13848,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="1:2">
+    <row r="78" ht="63.75" spans="1:2">
       <c r="A78" s="6"/>
       <c r="B78" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="79" ht="127.5" spans="1:3">
+    <row r="79" ht="114.75" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>292</v>
       </c>
@@ -13674,19 +13923,19 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" ht="191.25" spans="1:2">
+    <row r="95" ht="178.5" spans="1:2">
       <c r="A95" s="6"/>
       <c r="B95" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="96" ht="331.5" spans="1:2">
+    <row r="96" ht="306" spans="1:2">
       <c r="A96" s="6"/>
       <c r="B96" s="56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="97" ht="114.75" spans="1:2">
+    <row r="97" ht="102" spans="1:2">
       <c r="A97" s="6"/>
       <c r="B97" s="56" t="s">
         <v>307</v>
@@ -13696,23 +13945,23 @@
       <c r="A98" s="6"/>
       <c r="B98" s="55"/>
     </row>
-    <row r="99" ht="51" spans="1:2">
+    <row r="99" ht="38.25" spans="1:2">
       <c r="A99" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="55" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="100" ht="38.25" spans="1:2">
       <c r="A100" s="28"/>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="55" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:2">
       <c r="A101" s="28"/>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="55" t="s">
         <v>311</v>
       </c>
     </row>
@@ -13720,19 +13969,19 @@
       <c r="A102" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="103" ht="114.75" spans="1:2">
       <c r="A103" s="6"/>
-      <c r="B103" s="59" t="s">
+      <c r="B103" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="104" ht="114.75" spans="1:2">
       <c r="A104" s="6"/>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -13744,8 +13993,68 @@
         <v>316</v>
       </c>
     </row>
+    <row r="108" ht="25.5" spans="1:2">
+      <c r="A108" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="57"/>
+      <c r="B109" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" ht="63.75" spans="1:2">
+      <c r="A110" s="57"/>
+      <c r="B110" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" ht="38.25" spans="1:2">
+      <c r="A111" s="57"/>
+      <c r="B111" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" ht="51" spans="1:2">
+      <c r="A113" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" s="60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" ht="63.75" spans="1:2">
+      <c r="A114" s="59"/>
+      <c r="B114" s="58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" ht="193.5" spans="1:2">
+      <c r="A115" s="59"/>
+      <c r="B115" s="61" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="59"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A56:A59"/>
@@ -13756,6 +14065,8 @@
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A113:A117"/>
     <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
@@ -13790,114 +14101,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" s="43" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="43" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="85" t="s">
-        <v>325</v>
+      <c r="A5" s="87" t="s">
+        <v>336</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="45" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39"/>
       <c r="B9" s="35" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39"/>
       <c r="B10" s="38" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" s="35" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="38" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -13905,185 +14216,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
       <c r="A34" s="47" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
       <c r="A43" s="49" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="49"/>
       <c r="B44" s="28" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="49"/>
       <c r="B45" s="28" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="49"/>
       <c r="B46" s="28" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -14143,88 +14454,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -14258,92 +14569,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -14373,230 +14684,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -12,33 +12,34 @@
     <sheet name="2.Spring" sheetId="9" r:id="rId3"/>
     <sheet name="3. Spring Security" sheetId="8" r:id="rId4"/>
     <sheet name="3. DB-ORM(HBN)-JPA " sheetId="5" r:id="rId5"/>
-    <sheet name="4.SpringBoot" sheetId="26" r:id="rId6"/>
-    <sheet name="5.DesignPattern" sheetId="10" r:id="rId7"/>
-    <sheet name="6.AOP" sheetId="15" r:id="rId8"/>
-    <sheet name="7.Annotations" sheetId="21" r:id="rId9"/>
-    <sheet name="8.System Design" sheetId="22" r:id="rId10"/>
-    <sheet name="9.Microservice" sheetId="3" r:id="rId11"/>
-    <sheet name="10.Cache" sheetId="11" r:id="rId12"/>
-    <sheet name="11.Distributed Event Streaming" sheetId="2" r:id="rId13"/>
-    <sheet name="12.Git" sheetId="7" r:id="rId14"/>
-    <sheet name="13.Linux" sheetId="19" r:id="rId15"/>
-    <sheet name="14.Networking &amp; Security" sheetId="18" r:id="rId16"/>
-    <sheet name="15.Server Management" sheetId="23" r:id="rId17"/>
-    <sheet name="16.Containers" sheetId="12" r:id="rId18"/>
-    <sheet name="17.Container Orchestration" sheetId="25" r:id="rId19"/>
-    <sheet name="18.Infrastructure as a code" sheetId="27" r:id="rId20"/>
-    <sheet name="19.CI&amp;CD" sheetId="4" r:id="rId21"/>
-    <sheet name="20.Cloud" sheetId="28" r:id="rId22"/>
-    <sheet name="21.Concurrency" sheetId="24" r:id="rId23"/>
-    <sheet name="22.Reactive Programing" sheetId="14" r:id="rId24"/>
-    <sheet name="23.System Design" sheetId="29" r:id="rId25"/>
+    <sheet name="4. Data Structure - Algorithm" sheetId="30" r:id="rId6"/>
+    <sheet name="5.SpringBoot" sheetId="26" r:id="rId7"/>
+    <sheet name="6.DesignPattern" sheetId="10" r:id="rId8"/>
+    <sheet name="7.AOP" sheetId="15" r:id="rId9"/>
+    <sheet name="8.Annotations" sheetId="21" r:id="rId10"/>
+    <sheet name="9.System Design" sheetId="22" r:id="rId11"/>
+    <sheet name="10.Microservice" sheetId="3" r:id="rId12"/>
+    <sheet name="11.Cache" sheetId="11" r:id="rId13"/>
+    <sheet name="12.Distributed Event Streaming" sheetId="2" r:id="rId14"/>
+    <sheet name="13.Git" sheetId="7" r:id="rId15"/>
+    <sheet name="14.Linux" sheetId="19" r:id="rId16"/>
+    <sheet name="15.Networking &amp; Security" sheetId="18" r:id="rId17"/>
+    <sheet name="16.Server Management" sheetId="23" r:id="rId18"/>
+    <sheet name="17.Containers" sheetId="12" r:id="rId19"/>
+    <sheet name="18.Container Orchestration" sheetId="25" r:id="rId20"/>
+    <sheet name="19.Infrastructure as a code" sheetId="27" r:id="rId21"/>
+    <sheet name="20.CI&amp;CD" sheetId="4" r:id="rId22"/>
+    <sheet name="21.Cloud" sheetId="28" r:id="rId23"/>
+    <sheet name="22.Concurrency" sheetId="24" r:id="rId24"/>
+    <sheet name="23.Reactive Programing" sheetId="14" r:id="rId25"/>
+    <sheet name="24.System Design" sheetId="29" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="757">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -4506,6 +4507,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Using cross-site request forgery (CSRF) on the client</t>
     </r>
     <r>
@@ -4521,6 +4530,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Stealing client credentials</t>
     </r>
     <r>
@@ -4536,6 +4553,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Replaying tokens</t>
     </r>
     <r>
@@ -4552,6 +4577,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Token hijacking</t>
     </r>
     <r>
@@ -4581,6 +4614,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> User Management:
  </t>
     </r>
@@ -4619,6 +4660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -4713,6 +4761,40 @@
 + ClientDetailsService is for the client what UserDetailsService is for the user.
 + InMemoryClientDetailsService is for the client what InMemoryUserDetailsManager is for the user.
 + JdbcClientDetailsService is for the client what JdbcUserDetailsManager is for the user.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reseource Server</t>
+  </si>
+  <si>
+    <t>The first option allows the resource server to directly call the authorization server to verify an issued token:
+ - After obtaining a token from the autohrization server, the client calls the endpoints exposed bu the resouce server
+ - To validate the access token received from the client, the resource server directly calls the authorization server
+ - Easy to implement. It can be applied to any token implementation.
+ - It implies direct dependency between the authorization server and the resource server. It might cause unnecessary stress on the authorization server.</t>
+  </si>
+  <si>
+    <t>The second option(blackboarding) 
+ - uses a common database where the authorization server stores tokens, and then the resource server can access and validate the tokens
+ - Eliminates the need for direct communication between the authorization server and the resource server.It’s more difficult to implement than directly calling the authorization server.
+ - It can be applied to any token implementation.Requires one more component in the system, the shared database.
+ - Persisting tokens allows authorization to work after an authorization server restart or if the authorization server is down.</t>
+  </si>
+  <si>
+    <r>
+      <t>The third option uses cryptographic signatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ - The authorization server signs the token when issuing it, and the resource server validates the signature. Here’s where we generally use JSON Web Tokens (JWTs)
+ - Allowing the resource server to validate them without needing to call the authorization server directly and without needing a shared database.</t>
     </r>
   </si>
   <si>
@@ -5350,6 +5432,161 @@
     </r>
   </si>
   <si>
+    <t>DATA 
+STRUCTURE</t>
+  </si>
+  <si>
+    <t>A data structure is an arrangement(tổ chức, sắp xếp) of data in a computer’s memory (or sometimes on a disk). Data structures include arrays, linked lists, stacks, binary trees, and hash tables, among others</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Real-World Data Storage:
+Real-World Modeling:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Some data structures directly model real-world situations. The most important data structure of this type is the graph. You can use graphs to represent airline routes between cities or connections in an electric circuit or tasks in a project.
+ - Other data structures, such as stacks and queues, may also be used in simulations. A queue, for example, can model customers waiting in line at a bank or cars waiting at a toll booth.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Overview of Data Structures:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Array: Quick insertion, very fast access if index known, slow search, slow deletion, fixed size
+ - Ordered array: Quicker search than unsorted array, slow insertion and deletion, fixed size.
+ - Stack: Provides last-in, first-out access. Slow access to other items.
+ ...........</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Some Definitions: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Database: Refer to all the data that will be dealt with in a particular situation.
+- Records: Are the units into which a database is divided
+- Field: 
+- Key</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Object-Oriented Programming:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+  </si>
+  <si>
+    <t>Primitive Variable Types:
+ - boolean        |   1 bit   |   true or false
+ - byte             |   8 bit   |   -128 -&gt; 127
+ - char             |   16 bit |   ‘\u0000’ to ‘\uFFFF’
+ - short            |   16 bit |   –32,768 to +32,767
+ - int                |   32 bit |   –2,147,483,648 to +2,147,483,647
+ -  long            |   64 bit |   –9,223,372,036,854,775,808 to +9,223,372,036,854,775,807
+ - float             |   32 bit |   Approximately 10–38 to 10+38; 7 significant digits
+ - double         |   64 bit |   Approximately 10–308 to 10+308; 15 significant digits</t>
+  </si>
+  <si>
+    <t>ARRAYS</t>
+  </si>
+  <si>
+    <t>ALGORITHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms manipulate(thao tác, xử lý) the data in these structures in various ways, such as searching for a particular data item and sorting the data
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Overview of Algorithms: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert a new data item, Search for a specified item, Delete a specified item.</t>
+    </r>
+  </si>
+  <si>
     <t>Singleton</t>
   </si>
   <si>
@@ -8957,12 +9194,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9057,6 +9294,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9070,11 +9315,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9094,39 +9354,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9149,7 +9378,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9162,23 +9414,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9277,7 +9522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9295,25 +9564,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9331,43 +9612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9379,7 +9636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9391,13 +9648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9409,19 +9660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9433,13 +9672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9548,6 +9793,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -9558,6 +9818,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9576,174 +9856,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9845,6 +10090,18 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -9857,16 +10114,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="33" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9881,16 +10132,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9899,7 +10144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9938,7 +10183,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10811,10 +11056,262 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29.3" customWidth="1"/>
+    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25" spans="1:2">
+      <c r="A2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:2">
+      <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" ht="63.75" spans="1:2">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" spans="1:2">
+      <c r="A14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="1:2">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" ht="51" spans="1:2">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>489</v>
+      </c>
+      <c r="B26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" ht="63.75" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -10825,195 +11322,195 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" ht="63.75" spans="1:2">
       <c r="A24" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B35" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -11028,7 +11525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C64"/>
@@ -11045,140 +11542,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -11186,145 +11683,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="27"/>
       <c r="B55" s="8" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="27"/>
       <c r="B56" s="8" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="28" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="28"/>
       <c r="B59" s="29" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="28"/>
       <c r="B60" s="29" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="28"/>
       <c r="B62" s="29" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="28"/>
       <c r="B63" s="29" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="28"/>
       <c r="B64" s="29" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -11340,7 +11837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B45"/>
@@ -11357,276 +11854,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" s="15" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
       <c r="B15" s="15" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6"/>
       <c r="B16" s="15" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="6"/>
       <c r="B17" s="15" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="17" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18"/>
       <c r="B28" s="17" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="18" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="5" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" s="5" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -11635,10 +12132,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -11662,7 +12159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -11681,10 +12178,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>133</v>
@@ -11692,29 +12189,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -11726,7 +12223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -11743,18 +12240,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -11763,7 +12260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -11779,7 +12276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -11795,7 +12292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:A8"/>
@@ -11812,22 +12309,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -11836,7 +12333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F36"/>
@@ -11854,10 +12351,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -11865,120 +12362,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11988,13 +12485,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -12005,40 +12502,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B24" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12046,41 +12543,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -12093,22 +12590,6 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -12474,7 +12955,7 @@
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="52" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -12482,37 +12963,37 @@
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="49"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="49"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="49"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="49"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="74" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="49"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="75" t="s">
         <v>120</v>
       </c>
@@ -12572,19 +13053,19 @@
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="51"/>
-      <c r="B68" s="44" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="51"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="75" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="79" t="s">
         <v>136</v>
       </c>
@@ -12666,7 +13147,7 @@
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="53" t="s">
         <v>152</v>
       </c>
       <c r="B83" s="80" t="s">
@@ -12677,14 +13158,14 @@
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="51"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="80"/>
       <c r="C84" s="81" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="51"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="80" t="s">
         <v>156</v>
       </c>
@@ -12693,14 +13174,14 @@
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="51"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="80"/>
       <c r="C86" s="81" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="51"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="80" t="s">
         <v>158</v>
       </c>
@@ -12709,7 +13190,7 @@
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="51"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="80" t="s">
         <v>160</v>
       </c>
@@ -12718,21 +13199,21 @@
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="51"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="80"/>
       <c r="C89" s="81" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="51"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="80" t="s">
         <v>162</v>
       </c>
       <c r="C90" s="81"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="51"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="80" t="s">
         <v>163</v>
       </c>
@@ -12741,14 +13222,14 @@
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="51"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="80"/>
       <c r="C92" s="81" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="51"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="80" t="s">
         <v>166</v>
       </c>
@@ -12790,6 +13271,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -12800,7 +13297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B3"/>
@@ -12818,26 +13315,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -12846,7 +13343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -12862,7 +13359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B14"/>
@@ -12879,96 +13376,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -12980,7 +13477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C31"/>
@@ -12998,110 +13495,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13116,13 +13613,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -13392,10 +13889,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -13406,7 +13903,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>215</v>
       </c>
     </row>
@@ -13535,10 +14032,10 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="54" t="s">
         <v>239</v>
       </c>
     </row>
@@ -13569,7 +14066,7 @@
       <c r="A31" s="6"/>
     </row>
     <row r="32" ht="24" spans="1:1">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="44" t="s">
         <v>186</v>
       </c>
     </row>
@@ -13609,7 +14106,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="51" spans="1:2">
+    <row r="38" ht="38.25" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>250</v>
       </c>
@@ -13709,10 +14206,10 @@
       <c r="A55" s="6"/>
     </row>
     <row r="56" ht="102" spans="1:3">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="55" t="s">
         <v>267</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -13720,22 +14217,22 @@
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="15" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="15" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="59" ht="153" spans="1:3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="5" t="s">
         <v>271</v>
       </c>
@@ -13812,7 +14309,7 @@
       <c r="A71" s="6"/>
     </row>
     <row r="72" ht="25.5" spans="1:2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="53" t="s">
         <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -13861,7 +14358,7 @@
       <c r="B79" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="56" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13894,14 +14391,14 @@
       <c r="A89" s="6"/>
     </row>
     <row r="90" ht="24" spans="1:1">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="44" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6"/>
     </row>
-    <row r="92" ht="114.75" spans="1:2">
+    <row r="92" ht="102" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>236</v>
       </c>
@@ -13919,49 +14416,49 @@
       <c r="A94" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="95" ht="178.5" spans="1:2">
+    <row r="95" ht="165.75" spans="1:2">
       <c r="A95" s="6"/>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="58" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="96" ht="306" spans="1:2">
+    <row r="96" ht="293.25" spans="1:2">
       <c r="A96" s="6"/>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="58" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="6"/>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="58" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6"/>
-      <c r="B98" s="55"/>
+      <c r="B98" s="57"/>
     </row>
     <row r="99" ht="38.25" spans="1:2">
       <c r="A99" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="57" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="100" ht="38.25" spans="1:2">
       <c r="A100" s="28"/>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="57" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="101" ht="38.25" spans="1:2">
       <c r="A101" s="28"/>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="57" t="s">
         <v>311</v>
       </c>
     </row>
@@ -13994,33 +14491,33 @@
       </c>
     </row>
     <row r="108" ht="25.5" spans="1:2">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="15" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="57"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="17" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="57"/>
-      <c r="B110" s="58" t="s">
+      <c r="A110" s="28"/>
+      <c r="B110" s="15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="57"/>
-      <c r="B111" s="58" t="s">
+    <row r="111" ht="25.5" spans="1:2">
+      <c r="A111" s="28"/>
+      <c r="B111" s="15" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="6" t="s">
         <v>322</v>
       </c>
       <c r="B112" t="s">
@@ -14028,30 +14525,42 @@
       </c>
     </row>
     <row r="113" ht="51" spans="1:2">
-      <c r="A113" s="59" t="s">
+      <c r="A113" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B113" s="60" t="s">
+      <c r="B113" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="114" ht="63.75" spans="1:2">
-      <c r="A114" s="59"/>
-      <c r="B114" s="58" t="s">
+      <c r="A114" s="6"/>
+      <c r="B114" s="15" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="115" ht="193.5" spans="1:2">
-      <c r="A115" s="59"/>
-      <c r="B115" s="61" t="s">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="59"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="59"/>
+    <row r="117" ht="76.5" spans="1:2">
+      <c r="A117" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" s="60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" ht="76.5" spans="2:2">
+      <c r="B118" s="60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" ht="63.75" spans="2:2">
+      <c r="B119" s="61" t="s">
+        <v>331</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14066,7 +14575,7 @@
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A113:A115"/>
     <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
@@ -14101,114 +14610,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>333</v>
+      <c r="A3" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>335</v>
+      <c r="A4" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
       <c r="A5" s="87" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="45" t="s">
-        <v>340</v>
+      <c r="A8" s="49" t="s">
+        <v>344</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39"/>
       <c r="B9" s="35" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39"/>
       <c r="B10" s="38" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" s="35" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="38" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -14216,185 +14725,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="47" t="s">
-        <v>371</v>
+      <c r="A34" s="46" t="s">
+        <v>375</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="49" t="s">
-        <v>386</v>
+      <c r="A43" s="52" t="s">
+        <v>390</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="49"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="28" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="49"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="28" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="49"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -14423,6 +14932,252 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="111.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" ht="63.75" spans="1:2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" ht="63.75" spans="1:2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" ht="114.75" spans="1:2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:2">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="44"/>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="44"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="44"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="44"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="44"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="44"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="44"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="44"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="44"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="44"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="44"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="44"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="44"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="44"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="44"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="44"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="44"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="44"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="44"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="44"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="44"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="44"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="44"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="44"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="44"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="44"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="44"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="44"/>
+    </row>
+    <row r="36" ht="38.25" spans="1:2">
+      <c r="A36" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="44"/>
+      <c r="B37" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="44"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="44"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="44"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="44"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="44"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="44"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="44"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="44"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="44"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="44"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="44"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="44"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="44"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="44"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="44"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="44"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="44"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="44"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="44"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="44"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="44"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="44"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="A36:A62"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14436,7 +15191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C19"/>
@@ -14454,88 +15209,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -14550,7 +15305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:D12"/>
@@ -14569,92 +15324,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -14665,256 +15420,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="29.3" customWidth="1"/>
-    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" ht="51" spans="1:2">
-      <c r="A4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" ht="63.75" spans="1:2">
-      <c r="A9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" spans="1:2">
-      <c r="A14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="1:2">
-      <c r="A15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="B16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" ht="51" spans="1:2">
-      <c r="A19" t="s">
-        <v>463</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>470</v>
-      </c>
-      <c r="B24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>472</v>
-      </c>
-      <c r="B25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>483</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A28:A34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="761">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -3726,13 +3726,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> - JSON: It uses JSON to format the data it contains.
  - WEB: It’s designed to be used for web requests.
  - TOKEN: It’s a token implementation.
@@ -3823,7 +3816,84 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> graphic algorithm
-   + Digital signature(): This part can be missing</t>
+   + Digital signature(): This part can be missing
+- A JWT is a token implementation. A token consists of three parts: the header, the body, and the signature. The details in the header and the body are represented with JSON, and they are Base64 encoded. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The third part is the signature, generated using a cryptographic algorithm that uses as input the header and the body
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- The cryptographic algorithm also implies the need for a key. The key is like a password. Someone having a proper key can sign a token or validate that a signature is authentic. If the signature on a token is authentic, that guarantees that nobody altered the token after it was signed.
+- If a hacker sees the contents in the token, they can’t change a token’s contents because if they do so, the signature becomes invalid. To be valid, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has to: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Be generated with the correct key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Match the content that was signed</t>
     </r>
   </si>
   <si>
@@ -4767,35 +4837,62 @@
     <t>Reseource Server</t>
   </si>
   <si>
-    <t>The first option allows the resource server to directly call the authorization server to verify an issued token:
+    <r>
+      <t>1. The first option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows the resource server to directly call the authorization server to verify an issued token:
  - After obtaining a token from the autohrization server, the client calls the endpoints exposed bu the resouce server
  - To validate the access token received from the client, the resource server directly calls the authorization server
  - Easy to implement. It can be applied to any token implementation.
  - It implies direct dependency between the authorization server and the resource server. It might cause unnecessary stress on the authorization server.</t>
-  </si>
-  <si>
-    <t>The second option(blackboarding) 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. The second option(blackboarding)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
  - uses a common database where the authorization server stores tokens, and then the resource server can access and validate the tokens
  - Eliminates the need for direct communication between the authorization server and the resource server.It’s more difficult to implement than directly calling the authorization server.
  - It can be applied to any token implementation.Requires one more component in the system, the shared database.
  - Persisting tokens allows authorization to work after an authorization server restart or if the authorization server is down.</t>
-  </si>
-  <si>
-    <r>
-      <t>The third option uses cryptographic signatures</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
- - The authorization server signs the token when issuing it, and the resource server validates the signature. Here’s where we generally use JSON Web Tokens (JWTs)
- - Allowing the resource server to validate them without needing to call the authorization server directly and without needing a shared database.</t>
-    </r>
+    </r>
+  </si>
+  <si>
+    <t>3. The third option uses cryptographic signatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The authorization server signs the token when issuing it, and the resource server validates the signature. Here’s where we generally use JSON Web Tokens (JWTs)
+ - Allowing the resource server to validate them without needing to call the authorization server directly and without needing a shared database.
+ - JWT</t>
+  </si>
+  <si>
+    <t>3.1: Using tokens signed with symmetric(đối xứng) keys with JWT
+ - Using the same key, you can both sign a token and validate its signature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2: Using tokens signed with asymmetric(bất đối xứng) keys with JWT
+ - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3: Adding custom details to the JWT
+ - </t>
   </si>
   <si>
     <t>JDBC là gì?</t>
@@ -9194,10 +9291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -9315,24 +9412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9346,8 +9435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9358,6 +9448,29 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9376,9 +9489,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9393,7 +9512,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -9401,29 +9520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9522,25 +9619,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9558,6 +9667,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9570,7 +9685,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9582,19 +9715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9606,19 +9727,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9630,61 +9775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9778,16 +9875,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9803,6 +9906,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9824,10 +9938,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -9841,135 +9953,120 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9979,16 +10076,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9996,7 +10093,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10139,12 +10236,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10864,7 +10955,7 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="82" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10875,7 +10966,7 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10883,10 +10974,10 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10897,7 +10988,7 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="83" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10919,7 +11010,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10930,7 +11021,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="66" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10941,7 +11032,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="66" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10952,7 +11043,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10966,7 +11057,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="81" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11001,7 +11092,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -11031,7 +11122,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11039,7 +11130,7 @@
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11070,230 +11161,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -11322,195 +11413,195 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" ht="63.75" spans="1:2">
       <c r="A24" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B35" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11542,140 +11633,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>540</v>
+        <v>543</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>544</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>547</v>
+        <v>550</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -11683,145 +11774,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="27"/>
       <c r="B55" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="27"/>
       <c r="B56" s="8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="28" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="28"/>
       <c r="B59" s="29" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="28"/>
       <c r="B60" s="29" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="28"/>
       <c r="B62" s="29" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="28"/>
       <c r="B63" s="29" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="28"/>
       <c r="B64" s="29" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -11854,276 +11945,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" s="15" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
       <c r="B15" s="15" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6"/>
       <c r="B16" s="15" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="6"/>
       <c r="B17" s="15" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="17" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18"/>
       <c r="B28" s="17" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="22" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="18" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" s="5" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -12132,10 +12223,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -12178,10 +12269,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>654</v>
+        <v>657</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>658</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>133</v>
@@ -12189,29 +12280,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>656</v>
+        <v>659</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -12240,18 +12331,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>663</v>
+        <v>666</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -12309,22 +12400,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -12351,10 +12442,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -12362,120 +12453,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -12485,13 +12576,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -12502,40 +12593,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B24" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12543,41 +12634,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="11" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -12630,7 +12721,7 @@
       <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12638,7 +12729,7 @@
       <c r="A4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="82" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12646,7 +12737,7 @@
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="83" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12654,7 +12745,7 @@
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12667,10 +12758,10 @@
       <c r="A8" s="6"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12686,36 +12777,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="67" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="67" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -12723,7 +12814,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -12731,7 +12822,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="67" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="41"/>
@@ -12988,13 +13079,13 @@
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="52"/>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="72" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
       <c r="A60" s="52"/>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="73" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13023,7 +13114,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="74" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -13031,7 +13122,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="74" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -13039,16 +13130,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="76"/>
-      <c r="B66" s="77" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="75" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="78" t="s">
+      <c r="A67" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="77" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13060,13 +13151,13 @@
     </row>
     <row r="69" ht="25.5" spans="1:2">
       <c r="A69" s="53"/>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="53"/>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="77" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13080,7 +13171,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6"/>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="75" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13132,7 +13223,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6"/>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="75" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13150,90 +13241,90 @@
       <c r="A83" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="79" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="53"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="81" t="s">
+      <c r="B84" s="78"/>
+      <c r="C84" s="79" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="53"/>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="81" t="s">
+      <c r="C85" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="53"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="81" t="s">
+      <c r="B86" s="78"/>
+      <c r="C86" s="79" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="53"/>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="81" t="s">
+      <c r="C87" s="79" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="53"/>
-      <c r="B88" s="80" t="s">
+      <c r="B88" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="81" t="s">
+      <c r="C88" s="79" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="53"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="81" t="s">
+      <c r="B89" s="78"/>
+      <c r="C89" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="53"/>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="81"/>
+      <c r="C90" s="79"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="53"/>
-      <c r="B91" s="80" t="s">
+      <c r="B91" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="81" t="s">
+      <c r="C91" s="79" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="53"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="81" t="s">
+      <c r="B92" s="78"/>
+      <c r="C92" s="79" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="53"/>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="81" t="s">
+      <c r="C93" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -13315,26 +13406,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -13376,96 +13467,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -13495,110 +13586,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -13670,7 +13761,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -13681,43 +13772,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="38" t="s">
         <v>184</v>
       </c>
@@ -13781,7 +13872,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -13851,7 +13942,7 @@
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="64" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13864,7 +13955,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="65" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="34"/>
@@ -13889,10 +13980,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -13919,7 +14010,7 @@
       <c r="A3" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>219</v>
       </c>
     </row>
@@ -14351,8 +14442,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" ht="114.75" spans="1:3">
-      <c r="A79" s="6" t="s">
+    <row r="79" ht="216.75" spans="1:3">
+      <c r="A79" s="18" t="s">
         <v>292</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -14545,25 +14636,51 @@
       </c>
     </row>
     <row r="117" ht="76.5" spans="1:2">
-      <c r="A117" s="59" t="s">
+      <c r="A117" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B117" s="60" t="s">
+      <c r="B117" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="118" ht="76.5" spans="2:2">
-      <c r="B118" s="60" t="s">
+    <row r="118" ht="76.5" spans="1:2">
+      <c r="A118" s="6"/>
+      <c r="B118" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="119" ht="63.75" spans="2:2">
-      <c r="B119" s="61" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="6"/>
+      <c r="B119" s="13" t="s">
         <v>331</v>
       </c>
     </row>
+    <row r="120" ht="63.75" spans="1:2">
+      <c r="A120" s="6"/>
+      <c r="B120" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" spans="1:2">
+      <c r="A121" s="6"/>
+      <c r="B121" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" spans="1:2">
+      <c r="A122" s="6"/>
+      <c r="B122" s="59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" ht="25.5" spans="1:2">
+      <c r="A123" s="6"/>
+      <c r="B123" s="59" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A56:A59"/>
@@ -14576,6 +14693,7 @@
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A108:A111"/>
     <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A117:A123"/>
     <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
@@ -14610,114 +14728,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="87" t="s">
-        <v>340</v>
+      <c r="A5" s="85" t="s">
+        <v>344</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="49" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39"/>
       <c r="B9" s="35" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39"/>
       <c r="B10" s="38" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" s="35" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="38" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -14725,185 +14843,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
       <c r="A34" s="46" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
       <c r="A43" s="52" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="52"/>
       <c r="B44" s="28" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="52"/>
       <c r="B45" s="28" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="52"/>
       <c r="B46" s="28" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -14946,46 +15064,46 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="43" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="44"/>
       <c r="B2" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
       <c r="A3" s="44"/>
       <c r="B3" s="15" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="44"/>
       <c r="B5" s="15" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
       <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -15075,22 +15193,22 @@
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="44" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="44"/>
       <c r="B37" s="17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -15209,88 +15327,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -15324,92 +15442,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="760">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -3726,6 +3726,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - JSON: It uses JSON to format the data it contains.
  - WEB: It’s designed to be used for web requests.
  - TOKEN: It’s a token implementation.
@@ -4730,13 +4737,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -4838,6 +4838,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. The first option</t>
     </r>
     <r>
@@ -4857,6 +4865,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2. The second option(blackboarding)</t>
     </r>
     <r>
@@ -4875,12 +4891,22 @@
     </r>
   </si>
   <si>
-    <t>3. The third option uses cryptographic signatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - The authorization server signs the token when issuing it, and the resource server validates the signature. Here’s where we generally use JSON Web Tokens (JWTs)
+    <r>
+      <t xml:space="preserve">3. The third option uses cryptographic signatures
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The authorization server signs the token when issuing it, and the resource server validates the signature. Here’s where we generally use JSON Web Tokens (JWTs)
  - Allowing the resource server to validate them without needing to call the authorization server directly and without needing a shared database.
  - JWT</t>
+    </r>
   </si>
   <si>
     <t>3.1: Using tokens signed with symmetric(đối xứng) keys with JWT
@@ -9291,10 +9317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -9413,6 +9439,43 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -9420,6 +9483,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -9437,40 +9509,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9482,10 +9523,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9496,33 +9544,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9619,13 +9645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9637,37 +9675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9679,43 +9693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9733,7 +9717,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9745,43 +9801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9875,7 +9901,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9895,56 +9971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9956,136 +9982,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10093,7 +10119,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10233,9 +10259,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10955,7 +10978,7 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10966,7 +10989,7 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10974,10 +10997,10 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10988,7 +11011,7 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11010,7 +11033,7 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11021,7 +11044,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11032,7 +11055,7 @@
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11043,7 +11066,7 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11057,7 +11080,7 @@
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11092,7 +11115,7 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -11122,7 +11145,7 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11130,7 +11153,7 @@
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>39</v>
       </c>
     </row>
@@ -11161,230 +11184,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>451</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" t="s">
         <v>455</v>
-      </c>
-      <c r="B3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" t="s">
         <v>459</v>
-      </c>
-      <c r="B5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
         <v>461</v>
-      </c>
-      <c r="B6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" t="s">
         <v>463</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" t="s">
         <v>465</v>
-      </c>
-      <c r="B8" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" t="s">
         <v>469</v>
-      </c>
-      <c r="B10" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" t="s">
         <v>478</v>
-      </c>
-      <c r="B16" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" t="s">
         <v>487</v>
-      </c>
-      <c r="B23" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24" t="s">
         <v>489</v>
-      </c>
-      <c r="B24" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>490</v>
+      </c>
+      <c r="B25" t="s">
         <v>491</v>
-      </c>
-      <c r="B25" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" t="s">
         <v>493</v>
-      </c>
-      <c r="B26" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -11413,195 +11436,195 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>503</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>521</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="24" ht="63.75" spans="1:2">
       <c r="A24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" t="s">
         <v>536</v>
-      </c>
-      <c r="B35" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11633,140 +11656,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="C1" s="25" t="s">
         <v>544</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>550</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -11774,145 +11797,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="27"/>
       <c r="B55" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="27"/>
       <c r="B56" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="28"/>
       <c r="B59" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="28"/>
       <c r="B60" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="28"/>
       <c r="B62" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="28"/>
       <c r="B63" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="28"/>
       <c r="B64" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -11945,276 +11968,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="6"/>
       <c r="B2" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>612</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="6"/>
       <c r="B8" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
       <c r="B15" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6"/>
       <c r="B16" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="6"/>
       <c r="B17" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="6"/>
       <c r="B18" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6"/>
       <c r="B19" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6"/>
       <c r="B20" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="18"/>
       <c r="B25" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18"/>
       <c r="B28" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6"/>
       <c r="B30" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6"/>
       <c r="B31" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6"/>
       <c r="B32" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
       <c r="B33" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="6"/>
       <c r="B35" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="6"/>
       <c r="B37" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -12223,10 +12246,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>655</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -12269,10 +12292,10 @@
   <sheetData>
     <row r="1" ht="114.75" spans="1:3">
       <c r="A1" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>657</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>658</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>133</v>
@@ -12280,29 +12303,29 @@
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>659</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:3">
       <c r="A3" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>662</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>664</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -12331,18 +12354,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>666</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -12400,22 +12423,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -12442,10 +12465,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>674</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -12453,120 +12476,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -12576,13 +12599,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -12593,40 +12616,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B24" t="s">
         <v>699</v>
-      </c>
-      <c r="B24" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12634,41 +12657,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -12721,7 +12744,7 @@
       <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12729,7 +12752,7 @@
       <c r="A4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12737,7 +12760,7 @@
       <c r="A5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12745,7 +12768,7 @@
       <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12758,10 +12781,10 @@
       <c r="A8" s="6"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>54</v>
       </c>
     </row>
@@ -12777,36 +12800,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -12814,7 +12837,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="40" t="s">
@@ -12822,7 +12845,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="41"/>
@@ -13079,13 +13102,13 @@
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="52"/>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
       <c r="A60" s="52"/>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="72" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13114,7 +13137,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="73" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -13122,7 +13145,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="73" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -13130,16 +13153,16 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="74"/>
-      <c r="B66" s="75" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="74" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="76" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13151,13 +13174,13 @@
     </row>
     <row r="69" ht="25.5" spans="1:2">
       <c r="A69" s="53"/>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="72" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="53"/>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13171,7 +13194,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6"/>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="74" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13223,7 +13246,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6"/>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="74" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13241,90 +13264,90 @@
       <c r="A83" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="78" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
       <c r="A84" s="53"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79" t="s">
+      <c r="B84" s="77"/>
+      <c r="C84" s="78" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
       <c r="A85" s="53"/>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="78" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
       <c r="A86" s="53"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="79" t="s">
+      <c r="B86" s="77"/>
+      <c r="C86" s="78" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
       <c r="A87" s="53"/>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="78" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
       <c r="A88" s="53"/>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="79" t="s">
+      <c r="C88" s="78" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
       <c r="A89" s="53"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="79" t="s">
+      <c r="B89" s="77"/>
+      <c r="C89" s="78" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
       <c r="A90" s="53"/>
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="79"/>
+      <c r="C90" s="78"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
       <c r="A91" s="53"/>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="78" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
       <c r="A92" s="53"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="79" t="s">
+      <c r="B92" s="77"/>
+      <c r="C92" s="78" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
       <c r="A93" s="53"/>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="78" t="s">
         <v>167</v>
       </c>
     </row>
@@ -13406,26 +13429,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>713</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -13467,96 +13490,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" t="s">
         <v>732</v>
-      </c>
-      <c r="B9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -13586,110 +13609,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -13761,7 +13784,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -13772,43 +13795,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="35" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="38" t="s">
         <v>184</v>
       </c>
@@ -13872,7 +13895,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -13942,7 +13965,7 @@
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="63" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13955,7 +13978,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="34"/>
@@ -13980,10 +14003,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -14010,7 +14033,7 @@
       <c r="A3" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>219</v>
       </c>
     </row>
@@ -14649,13 +14672,13 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" ht="76.5" spans="1:2">
       <c r="A119" s="6"/>
       <c r="B119" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" ht="63.75" spans="1:2">
+    <row r="120" ht="25.5" spans="1:2">
       <c r="A120" s="6"/>
       <c r="B120" s="2" t="s">
         <v>332</v>
@@ -14669,14 +14692,8 @@
     </row>
     <row r="122" ht="25.5" spans="1:2">
       <c r="A122" s="6"/>
-      <c r="B122" s="59" t="s">
+      <c r="B122" s="2" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="123" ht="25.5" spans="1:2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="59" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14693,7 +14710,7 @@
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A108:A111"/>
     <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A117:A122"/>
     <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
@@ -14728,114 +14745,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>340</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="48" t="s">
+    </row>
+    <row r="5" ht="64.5" customHeight="1" spans="1:2">
+      <c r="A5" s="84" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="85" t="s">
+      <c r="B5" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="50" t="s">
         <v>349</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="39"/>
       <c r="B9" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="39"/>
       <c r="B10" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="39"/>
       <c r="B11" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -14843,185 +14860,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
       <c r="A34" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="51" t="s">
         <v>380</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
       <c r="A43" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="C43" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="52"/>
       <c r="B44" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="52"/>
       <c r="B45" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="52"/>
       <c r="B46" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -15064,46 +15081,46 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="44"/>
       <c r="B2" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
       <c r="A3" s="44"/>
       <c r="B3" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="44"/>
       <c r="B5" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
       <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -15193,22 +15210,22 @@
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="44"/>
       <c r="B37" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -15327,88 +15344,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>414</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -15442,92 +15459,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
         <v>432</v>
-      </c>
-      <c r="B4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
         <v>434</v>
-      </c>
-      <c r="B6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
         <v>436</v>
-      </c>
-      <c r="B7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" t="s">
         <v>438</v>
-      </c>
-      <c r="B8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
         <v>440</v>
-      </c>
-      <c r="B9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\MyProject\My-Documents\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24EF3-1F04-4162-BC1E-3A5E15C843AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15,31 +21,29 @@
     <sheet name="4. Data Structure - Algorithm" sheetId="30" r:id="rId6"/>
     <sheet name="5.SpringBoot" sheetId="26" r:id="rId7"/>
     <sheet name="6.DesignPattern" sheetId="10" r:id="rId8"/>
-    <sheet name="7.AOP" sheetId="15" r:id="rId9"/>
+    <sheet name="7.OOP - AOP" sheetId="15" r:id="rId9"/>
     <sheet name="8.Annotations" sheetId="21" r:id="rId10"/>
     <sheet name="9.System Design" sheetId="22" r:id="rId11"/>
     <sheet name="10.Microservice" sheetId="3" r:id="rId12"/>
     <sheet name="11.Cache" sheetId="11" r:id="rId13"/>
-    <sheet name="12.Distributed Event Streaming" sheetId="2" r:id="rId14"/>
-    <sheet name="13.Git" sheetId="7" r:id="rId15"/>
-    <sheet name="14.Linux" sheetId="19" r:id="rId16"/>
-    <sheet name="15.Networking &amp; Security" sheetId="18" r:id="rId17"/>
-    <sheet name="16.Server Management" sheetId="23" r:id="rId18"/>
-    <sheet name="17.Containers" sheetId="12" r:id="rId19"/>
-    <sheet name="18.Container Orchestration" sheetId="25" r:id="rId20"/>
-    <sheet name="19.Infrastructure as a code" sheetId="27" r:id="rId21"/>
-    <sheet name="20.CI&amp;CD" sheetId="4" r:id="rId22"/>
-    <sheet name="21.Cloud" sheetId="28" r:id="rId23"/>
-    <sheet name="22.Concurrency" sheetId="24" r:id="rId24"/>
-    <sheet name="23.Reactive Programing" sheetId="14" r:id="rId25"/>
-    <sheet name="24.System Design" sheetId="29" r:id="rId26"/>
+    <sheet name="12.Git" sheetId="7" r:id="rId14"/>
+    <sheet name="14.Linux" sheetId="19" r:id="rId15"/>
+    <sheet name="15.Networking &amp; Security" sheetId="18" r:id="rId16"/>
+    <sheet name="16.Server Management" sheetId="23" r:id="rId17"/>
+    <sheet name="17.Containers" sheetId="12" r:id="rId18"/>
+    <sheet name="18.Container Orchestration" sheetId="25" r:id="rId19"/>
+    <sheet name="19.Infrastructure as a code" sheetId="27" r:id="rId20"/>
+    <sheet name="20.CI&amp;CD" sheetId="4" r:id="rId21"/>
+    <sheet name="21.Cloud" sheetId="28" r:id="rId22"/>
+    <sheet name="22.Concurrency" sheetId="24" r:id="rId23"/>
+    <sheet name="23.Reactive Programing" sheetId="14" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="751">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -6190,12 +6194,6 @@
     <t>@ConditionalOnResource</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -6241,9 +6239,6 @@
     <t>Reliability</t>
   </si>
   <si>
-    <t>Cost Optimizations</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -6253,67 +6248,6 @@
     <t>Domain Driven Design</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Donain Driven Design bases on the business domain
- - Eric Evans: Domain-Driven Design:
-   + The primary focus of the project is the core domain and domain logic
-   + Complex designs are based on models of the domain
-   + Collaboration between technical and domain experts is crucial to creating an application model that will solve particular domain problems</t>
-  </si>
-  <si>
-    <t>Domain Logic</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Domain logic is the purpose of your modeling
- - Most commonly, it's referred to as the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>business logic</t>
-    </r>
-  </si>
-  <si>
-    <t>Domain Model</t>
-  </si>
-  <si>
-    <t>Subdomain</t>
-  </si>
-  <si>
-    <t>Design patterns</t>
-  </si>
-  <si>
-    <t>Bounded Context</t>
-  </si>
-  <si>
-    <t>The Ubiquitous Language</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Value Objects and Aggregates</t>
-  </si>
-  <si>
-    <t>Domain Service</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
     <t xml:space="preserve">Layer </t>
   </si>
   <si>
@@ -6327,12 +6261,6 @@
   </si>
   <si>
     <t>Infrastructure layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advantages </t>
-  </si>
-  <si>
-    <t>Downsides</t>
   </si>
   <si>
     <t>Mô Tả về Kiến Trúc Microservice</t>
@@ -8105,9 +8033,6 @@
 - Cuối cùng Kafka hỗ trợ các tính năng nhưn stream processing, real-time analytics, event sourcing giúp xử lí và pt dữ liệu realtime tốt hơn</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7gMm0iQNZGA</t>
-  </si>
-  <si>
     <t>Chia sẻ thêm về các message trên Kafka?</t>
   </si>
   <si>
@@ -9311,23 +9236,51 @@
   <si>
     <t>Functional Endpoints</t>
   </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED EVENT STREAMING</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>DOMAIN DRIVEN DESIGN</t>
+  </si>
+  <si>
+    <t>CLEAN ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>SYSTEM DESIGN</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9438,120 +9391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -9593,8 +9432,22 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9627,12 +9480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -9643,176 +9490,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -9896,242 +9575,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10141,85 +9599,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10231,17 +9661,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="33" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10249,163 +9670,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -10421,13 +9868,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2"/>
+        <xdr:cNvPr id="3" name="Ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10459,13 +9912,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3"/>
+        <xdr:cNvPr id="4" name="Ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10497,13 +9956,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4"/>
+        <xdr:cNvPr id="5" name="Ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10524,7 +9989,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10540,13 +10005,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10567,7 +10038,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -10583,13 +10054,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10610,7 +10087,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -10626,13 +10103,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10653,7 +10136,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10669,13 +10152,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10947,250 +10436,248 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="7"/>
-    <col min="2" max="2" width="39.5733333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="7" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50" style="7" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="7"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="39.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="7">
+    <row r="1" spans="1:7" ht="90">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="75">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" ht="240">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" ht="300">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="245.25" customHeight="1">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="223.5" customHeight="1">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" ht="300">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:7" ht="30">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:7" ht="150">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:7" ht="180">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:7" ht="288.75" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:7" ht="60">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:7" ht="240.75" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:3" ht="180">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:3" ht="180">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="41" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.3" customWidth="1"/>
-    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" t="s">
         <v>452</v>
       </c>
@@ -11206,7 +10693,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:2">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -11246,7 +10733,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" ht="63.75" spans="1:2">
+    <row r="9" spans="1:2" ht="75">
       <c r="A9" t="s">
         <v>466</v>
       </c>
@@ -11262,22 +10749,22 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="1:2">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
         <v>473</v>
       </c>
@@ -11285,7 +10772,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="1:2">
+    <row r="15" spans="1:2" ht="60">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -11294,24 +10781,24 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="23" t="s">
         <v>477</v>
       </c>
       <c r="B16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="1:2">
+    <row r="19" spans="1:2" ht="60">
       <c r="A19" t="s">
         <v>481</v>
       </c>
@@ -11319,17 +10806,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>485</v>
       </c>
@@ -11366,8 +10853,8 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="61" t="s">
         <v>494</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -11375,37 +10862,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="61"/>
       <c r="B29" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="61"/>
       <c r="B30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="61"/>
       <c r="B31" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="61"/>
       <c r="B32" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="61"/>
       <c r="B33" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="61"/>
       <c r="B34" t="s">
         <v>501</v>
       </c>
@@ -11415,527 +10902,544 @@
     <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7133333333333" customWidth="1"/>
-    <col min="2" max="2" width="114.14" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" s="88"/>
+      <c r="B2" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="31" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="88"/>
+      <c r="B3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="88"/>
+      <c r="B5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="88"/>
+      <c r="B6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="88"/>
+      <c r="B7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" s="88"/>
+      <c r="B8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" s="88"/>
+      <c r="B9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="88"/>
+      <c r="B10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" s="88"/>
+      <c r="B11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="88"/>
+      <c r="B12" s="91" t="s">
+        <v>750</v>
+      </c>
+      <c r="C12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="A13" s="88"/>
+      <c r="B13" s="91"/>
+      <c r="C13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="91"/>
+      <c r="C14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="88"/>
+      <c r="B15" s="91"/>
+      <c r="C15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="91"/>
+      <c r="C16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="88" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="90"/>
+      <c r="B21" s="89"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="88" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" s="61" t="s">
         <v>520</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="C22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="24" ht="63.75" spans="1:2">
-      <c r="A24" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="88"/>
+      <c r="B23" s="61"/>
+      <c r="C23" t="s">
         <v>522</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="88"/>
+      <c r="B24" s="61"/>
+      <c r="C24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="88"/>
+      <c r="B25" s="61"/>
+      <c r="C25" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B35" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>541</v>
+    </row>
+    <row r="27" spans="1:3" ht="180">
+      <c r="A27" s="88" t="s">
+        <v>743</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="120">
+      <c r="A28" s="88"/>
+      <c r="B28" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="120">
+      <c r="A29" s="88"/>
+      <c r="B29" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="75">
+      <c r="A30" s="88"/>
+      <c r="B30" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="90" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A35:A38"/>
+  <mergeCells count="6">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A1:A16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="https://www.geeksforgeeks.org/system-design-tutorial/?ref=lbp"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{F5CF4852-5086-49AF-9416-DCA12FECF90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" style="8" customWidth="1"/>
-    <col min="2" max="2" width="109" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="109" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="150">
+      <c r="A1" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="200.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="120">
+      <c r="A3" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="150">
+      <c r="A8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60">
+      <c r="A12" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B1" s="82" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="60">
+      <c r="A13" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="B13" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="14" spans="1:3" ht="120">
+      <c r="A14" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="8" t="s">
+    <row r="15" spans="1:3" ht="120">
+      <c r="A15" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B16" s="6" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="8" t="s">
+    <row r="17" spans="1:2" ht="225">
+      <c r="A17" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="8" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="345">
+      <c r="A19" s="6" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="8" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="8" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="8" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="34" spans="1:2" ht="135">
+      <c r="A34" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="8" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="8" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="8" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="26"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="81" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="81"/>
+      <c r="B55" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="81"/>
+      <c r="B56" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="8" t="s">
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="62" t="s">
         <v>579</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="8" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="62"/>
+      <c r="B60" s="21" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="62"/>
+      <c r="B61" s="21" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="62"/>
+      <c r="B62" s="21" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="62"/>
+      <c r="B63" s="21" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="62"/>
+      <c r="B64" s="21" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -11944,754 +11448,677 @@
     <mergeCell ref="A58:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="HƯỚNG DẪN CÁC BƯỚC PHÁT TRIỂN HỆ THỐNG MICROSERVICE VỚI DOCKER | CO-WELL Asia"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.14" customWidth="1"/>
-    <col min="2" max="2" width="110.853333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>508</v>
+    <row r="1" spans="1:2" ht="105">
+      <c r="A1" s="61" t="s">
+        <v>506</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105">
+      <c r="A2" s="61"/>
+      <c r="B2" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135">
+      <c r="A3" s="61"/>
+      <c r="B3" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="61"/>
+      <c r="B5" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="61"/>
+      <c r="B8" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="61"/>
+      <c r="B13" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="165">
+      <c r="A14" s="61"/>
+      <c r="B14" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="12" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="15" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="61"/>
+      <c r="B17" s="12" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="6" t="s">
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="61"/>
+      <c r="B18" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="13" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+    <row r="21" spans="1:2" ht="195">
+      <c r="A21" s="82" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="300">
+      <c r="A22" s="82"/>
+      <c r="B22" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="15" t="s">
+    <row r="23" spans="1:2" ht="195">
+      <c r="A23" s="82"/>
+      <c r="B23" s="12" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="82"/>
+      <c r="B24" s="12" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="82"/>
+      <c r="B25" s="12" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15" t="s">
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="82"/>
+      <c r="B26" s="12" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="82"/>
+      <c r="B27" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="B12" s="15" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="13" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15" t="s">
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="83" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="14" ht="127.5" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="15" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="15" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="15" t="s">
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="82" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="17" t="s">
+      <c r="B34" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="18" t="s">
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="61"/>
+      <c r="B35" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B21" s="15" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="61"/>
+      <c r="B36" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15" t="s">
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="61"/>
+      <c r="B37" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15" t="s">
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="61" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15" t="s">
+      <c r="B38" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15" t="s">
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="61"/>
+      <c r="B39" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="61"/>
+      <c r="B40" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15" t="s">
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="61"/>
+      <c r="B41" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="22" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="61"/>
+      <c r="B43" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B29" s="15" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="4" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>655</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
+    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.8533333333333" style="12" customWidth="1"/>
-    <col min="2" max="2" width="114.573333333333" style="12" customWidth="1"/>
-    <col min="3" max="3" width="49.2866666666667" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.14" style="12"/>
+    <col min="1" max="1" width="37.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="114.75" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" ht="63.75" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="4" ht="51" spans="1:2">
-      <c r="A4" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>664</v>
+    <row r="1" spans="1:2" ht="135">
+      <c r="A1" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210">
+      <c r="A2" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://www.youtube.com/watch?v=7gMm0iQNZGA"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="37.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="49.2" customWidth="1"/>
-    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="180">
+      <c r="A3" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150">
+      <c r="A4" s="84"/>
+      <c r="B4" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="84"/>
+      <c r="B5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="84"/>
+      <c r="B6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="84"/>
+      <c r="B7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85" t="s">
+        <v>665</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="105">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="84"/>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="270">
+      <c r="A14" s="84"/>
+      <c r="B14" s="73" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="210">
+      <c r="A15" s="84"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="12" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="11" t="s">
+    <row r="16" spans="1:3" ht="120">
+      <c r="A16" s="84"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="12" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="84"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="90">
+      <c r="A18" s="84"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="84"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="84"/>
+      <c r="B20" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="84"/>
+      <c r="B21" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="84" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s">
+      <c r="B24" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
-      <c r="B7" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="84"/>
+      <c r="B25" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="84"/>
+      <c r="B26" t="s">
         <v>683</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="84"/>
+      <c r="B27" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5" t="s">
+    <row r="28" spans="1:6" ht="90">
+      <c r="A28" s="84"/>
+      <c r="B28" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5" t="s">
+    <row r="29" spans="1:6" ht="180">
+      <c r="A29" s="84"/>
+      <c r="B29" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="180">
+      <c r="A31" s="84" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" t="s">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="75">
+      <c r="A32" s="84"/>
+      <c r="B32" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="84"/>
+      <c r="B33" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="84"/>
+      <c r="B34" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="84"/>
+      <c r="B36" s="2" t="s">
         <v>693</v>
-      </c>
-    </row>
-    <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
-      <c r="B21" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="B24" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="18"/>
-    </row>
-    <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -12704,882 +12131,870 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="117" style="7" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117" style="5" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" ht="360">
+      <c r="A4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="83" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="28" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="195">
+      <c r="A12" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:2" ht="51">
+      <c r="A16" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="46" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="41"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="61"/>
+      <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="29" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="61"/>
+      <c r="B45" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:2" ht="75">
+      <c r="A46" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="61"/>
+      <c r="B47" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:2" ht="135">
+      <c r="A52" s="62"/>
+      <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="62"/>
+      <c r="B53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:2" ht="60">
+      <c r="A54" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:2" ht="120">
+      <c r="A55" s="63"/>
+      <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="29" t="s">
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="63"/>
+      <c r="B56" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="29" t="s">
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="63"/>
+      <c r="B57" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:2" ht="240">
+      <c r="A58" s="63"/>
+      <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="71" t="s">
+    <row r="59" spans="1:2" ht="90">
+      <c r="A59" s="63"/>
+      <c r="B59" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="72" t="s">
+    <row r="60" spans="1:2" ht="409.5">
+      <c r="A60" s="63"/>
+      <c r="B60" s="48" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:2" ht="75">
+      <c r="A61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:2" ht="255">
+      <c r="A62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:2" ht="135">
+      <c r="A63" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="73" t="s">
+    <row r="64" spans="1:2" ht="135">
+      <c r="A64" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="73" t="s">
+    <row r="65" spans="1:2" ht="165">
+      <c r="A65" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="73"/>
-      <c r="B66" s="74" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="64"/>
+      <c r="B66" s="50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="75" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="53"/>
-      <c r="B68" s="48" t="s">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="66"/>
+      <c r="B68" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="53"/>
-      <c r="B69" s="72" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="66"/>
+      <c r="B69" s="48" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="76" t="s">
+      <c r="A70" s="66"/>
+      <c r="B70" s="51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="74" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="1:2" ht="60">
+      <c r="A73" s="61"/>
+      <c r="B73" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:2" ht="90">
+      <c r="A74" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="61"/>
+      <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" s="61"/>
+      <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="1:2" ht="90">
+      <c r="A78" s="61"/>
+      <c r="B78" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="29" t="s">
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="61"/>
+      <c r="B79" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="74" t="s">
+      <c r="A80" s="61"/>
+      <c r="B80" s="50" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="53" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="78" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="77" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="66"/>
+      <c r="B85" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C85" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="78" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="53"/>
-      <c r="B87" s="77" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="66"/>
+      <c r="B87" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="53"/>
-      <c r="B88" s="77" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="66"/>
+      <c r="B88" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="53" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="53"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="78" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="66"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="53" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="53"/>
-      <c r="B90" s="77" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="66"/>
+      <c r="B90" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="78"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="77" t="s">
+      <c r="C90" s="53"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="66"/>
+      <c r="B91" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="53" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="53"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="78" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="66"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="77" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="66"/>
+      <c r="B93" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="C93" s="53" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="4" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A83:A93"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="7"/>
+    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>717</v>
+    <row r="1" spans="1:2" ht="195">
+      <c r="A1" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90">
+      <c r="A2" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="180">
+      <c r="A3" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="51" spans="1:2">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165">
+      <c r="A3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="150">
+      <c r="A4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75">
+      <c r="A8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="61"/>
+      <c r="B10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="61"/>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="61"/>
+      <c r="B12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="61"/>
+      <c r="B13" t="s">
         <v>718</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="61"/>
+      <c r="B14" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="3" ht="127.5" spans="1:2">
-      <c r="A3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="4" ht="114.75" spans="1:2">
-      <c r="A4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" t="s">
-        <v>725</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" t="s">
-        <v>727</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" ht="63.75" spans="1:2">
-      <c r="A8" t="s">
-        <v>729</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="B9" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
-        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -13587,132 +13002,130 @@
     <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.5733333333333" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="105">
+      <c r="A27" s="86" t="s">
+        <v>737</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="86"/>
+      <c r="B28" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="86"/>
+      <c r="B29" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="86"/>
+      <c r="B30" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="6" ht="51" spans="1:2">
-      <c r="A6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="10" ht="38.25" spans="1:2">
-      <c r="A10" t="s">
-        <v>747</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -13720,135 +13133,117 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="122.713333333333" customWidth="1"/>
-    <col min="3" max="3" width="139.713333333333" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="139.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="303" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:5" ht="180">
+      <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="69"/>
+      <c r="B5" s="27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="69"/>
+      <c r="B6" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="69"/>
+      <c r="B7" s="27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="69"/>
+      <c r="B8" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="69"/>
+      <c r="B9" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="69"/>
+      <c r="B10" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="70"/>
+      <c r="B11" s="27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="28" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B15" t="s">
@@ -13858,100 +13253,100 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:3" ht="240">
+      <c r="A23" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:3" ht="90">
+      <c r="A24" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" ht="45">
+      <c r="A25" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:3" ht="240">
+      <c r="A26" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:3" ht="165">
+      <c r="A27" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:3" ht="120">
+      <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -13959,29 +13354,29 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="61" t="s">
         <v>210</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="71" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="64" t="s">
+      <c r="C32" s="72"/>
+    </row>
+    <row r="33" spans="1:3" ht="135">
+      <c r="A33" s="61"/>
+      <c r="B33" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13990,226 +13385,224 @@
     <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId2" display="springboot3-security-jwt/src/main/java/com/sc/repository/UserInfoRepository.java at main · JavaaTechSolutions/springboot3-security-jwt (github.com)"/>
-    <hyperlink ref="E4" r:id="rId3" display="Learn Spring Course | Baeldung"/>
-    <hyperlink ref="C31" r:id="rId4" display="https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="107.9" customWidth="1"/>
-    <col min="3" max="3" width="84.5" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" s="28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:3" ht="192.75" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:3" ht="105">
+      <c r="A3" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="57" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" ht="90">
+      <c r="A5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" ht="102" spans="1:2">
-      <c r="A14" s="6" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="120">
+      <c r="A14" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" ht="76.5" spans="1:2">
-      <c r="A17" s="6" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" ht="114.75" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="135">
+      <c r="A20" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="53" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="35" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="120">
+      <c r="A27" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" ht="24" spans="1:1">
-      <c r="A32" s="44" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" ht="26.25">
+      <c r="A32" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" ht="76.5" spans="1:2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:2" ht="90">
+      <c r="A33" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="34" ht="25.5" spans="1:2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" ht="25.5" spans="1:2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -14217,679 +13610,677 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="38.25" spans="1:2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" ht="75">
+      <c r="A38" s="61" t="s">
         <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" ht="51" spans="1:2">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="61"/>
       <c r="B39" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="61"/>
       <c r="B40" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="41" ht="102" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:2" ht="135">
+      <c r="A41" s="61"/>
+      <c r="B41" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="61"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="45">
+      <c r="A44" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" ht="51" spans="1:2">
-      <c r="A46" s="6" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B48" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="61" t="s">
         <v>260</v>
       </c>
       <c r="B50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="51" ht="25.5" spans="1:2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="61"/>
       <c r="B51" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="52" ht="25.5" spans="1:2">
-      <c r="A52" s="6"/>
+    <row r="52" spans="1:3" ht="30">
+      <c r="A52" s="61"/>
       <c r="B52" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B54" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" ht="102" spans="1:3">
-      <c r="A56" s="53" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="135">
+      <c r="A56" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="57" ht="63.75" spans="1:3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="15" t="s">
+    <row r="57" spans="1:3" ht="75">
+      <c r="A57" s="66"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" ht="25.5" spans="1:3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="15" t="s">
+    <row r="58" spans="1:3" ht="30">
+      <c r="A58" s="66"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" ht="153" spans="1:3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="5" t="s">
+    <row r="59" spans="1:3" ht="180">
+      <c r="A59" s="66"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" ht="38.25" spans="1:2">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:3" ht="60">
+      <c r="A60" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="51" spans="1:2">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:3" ht="60">
+      <c r="A62" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="63" ht="114.75" spans="1:2">
-      <c r="A63" s="6"/>
+    <row r="63" spans="1:3" ht="150">
+      <c r="A63" s="61"/>
       <c r="B63" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" ht="63.75" spans="1:2">
-      <c r="A64" s="6"/>
+    <row r="64" spans="1:3" ht="75">
+      <c r="A64" s="61"/>
       <c r="B64" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" ht="63.75" spans="1:2">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:3" ht="90">
+      <c r="A65" s="61"/>
       <c r="B65" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" ht="65.25" spans="1:2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="1:3" ht="75">
+      <c r="A66" s="61"/>
+      <c r="B66" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="76.5" spans="1:2">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:3" ht="90">
+      <c r="A68" s="61" t="s">
         <v>280</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="69" ht="63.75" spans="1:2">
-      <c r="A69" s="6"/>
+    <row r="69" spans="1:3" ht="75">
+      <c r="A69" s="61"/>
       <c r="B69" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6"/>
+    <row r="70" spans="1:3">
+      <c r="A70" s="61"/>
       <c r="B70" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="6"/>
-    </row>
-    <row r="72" ht="25.5" spans="1:2">
-      <c r="A72" s="53" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="34" t="s">
         <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="6"/>
-    </row>
-    <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="6" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="45">
+      <c r="A74" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="1:3" ht="45">
+      <c r="A75" s="61"/>
+      <c r="B75" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="15" t="s">
+    <row r="76" spans="1:3" ht="60">
+      <c r="A76" s="61"/>
+      <c r="B76" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="77" ht="38.25" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="15" t="s">
+    <row r="77" spans="1:3" ht="45">
+      <c r="A77" s="61"/>
+      <c r="B77" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" ht="63.75" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="15" t="s">
+    <row r="78" spans="1:3" ht="90">
+      <c r="A78" s="61"/>
+      <c r="B78" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="79" ht="216.75" spans="1:3">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:3" ht="285">
+      <c r="A79" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="36" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="6"/>
-    </row>
-    <row r="90" ht="24" spans="1:1">
-      <c r="A90" s="44" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="26.25">
+      <c r="A90" s="28" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="6"/>
-    </row>
-    <row r="92" ht="102" spans="1:2">
-      <c r="A92" s="6" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" ht="135">
+      <c r="A92" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="93" ht="140.25" spans="1:2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="1:2" ht="165">
+      <c r="A93" s="61"/>
+      <c r="B93" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="94" ht="51" spans="1:2">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:2" ht="60">
+      <c r="A94" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="B94" s="57" t="s">
+      <c r="B94" s="37" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="95" ht="165.75" spans="1:2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="58" t="s">
+    <row r="95" spans="1:2" ht="225">
+      <c r="A95" s="61"/>
+      <c r="B95" s="38" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="96" ht="293.25" spans="1:2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="58" t="s">
+    <row r="96" spans="1:2" ht="390">
+      <c r="A96" s="61"/>
+      <c r="B96" s="38" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="58" t="s">
+    <row r="97" spans="1:2" ht="135">
+      <c r="A97" s="61"/>
+      <c r="B97" s="38" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="57"/>
-    </row>
-    <row r="99" ht="38.25" spans="1:2">
-      <c r="A99" s="28" t="s">
+      <c r="A98" s="61"/>
+      <c r="B98" s="37"/>
+    </row>
+    <row r="99" spans="1:2" ht="60">
+      <c r="A99" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="100" ht="38.25" spans="1:2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="57" t="s">
+    <row r="100" spans="1:2" ht="45">
+      <c r="A100" s="62"/>
+      <c r="B100" s="37" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="38.25" spans="1:2">
-      <c r="A101" s="28"/>
-      <c r="B101" s="57" t="s">
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="62"/>
+      <c r="B101" s="37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="102" ht="51" spans="1:2">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:2" ht="75">
+      <c r="A102" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="103" ht="114.75" spans="1:2">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:2" ht="150">
+      <c r="A103" s="61"/>
       <c r="B103" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="104" ht="114.75" spans="1:2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="5" t="s">
+    <row r="104" spans="1:2" ht="150">
+      <c r="A104" s="61"/>
+      <c r="B104" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="6"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="34" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="61"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="108" ht="25.5" spans="1:2">
-      <c r="A108" s="28" t="s">
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="28"/>
-      <c r="B109" s="17" t="s">
+      <c r="A109" s="62"/>
+      <c r="B109" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="28"/>
-      <c r="B110" s="15" t="s">
+    <row r="110" spans="1:2" ht="75">
+      <c r="A110" s="62"/>
+      <c r="B110" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="111" ht="25.5" spans="1:2">
-      <c r="A111" s="28"/>
-      <c r="B111" s="15" t="s">
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="62"/>
+      <c r="B111" s="12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B112" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="113" ht="51" spans="1:2">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="61" t="s">
         <v>324</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="114" ht="63.75" spans="1:2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="15" t="s">
+    <row r="114" spans="1:2" ht="90">
+      <c r="A114" s="61"/>
+      <c r="B114" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="115" ht="193.5" spans="1:2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="5" t="s">
+    <row r="115" spans="1:2" ht="240">
+      <c r="A115" s="61"/>
+      <c r="B115" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="117" ht="76.5" spans="1:2">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:2" ht="90">
+      <c r="A117" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="118" ht="76.5" spans="1:2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="15" t="s">
+    <row r="118" spans="1:2" ht="120">
+      <c r="A118" s="61"/>
+      <c r="B118" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="119" ht="76.5" spans="1:2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="1:2" ht="90">
+      <c r="A119" s="61"/>
+      <c r="B119" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" ht="25.5" spans="1:2">
-      <c r="A120" s="6"/>
+    <row r="120" spans="1:2" ht="30">
+      <c r="A120" s="61"/>
       <c r="B120" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="121" ht="25.5" spans="1:2">
-      <c r="A121" s="6"/>
+    <row r="121" spans="1:2" ht="30">
+      <c r="A121" s="61"/>
       <c r="B121" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="122" ht="25.5" spans="1:2">
-      <c r="A122" s="6"/>
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="61"/>
       <c r="B122" s="2" t="s">
         <v>334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A105"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B56:B59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId2" display="https://docs.spring.io/spring-security/reference/features/authentication/password-storage.html"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://github.com/spring-projects/spring-security-samples/blob/main/servlet/spring-boot/java/authentication/username-password/mfa/src/main/java/example/MfaService.java"/>
-    <hyperlink ref="B9" r:id="rId4" display="HttpSecurity (spring-security-docs 6.1.3 API)"/>
-    <hyperlink ref="B7" r:id="rId5" display="Samples :: Spring Security"/>
-    <hyperlink ref="C79" r:id="rId6" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java&#10;&#10;&#10;https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C79" r:id="rId5" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java_x000a__x000a__x000a_https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="B41" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="125.713333333333" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="125.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="60">
+      <c r="A1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="75">
+      <c r="A2" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="32" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="32" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="84" t="s">
+    <row r="5" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A5" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" ht="82.5" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="77" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="75"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="75"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="42"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="C12" s="76"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:11">
+      <c r="B17" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:11">
+      <c r="B18" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" ht="390">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" ht="120">
+      <c r="A22" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" ht="225">
+      <c r="A24" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" ht="75">
+      <c r="A26" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -14899,96 +14290,96 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="1:11">
+      <c r="B28" s="21" t="s">
         <v>368</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" ht="45">
+      <c r="A29" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" ht="135">
+      <c r="A31" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:11" ht="30">
+      <c r="A32" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:3" ht="180">
+      <c r="A33" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:3" ht="360">
+      <c r="A34" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="33" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:3" ht="210">
+      <c r="A41" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -14996,45 +14387,45 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>392</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="52" t="s">
+    <row r="43" spans="1:3" ht="180">
+      <c r="A43" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="28" t="s">
+    <row r="44" spans="1:3" ht="120">
+      <c r="A44" s="63"/>
+      <c r="B44" s="20" t="s">
         <v>393</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="1:3" ht="180">
+      <c r="A45" s="63"/>
+      <c r="B45" s="20" t="s">
         <v>397</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="63"/>
+      <c r="B46" s="20" t="s">
         <v>399</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -15048,168 +14439,166 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C24" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C26" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C28" r:id="rId2" display="https://www.digitalocean.com/community/tutorials/spring-data-jpa"/>
-    <hyperlink ref="K26" r:id="rId3" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
-    <hyperlink ref="C34" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade"/>
-    <hyperlink ref="C40" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one"/>
-    <hyperlink ref="C41" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
-    <hyperlink ref="C42" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="111.2" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="78" t="s">
         <v>401</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="79"/>
+      <c r="B2" s="12" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="79"/>
+      <c r="B3" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" s="79"/>
+      <c r="B4" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="79"/>
+      <c r="B5" s="12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:3" ht="135">
+      <c r="A6" s="79"/>
       <c r="B6" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="79"/>
+      <c r="B7" s="29" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="44"/>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="44"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="44"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="44"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="44"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="44"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="44"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="44"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="44"/>
+      <c r="A8" s="79"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="79"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="79"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="79"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="79"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="79"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="79"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="79"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="79"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="79"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="79"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="79"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="79"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="79"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="79"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="79"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="79"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="79"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="79"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="79"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="79"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="79"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="79"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="79"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="44"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="44"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="44"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="44"/>
-    </row>
-    <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="44" t="s">
+      <c r="A32" s="79"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="79"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="79"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="79"/>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="79" t="s">
         <v>409</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -15217,88 +14606,88 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45" t="s">
+    <row r="38" spans="1:2" ht="18.75">
+      <c r="A38" s="79"/>
+      <c r="B38" s="29" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="44"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="44"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="44"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="44"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="44"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="44"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="44"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="44"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="44"/>
+    <row r="39" spans="1:2">
+      <c r="A39" s="79"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="79"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="79"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="79"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="79"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="79"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="79"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="79"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="79"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="79"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="44"/>
+      <c r="A49" s="79"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="44"/>
+      <c r="A50" s="79"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="44"/>
+      <c r="A51" s="79"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="44"/>
+      <c r="A52" s="79"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="44"/>
+      <c r="A53" s="79"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="44"/>
+      <c r="A54" s="79"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="44"/>
+      <c r="A55" s="79"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="44"/>
+      <c r="A56" s="79"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="44"/>
+      <c r="A57" s="79"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="44"/>
+      <c r="A58" s="79"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="44"/>
+      <c r="A59" s="79"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="44"/>
+      <c r="A60" s="79"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="44"/>
+      <c r="A61" s="79"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="44"/>
+      <c r="A62" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15306,96 +14695,92 @@
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.4266666666667" customWidth="1"/>
-    <col min="3" max="3" width="45.4266666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="26" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -15403,12 +14788,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>423</v>
       </c>
@@ -15433,31 +14818,29 @@
     <mergeCell ref="B1:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://java-design-patterns.com/patterns/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.14" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="140.25" spans="1:2">
+    <row r="2" spans="1:4" ht="165">
       <c r="A2" t="s">
         <v>427</v>
       </c>
@@ -15465,7 +14848,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" ht="25.5" spans="1:2">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -15473,7 +14856,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>431</v>
       </c>
@@ -15481,7 +14864,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>433</v>
       </c>
@@ -15489,7 +14872,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>435</v>
       </c>
@@ -15497,7 +14880,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>437</v>
       </c>
@@ -15505,7 +14888,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:2">
+    <row r="9" spans="1:4" ht="45" customHeight="1">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -15513,7 +14896,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" ht="63.75" spans="1:2">
+    <row r="10" spans="1:4" ht="75">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -15521,8 +14904,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:4" ht="75">
+      <c r="A11" s="72" t="s">
         <v>443</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -15535,8 +14918,8 @@
         <v>446</v>
       </c>
     </row>
-    <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:4" ht="90">
+      <c r="A12" s="72"/>
       <c r="B12" s="2" t="s">
         <v>447</v>
       </c>
@@ -15552,7 +14935,6 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/Documents.xlsx
+++ b/Doc/Documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\MyProject\My-Documents\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24EF3-1F04-4162-BC1E-3A5E15C843AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB410A0-D1F4-41A9-8EC9-1763450CCA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="6.DesignPattern" sheetId="10" r:id="rId8"/>
     <sheet name="7.OOP - AOP" sheetId="15" r:id="rId9"/>
     <sheet name="8.Annotations" sheetId="21" r:id="rId10"/>
-    <sheet name="9.System Design" sheetId="22" r:id="rId11"/>
+    <sheet name="9.Architechture" sheetId="22" r:id="rId11"/>
     <sheet name="10.Microservice" sheetId="3" r:id="rId12"/>
     <sheet name="11.Cache" sheetId="11" r:id="rId13"/>
     <sheet name="12.Git" sheetId="7" r:id="rId14"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="735">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -6194,55 +6194,10 @@
     <t>@ConditionalOnResource</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Microservices vs Moniliths</t>
-  </si>
-  <si>
-    <t>API Design</t>
-  </si>
-  <si>
-    <t>Data Partitioning</t>
-  </si>
-  <si>
     <t>Caching</t>
   </si>
   <si>
-    <t>Rate Limiting</t>
-  </si>
-  <si>
-    <t>Message Queues</t>
-  </si>
-  <si>
-    <t>Monitoring and Logging</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Connecting Protocols</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistency </t>
-  </si>
-  <si>
-    <t>Availabiblity</t>
-  </si>
-  <si>
     <t>Concurrency</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/system-design-tutorial/?ref=lbp</t>
   </si>
   <si>
     <t>Domain Driven Design</t>
@@ -9260,27 +9215,17 @@
   <si>
     <t>SYSTEM DESIGN</t>
   </si>
-  <si>
-    <t>Concepts</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9434,7 +9379,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9442,9 +9409,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -9578,14 +9545,14 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9599,57 +9566,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" font